--- a/data/trans_orig/P05A07-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P05A07-Habitat-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A23040EC-ABAF-4133-995D-E13613D8C0DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9635C42E-D52C-498E-B0CA-F118A1219719}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{C4F80EA2-EB5D-4210-B6C7-9CB279BC5548}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{5BDA50ED-01C1-4D6E-BC96-0C1EDDE40A2A}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
     <sheet name="2023" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="798" uniqueCount="489">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="798" uniqueCount="487">
   <si>
     <t>Población según si en el barrio donde vive hay trafico intenso de vehículos de motor en 2012 (Tasa respuesta: 99,68%)</t>
   </si>
@@ -67,7 +67,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Nada</t>
@@ -76,28 +76,28 @@
     <t>75,06%</t>
   </si>
   <si>
-    <t>66,16%</t>
-  </si>
-  <si>
-    <t>82,21%</t>
+    <t>66,78%</t>
+  </si>
+  <si>
+    <t>82,37%</t>
   </si>
   <si>
     <t>81,92%</t>
   </si>
   <si>
-    <t>72,68%</t>
-  </si>
-  <si>
-    <t>88,63%</t>
+    <t>72,73%</t>
+  </si>
+  <si>
+    <t>89,35%</t>
   </si>
   <si>
     <t>78,47%</t>
   </si>
   <si>
-    <t>72,85%</t>
-  </si>
-  <si>
-    <t>83,68%</t>
+    <t>71,72%</t>
+  </si>
+  <si>
+    <t>83,57%</t>
   </si>
   <si>
     <t>Algo</t>
@@ -106,28 +106,28 @@
     <t>21,76%</t>
   </si>
   <si>
-    <t>15,28%</t>
-  </si>
-  <si>
-    <t>30,3%</t>
+    <t>14,33%</t>
+  </si>
+  <si>
+    <t>29,61%</t>
   </si>
   <si>
     <t>15,0%</t>
   </si>
   <si>
-    <t>9,0%</t>
-  </si>
-  <si>
-    <t>24,26%</t>
+    <t>8,96%</t>
+  </si>
+  <si>
+    <t>24,23%</t>
   </si>
   <si>
     <t>18,4%</t>
   </si>
   <si>
-    <t>13,55%</t>
-  </si>
-  <si>
-    <t>23,45%</t>
+    <t>13,43%</t>
+  </si>
+  <si>
+    <t>24,3%</t>
   </si>
   <si>
     <t>Mucho</t>
@@ -136,1360 +136,1354 @@
     <t>3,19%</t>
   </si>
   <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>8,28%</t>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>8,17%</t>
   </si>
   <si>
     <t>3,07%</t>
   </si>
   <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>7,69%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>5,98%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2-10.000 hab</t>
+  </si>
+  <si>
+    <t>62,36%</t>
+  </si>
+  <si>
+    <t>58,03%</t>
+  </si>
+  <si>
+    <t>66,35%</t>
+  </si>
+  <si>
+    <t>59,2%</t>
+  </si>
+  <si>
+    <t>54,98%</t>
+  </si>
+  <si>
+    <t>63,42%</t>
+  </si>
+  <si>
+    <t>60,79%</t>
+  </si>
+  <si>
+    <t>58,04%</t>
+  </si>
+  <si>
+    <t>63,69%</t>
+  </si>
+  <si>
+    <t>32,01%</t>
+  </si>
+  <si>
+    <t>28,21%</t>
+  </si>
+  <si>
+    <t>36,47%</t>
+  </si>
+  <si>
+    <t>33,97%</t>
+  </si>
+  <si>
+    <t>29,87%</t>
+  </si>
+  <si>
+    <t>38,11%</t>
+  </si>
+  <si>
+    <t>32,99%</t>
+  </si>
+  <si>
+    <t>30,24%</t>
+  </si>
+  <si>
+    <t>35,57%</t>
+  </si>
+  <si>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>7,76%</t>
+  </si>
+  <si>
+    <t>6,83%</t>
+  </si>
+  <si>
+    <t>5,02%</t>
+  </si>
+  <si>
+    <t>9,11%</t>
+  </si>
+  <si>
+    <t>6,23%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>55,96%</t>
+  </si>
+  <si>
+    <t>52,87%</t>
+  </si>
+  <si>
+    <t>59,16%</t>
+  </si>
+  <si>
+    <t>55,87%</t>
+  </si>
+  <si>
+    <t>52,82%</t>
+  </si>
+  <si>
+    <t>59,29%</t>
+  </si>
+  <si>
+    <t>55,92%</t>
+  </si>
+  <si>
+    <t>53,53%</t>
+  </si>
+  <si>
+    <t>58,15%</t>
+  </si>
+  <si>
+    <t>35,55%</t>
+  </si>
+  <si>
+    <t>32,39%</t>
+  </si>
+  <si>
+    <t>38,52%</t>
+  </si>
+  <si>
+    <t>34,0%</t>
+  </si>
+  <si>
+    <t>30,89%</t>
+  </si>
+  <si>
+    <t>36,89%</t>
+  </si>
+  <si>
+    <t>34,77%</t>
+  </si>
+  <si>
+    <t>32,74%</t>
+  </si>
+  <si>
+    <t>36,88%</t>
+  </si>
+  <si>
+    <t>8,49%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>10,46%</t>
+  </si>
+  <si>
+    <t>10,12%</t>
+  </si>
+  <si>
+    <t>8,23%</t>
+  </si>
+  <si>
+    <t>12,14%</t>
+  </si>
+  <si>
+    <t>9,31%</t>
+  </si>
+  <si>
+    <t>8,03%</t>
+  </si>
+  <si>
+    <t>10,65%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>51,98%</t>
+  </si>
+  <si>
+    <t>47,8%</t>
+  </si>
+  <si>
+    <t>56,0%</t>
+  </si>
+  <si>
+    <t>53,02%</t>
+  </si>
+  <si>
+    <t>49,25%</t>
+  </si>
+  <si>
+    <t>56,68%</t>
+  </si>
+  <si>
+    <t>52,5%</t>
+  </si>
+  <si>
+    <t>49,66%</t>
+  </si>
+  <si>
+    <t>55,11%</t>
+  </si>
+  <si>
+    <t>33,35%</t>
+  </si>
+  <si>
+    <t>29,55%</t>
+  </si>
+  <si>
+    <t>37,2%</t>
+  </si>
+  <si>
+    <t>31,79%</t>
+  </si>
+  <si>
+    <t>28,34%</t>
+  </si>
+  <si>
+    <t>35,47%</t>
+  </si>
+  <si>
+    <t>32,56%</t>
+  </si>
+  <si>
+    <t>30,18%</t>
+  </si>
+  <si>
+    <t>35,33%</t>
+  </si>
+  <si>
+    <t>14,67%</t>
+  </si>
+  <si>
+    <t>11,86%</t>
+  </si>
+  <si>
+    <t>17,77%</t>
+  </si>
+  <si>
+    <t>15,19%</t>
+  </si>
+  <si>
+    <t>12,68%</t>
+  </si>
+  <si>
+    <t>18,22%</t>
+  </si>
+  <si>
+    <t>14,93%</t>
+  </si>
+  <si>
+    <t>12,99%</t>
+  </si>
+  <si>
+    <t>16,83%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>40,64%</t>
+  </si>
+  <si>
+    <t>37,24%</t>
+  </si>
+  <si>
+    <t>44,27%</t>
+  </si>
+  <si>
+    <t>40,09%</t>
+  </si>
+  <si>
+    <t>36,96%</t>
+  </si>
+  <si>
+    <t>43,28%</t>
+  </si>
+  <si>
+    <t>40,35%</t>
+  </si>
+  <si>
+    <t>38,15%</t>
+  </si>
+  <si>
+    <t>42,6%</t>
+  </si>
+  <si>
+    <t>38,48%</t>
+  </si>
+  <si>
+    <t>35,31%</t>
+  </si>
+  <si>
+    <t>41,55%</t>
+  </si>
+  <si>
+    <t>38,93%</t>
+  </si>
+  <si>
+    <t>35,52%</t>
+  </si>
+  <si>
+    <t>41,97%</t>
+  </si>
+  <si>
+    <t>38,72%</t>
+  </si>
+  <si>
+    <t>36,44%</t>
+  </si>
+  <si>
+    <t>40,87%</t>
+  </si>
+  <si>
+    <t>20,88%</t>
+  </si>
+  <si>
+    <t>18,44%</t>
+  </si>
+  <si>
+    <t>23,6%</t>
+  </si>
+  <si>
+    <t>20,97%</t>
+  </si>
+  <si>
+    <t>18,35%</t>
+  </si>
+  <si>
+    <t>23,64%</t>
+  </si>
+  <si>
+    <t>20,93%</t>
+  </si>
+  <si>
+    <t>19,21%</t>
+  </si>
+  <si>
+    <t>23,26%</t>
+  </si>
+  <si>
+    <t>52,57%</t>
+  </si>
+  <si>
+    <t>50,85%</t>
+  </si>
+  <si>
+    <t>54,45%</t>
+  </si>
+  <si>
+    <t>51,94%</t>
+  </si>
+  <si>
+    <t>50,11%</t>
+  </si>
+  <si>
+    <t>53,66%</t>
+  </si>
+  <si>
+    <t>52,25%</t>
+  </si>
+  <si>
+    <t>51,01%</t>
+  </si>
+  <si>
+    <t>53,47%</t>
+  </si>
+  <si>
+    <t>34,81%</t>
+  </si>
+  <si>
+    <t>33,12%</t>
+  </si>
+  <si>
+    <t>36,58%</t>
+  </si>
+  <si>
+    <t>34,37%</t>
+  </si>
+  <si>
+    <t>32,89%</t>
+  </si>
+  <si>
+    <t>36,18%</t>
+  </si>
+  <si>
+    <t>34,59%</t>
+  </si>
+  <si>
+    <t>33,47%</t>
+  </si>
+  <si>
+    <t>35,85%</t>
+  </si>
+  <si>
+    <t>12,62%</t>
+  </si>
+  <si>
+    <t>11,56%</t>
+  </si>
+  <si>
+    <t>13,81%</t>
+  </si>
+  <si>
+    <t>13,68%</t>
+  </si>
+  <si>
+    <t>12,57%</t>
+  </si>
+  <si>
+    <t>14,87%</t>
+  </si>
+  <si>
+    <t>13,16%</t>
+  </si>
+  <si>
+    <t>12,35%</t>
+  </si>
+  <si>
+    <t>14,01%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si en el barrio donde vive hay trafico intenso de vehículos de motor en 2016 (Tasa respuesta: 99,51%)</t>
+  </si>
+  <si>
+    <t>90,7%</t>
+  </si>
+  <si>
+    <t>84,77%</t>
+  </si>
+  <si>
+    <t>94,97%</t>
+  </si>
+  <si>
+    <t>94,88%</t>
+  </si>
+  <si>
+    <t>89,02%</t>
+  </si>
+  <si>
+    <t>97,55%</t>
+  </si>
+  <si>
+    <t>92,76%</t>
+  </si>
+  <si>
+    <t>88,78%</t>
+  </si>
+  <si>
+    <t>95,75%</t>
+  </si>
+  <si>
+    <t>8,41%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>13,99%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>6,4%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>10,09%</t>
+  </si>
+  <si>
     <t>0,89%</t>
   </si>
   <si>
-    <t>7,51%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>6,19%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>62,36%</t>
-  </si>
-  <si>
-    <t>57,69%</t>
-  </si>
-  <si>
-    <t>66,42%</t>
-  </si>
-  <si>
-    <t>59,2%</t>
-  </si>
-  <si>
-    <t>55,27%</t>
-  </si>
-  <si>
-    <t>63,28%</t>
-  </si>
-  <si>
-    <t>60,79%</t>
-  </si>
-  <si>
-    <t>57,91%</t>
-  </si>
-  <si>
-    <t>63,93%</t>
-  </si>
-  <si>
-    <t>32,01%</t>
-  </si>
-  <si>
-    <t>28,49%</t>
-  </si>
-  <si>
-    <t>36,2%</t>
-  </si>
-  <si>
-    <t>33,97%</t>
-  </si>
-  <si>
-    <t>30,12%</t>
-  </si>
-  <si>
-    <t>38,0%</t>
-  </si>
-  <si>
-    <t>32,99%</t>
-  </si>
-  <si>
-    <t>30,2%</t>
-  </si>
-  <si>
-    <t>35,86%</t>
-  </si>
-  <si>
-    <t>5,63%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>7,95%</t>
-  </si>
-  <si>
-    <t>6,83%</t>
-  </si>
-  <si>
-    <t>5,02%</t>
-  </si>
-  <si>
-    <t>9,21%</t>
-  </si>
-  <si>
-    <t>6,23%</t>
-  </si>
-  <si>
-    <t>4,89%</t>
-  </si>
-  <si>
-    <t>7,76%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>55,96%</t>
-  </si>
-  <si>
-    <t>52,89%</t>
-  </si>
-  <si>
-    <t>59,55%</t>
-  </si>
-  <si>
-    <t>55,87%</t>
-  </si>
-  <si>
-    <t>52,79%</t>
-  </si>
-  <si>
-    <t>59,13%</t>
-  </si>
-  <si>
-    <t>55,92%</t>
-  </si>
-  <si>
-    <t>53,52%</t>
-  </si>
-  <si>
-    <t>58,12%</t>
-  </si>
-  <si>
-    <t>35,55%</t>
-  </si>
-  <si>
-    <t>32,36%</t>
-  </si>
-  <si>
-    <t>38,67%</t>
-  </si>
-  <si>
-    <t>34,0%</t>
-  </si>
-  <si>
-    <t>30,9%</t>
-  </si>
-  <si>
-    <t>36,98%</t>
-  </si>
-  <si>
-    <t>34,77%</t>
-  </si>
-  <si>
-    <t>32,72%</t>
-  </si>
-  <si>
-    <t>37,2%</t>
-  </si>
-  <si>
-    <t>8,49%</t>
-  </si>
-  <si>
-    <t>6,59%</t>
-  </si>
-  <si>
-    <t>10,59%</t>
-  </si>
-  <si>
-    <t>10,12%</t>
-  </si>
-  <si>
-    <t>8,42%</t>
-  </si>
-  <si>
-    <t>12,32%</t>
-  </si>
-  <si>
-    <t>9,31%</t>
-  </si>
-  <si>
-    <t>7,98%</t>
-  </si>
-  <si>
-    <t>10,68%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>51,98%</t>
-  </si>
-  <si>
-    <t>48,11%</t>
-  </si>
-  <si>
-    <t>55,77%</t>
-  </si>
-  <si>
-    <t>53,02%</t>
-  </si>
-  <si>
-    <t>48,97%</t>
-  </si>
-  <si>
-    <t>57,07%</t>
-  </si>
-  <si>
-    <t>52,5%</t>
-  </si>
-  <si>
-    <t>49,83%</t>
-  </si>
-  <si>
-    <t>55,12%</t>
-  </si>
-  <si>
-    <t>33,35%</t>
-  </si>
-  <si>
-    <t>29,96%</t>
-  </si>
-  <si>
-    <t>37,21%</t>
-  </si>
-  <si>
-    <t>31,79%</t>
-  </si>
-  <si>
-    <t>28,2%</t>
-  </si>
-  <si>
-    <t>35,29%</t>
-  </si>
-  <si>
-    <t>32,56%</t>
-  </si>
-  <si>
-    <t>30,22%</t>
-  </si>
-  <si>
-    <t>35,14%</t>
-  </si>
-  <si>
-    <t>14,67%</t>
-  </si>
-  <si>
-    <t>11,86%</t>
-  </si>
-  <si>
-    <t>17,44%</t>
-  </si>
-  <si>
-    <t>15,19%</t>
-  </si>
-  <si>
-    <t>12,54%</t>
-  </si>
-  <si>
-    <t>17,78%</t>
-  </si>
-  <si>
-    <t>14,93%</t>
-  </si>
-  <si>
-    <t>13,01%</t>
-  </si>
-  <si>
-    <t>16,76%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>40,64%</t>
-  </si>
-  <si>
-    <t>37,31%</t>
-  </si>
-  <si>
-    <t>44,05%</t>
-  </si>
-  <si>
-    <t>40,09%</t>
-  </si>
-  <si>
-    <t>37,06%</t>
-  </si>
-  <si>
-    <t>43,05%</t>
-  </si>
-  <si>
-    <t>40,35%</t>
-  </si>
-  <si>
-    <t>38,2%</t>
-  </si>
-  <si>
-    <t>42,8%</t>
-  </si>
-  <si>
-    <t>38,48%</t>
-  </si>
-  <si>
-    <t>35,1%</t>
-  </si>
-  <si>
-    <t>41,54%</t>
-  </si>
-  <si>
-    <t>38,93%</t>
-  </si>
-  <si>
-    <t>35,72%</t>
-  </si>
-  <si>
-    <t>41,86%</t>
-  </si>
-  <si>
-    <t>38,72%</t>
-  </si>
-  <si>
-    <t>36,41%</t>
-  </si>
-  <si>
-    <t>40,9%</t>
-  </si>
-  <si>
-    <t>20,88%</t>
-  </si>
-  <si>
-    <t>18,44%</t>
-  </si>
-  <si>
-    <t>23,57%</t>
-  </si>
-  <si>
-    <t>20,97%</t>
-  </si>
-  <si>
-    <t>18,83%</t>
-  </si>
-  <si>
-    <t>24,04%</t>
-  </si>
-  <si>
-    <t>20,93%</t>
-  </si>
-  <si>
-    <t>19,0%</t>
-  </si>
-  <si>
-    <t>22,71%</t>
-  </si>
-  <si>
-    <t>52,57%</t>
-  </si>
-  <si>
-    <t>50,84%</t>
-  </si>
-  <si>
-    <t>54,41%</t>
-  </si>
-  <si>
-    <t>51,94%</t>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>78,27%</t>
+  </si>
+  <si>
+    <t>85,11%</t>
+  </si>
+  <si>
+    <t>80,68%</t>
+  </si>
+  <si>
+    <t>77,42%</t>
+  </si>
+  <si>
+    <t>83,67%</t>
+  </si>
+  <si>
+    <t>81,3%</t>
+  </si>
+  <si>
+    <t>79,0%</t>
+  </si>
+  <si>
+    <t>83,5%</t>
+  </si>
+  <si>
+    <t>14,7%</t>
+  </si>
+  <si>
+    <t>11,82%</t>
+  </si>
+  <si>
+    <t>18,33%</t>
+  </si>
+  <si>
+    <t>13,73%</t>
+  </si>
+  <si>
+    <t>11,1%</t>
+  </si>
+  <si>
+    <t>16,74%</t>
+  </si>
+  <si>
+    <t>14,21%</t>
+  </si>
+  <si>
+    <t>12,09%</t>
+  </si>
+  <si>
+    <t>16,19%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>7,94%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>68,58%</t>
+  </si>
+  <si>
+    <t>65,33%</t>
+  </si>
+  <si>
+    <t>71,61%</t>
+  </si>
+  <si>
+    <t>70,1%</t>
+  </si>
+  <si>
+    <t>66,96%</t>
+  </si>
+  <si>
+    <t>73,1%</t>
+  </si>
+  <si>
+    <t>69,35%</t>
+  </si>
+  <si>
+    <t>67,36%</t>
+  </si>
+  <si>
+    <t>71,33%</t>
+  </si>
+  <si>
+    <t>25,05%</t>
+  </si>
+  <si>
+    <t>22,4%</t>
+  </si>
+  <si>
+    <t>28,12%</t>
+  </si>
+  <si>
+    <t>23,12%</t>
+  </si>
+  <si>
+    <t>20,37%</t>
+  </si>
+  <si>
+    <t>25,97%</t>
+  </si>
+  <si>
+    <t>24,08%</t>
+  </si>
+  <si>
+    <t>22,08%</t>
+  </si>
+  <si>
+    <t>6,37%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>8,08%</t>
+  </si>
+  <si>
+    <t>6,78%</t>
+  </si>
+  <si>
+    <t>8,46%</t>
+  </si>
+  <si>
+    <t>6,58%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>7,81%</t>
+  </si>
+  <si>
+    <t>59,67%</t>
+  </si>
+  <si>
+    <t>56,16%</t>
+  </si>
+  <si>
+    <t>63,37%</t>
+  </si>
+  <si>
+    <t>59,58%</t>
+  </si>
+  <si>
+    <t>55,48%</t>
+  </si>
+  <si>
+    <t>63,0%</t>
+  </si>
+  <si>
+    <t>59,63%</t>
+  </si>
+  <si>
+    <t>57,11%</t>
+  </si>
+  <si>
+    <t>62,3%</t>
+  </si>
+  <si>
+    <t>29,06%</t>
+  </si>
+  <si>
+    <t>25,63%</t>
+  </si>
+  <si>
+    <t>32,35%</t>
+  </si>
+  <si>
+    <t>26,14%</t>
+  </si>
+  <si>
+    <t>22,9%</t>
+  </si>
+  <si>
+    <t>29,43%</t>
+  </si>
+  <si>
+    <t>27,57%</t>
+  </si>
+  <si>
+    <t>25,35%</t>
+  </si>
+  <si>
+    <t>30,07%</t>
+  </si>
+  <si>
+    <t>11,27%</t>
+  </si>
+  <si>
+    <t>9,09%</t>
+  </si>
+  <si>
+    <t>13,69%</t>
+  </si>
+  <si>
+    <t>14,28%</t>
+  </si>
+  <si>
+    <t>11,73%</t>
+  </si>
+  <si>
+    <t>17,08%</t>
+  </si>
+  <si>
+    <t>12,8%</t>
+  </si>
+  <si>
+    <t>11,18%</t>
+  </si>
+  <si>
+    <t>14,69%</t>
+  </si>
+  <si>
+    <t>53,54%</t>
   </si>
   <si>
     <t>50,14%</t>
   </si>
   <si>
-    <t>53,66%</t>
-  </si>
-  <si>
-    <t>52,25%</t>
-  </si>
-  <si>
-    <t>51,02%</t>
-  </si>
-  <si>
-    <t>53,47%</t>
-  </si>
-  <si>
-    <t>34,81%</t>
-  </si>
-  <si>
-    <t>32,93%</t>
-  </si>
-  <si>
-    <t>36,52%</t>
-  </si>
-  <si>
-    <t>34,37%</t>
-  </si>
-  <si>
-    <t>32,77%</t>
-  </si>
-  <si>
-    <t>36,05%</t>
-  </si>
-  <si>
-    <t>34,59%</t>
-  </si>
-  <si>
-    <t>33,43%</t>
-  </si>
-  <si>
-    <t>35,87%</t>
-  </si>
-  <si>
-    <t>12,62%</t>
-  </si>
-  <si>
-    <t>11,45%</t>
-  </si>
-  <si>
-    <t>13,81%</t>
-  </si>
-  <si>
-    <t>13,68%</t>
-  </si>
-  <si>
-    <t>12,49%</t>
-  </si>
-  <si>
-    <t>14,84%</t>
-  </si>
-  <si>
-    <t>13,16%</t>
-  </si>
-  <si>
-    <t>12,44%</t>
-  </si>
-  <si>
-    <t>14,0%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si en el barrio donde vive hay trafico intenso de vehículos de motor en 2015 (Tasa respuesta: 99,51%)</t>
-  </si>
-  <si>
-    <t>90,7%</t>
-  </si>
-  <si>
-    <t>83,99%</t>
-  </si>
-  <si>
-    <t>94,84%</t>
-  </si>
-  <si>
-    <t>94,88%</t>
-  </si>
-  <si>
-    <t>89,61%</t>
-  </si>
-  <si>
-    <t>97,88%</t>
-  </si>
-  <si>
-    <t>92,76%</t>
-  </si>
-  <si>
-    <t>88,77%</t>
-  </si>
-  <si>
-    <t>95,48%</t>
-  </si>
-  <si>
-    <t>8,41%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>14,94%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>9,61%</t>
-  </si>
-  <si>
-    <t>6,4%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
+    <t>56,55%</t>
+  </si>
+  <si>
+    <t>53,9%</t>
+  </si>
+  <si>
+    <t>50,74%</t>
+  </si>
+  <si>
+    <t>56,86%</t>
+  </si>
+  <si>
+    <t>53,73%</t>
+  </si>
+  <si>
+    <t>51,41%</t>
+  </si>
+  <si>
+    <t>55,89%</t>
+  </si>
+  <si>
+    <t>28,74%</t>
+  </si>
+  <si>
+    <t>25,68%</t>
+  </si>
+  <si>
+    <t>31,57%</t>
+  </si>
+  <si>
+    <t>27,08%</t>
+  </si>
+  <si>
+    <t>24,31%</t>
+  </si>
+  <si>
+    <t>29,98%</t>
+  </si>
+  <si>
+    <t>27,87%</t>
+  </si>
+  <si>
+    <t>25,83%</t>
+  </si>
+  <si>
+    <t>29,81%</t>
+  </si>
+  <si>
+    <t>17,72%</t>
+  </si>
+  <si>
+    <t>15,34%</t>
+  </si>
+  <si>
+    <t>20,32%</t>
+  </si>
+  <si>
+    <t>19,02%</t>
+  </si>
+  <si>
+    <t>16,8%</t>
+  </si>
+  <si>
+    <t>21,55%</t>
+  </si>
+  <si>
+    <t>16,58%</t>
+  </si>
+  <si>
+    <t>20,4%</t>
+  </si>
+  <si>
+    <t>65,39%</t>
+  </si>
+  <si>
+    <t>63,78%</t>
+  </si>
+  <si>
+    <t>67,02%</t>
+  </si>
+  <si>
+    <t>65,46%</t>
+  </si>
+  <si>
+    <t>63,9%</t>
+  </si>
+  <si>
+    <t>66,98%</t>
+  </si>
+  <si>
+    <t>65,42%</t>
+  </si>
+  <si>
+    <t>64,21%</t>
+  </si>
+  <si>
+    <t>66,57%</t>
+  </si>
+  <si>
+    <t>24,69%</t>
+  </si>
+  <si>
+    <t>23,07%</t>
+  </si>
+  <si>
+    <t>26,11%</t>
+  </si>
+  <si>
+    <t>22,88%</t>
+  </si>
+  <si>
+    <t>21,46%</t>
+  </si>
+  <si>
+    <t>24,18%</t>
+  </si>
+  <si>
+    <t>23,76%</t>
+  </si>
+  <si>
+    <t>22,78%</t>
+  </si>
+  <si>
+    <t>24,82%</t>
+  </si>
+  <si>
+    <t>9,92%</t>
+  </si>
+  <si>
+    <t>8,99%</t>
+  </si>
+  <si>
+    <t>11,12%</t>
+  </si>
+  <si>
+    <t>11,67%</t>
+  </si>
+  <si>
+    <t>10,64%</t>
+  </si>
+  <si>
+    <t>12,91%</t>
+  </si>
+  <si>
+    <t>10,82%</t>
+  </si>
+  <si>
+    <t>10,1%</t>
+  </si>
+  <si>
+    <t>Población según si en el barrio donde vive hay trafico intenso de vehículos de motor en 2023 (Tasa respuesta: 99,9%)</t>
+  </si>
+  <si>
+    <t>93,93%</t>
+  </si>
+  <si>
+    <t>87,97%</t>
+  </si>
+  <si>
+    <t>97,17%</t>
+  </si>
+  <si>
+    <t>95,37%</t>
+  </si>
+  <si>
+    <t>87,36%</t>
+  </si>
+  <si>
+    <t>98,2%</t>
+  </si>
+  <si>
+    <t>94,74%</t>
+  </si>
+  <si>
+    <t>90,25%</t>
+  </si>
+  <si>
+    <t>97,12%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>6,61%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>8,25%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>10,72%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>7,55%</t>
+  </si>
+  <si>
+    <t>88,13%</t>
+  </si>
+  <si>
+    <t>84,8%</t>
+  </si>
+  <si>
+    <t>90,79%</t>
+  </si>
+  <si>
+    <t>89,29%</t>
+  </si>
+  <si>
+    <t>87,1%</t>
+  </si>
+  <si>
+    <t>91,58%</t>
+  </si>
+  <si>
+    <t>88,74%</t>
+  </si>
+  <si>
+    <t>86,89%</t>
+  </si>
+  <si>
+    <t>90,44%</t>
+  </si>
+  <si>
+    <t>6,3%</t>
+  </si>
+  <si>
+    <t>11,35%</t>
+  </si>
+  <si>
+    <t>7,34%</t>
+  </si>
+  <si>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>9,34%</t>
+  </si>
+  <si>
+    <t>7,86%</t>
+  </si>
+  <si>
+    <t>6,48%</t>
+  </si>
+  <si>
+    <t>9,39%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>81,99%</t>
+  </si>
+  <si>
+    <t>79,09%</t>
+  </si>
+  <si>
+    <t>85,26%</t>
+  </si>
+  <si>
+    <t>78,05%</t>
+  </si>
+  <si>
+    <t>75,63%</t>
+  </si>
+  <si>
+    <t>80,2%</t>
+  </si>
+  <si>
+    <t>80,0%</t>
+  </si>
+  <si>
+    <t>78,07%</t>
+  </si>
+  <si>
+    <t>82,05%</t>
+  </si>
+  <si>
+    <t>12,29%</t>
+  </si>
+  <si>
+    <t>9,69%</t>
+  </si>
+  <si>
+    <t>14,78%</t>
+  </si>
+  <si>
+    <t>14,24%</t>
+  </si>
+  <si>
+    <t>12,1%</t>
+  </si>
+  <si>
+    <t>16,44%</t>
+  </si>
+  <si>
+    <t>13,27%</t>
+  </si>
+  <si>
+    <t>11,63%</t>
+  </si>
+  <si>
+    <t>14,92%</t>
+  </si>
+  <si>
+    <t>5,72%</t>
+  </si>
+  <si>
+    <t>7,4%</t>
+  </si>
+  <si>
+    <t>7,71%</t>
+  </si>
+  <si>
+    <t>9,62%</t>
+  </si>
+  <si>
+    <t>6,72%</t>
+  </si>
+  <si>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>7,96%</t>
+  </si>
+  <si>
+    <t>74,08%</t>
+  </si>
+  <si>
+    <t>70,52%</t>
+  </si>
+  <si>
+    <t>77,87%</t>
+  </si>
+  <si>
+    <t>79,02%</t>
+  </si>
+  <si>
+    <t>75,12%</t>
+  </si>
+  <si>
+    <t>87,11%</t>
+  </si>
+  <si>
+    <t>76,77%</t>
+  </si>
+  <si>
+    <t>73,77%</t>
+  </si>
+  <si>
+    <t>81,83%</t>
+  </si>
+  <si>
+    <t>18,62%</t>
+  </si>
+  <si>
+    <t>15,55%</t>
+  </si>
+  <si>
+    <t>22,12%</t>
+  </si>
+  <si>
+    <t>8,35%</t>
+  </si>
+  <si>
+    <t>16,61%</t>
+  </si>
+  <si>
+    <t>16,0%</t>
+  </si>
+  <si>
+    <t>12,38%</t>
+  </si>
+  <si>
+    <t>18,49%</t>
+  </si>
+  <si>
+    <t>7,3%</t>
+  </si>
+  <si>
+    <t>5,58%</t>
+  </si>
+  <si>
+    <t>9,87%</t>
+  </si>
+  <si>
+    <t>7,17%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>9,42%</t>
+  </si>
+  <si>
+    <t>7,23%</t>
+  </si>
+  <si>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>8,76%</t>
+  </si>
+  <si>
+    <t>54,15%</t>
+  </si>
+  <si>
+    <t>50,69%</t>
+  </si>
+  <si>
+    <t>57,65%</t>
+  </si>
+  <si>
+    <t>56,15%</t>
+  </si>
+  <si>
+    <t>53,44%</t>
+  </si>
+  <si>
+    <t>59,41%</t>
+  </si>
+  <si>
+    <t>55,23%</t>
+  </si>
+  <si>
+    <t>52,85%</t>
+  </si>
+  <si>
+    <t>57,3%</t>
+  </si>
+  <si>
+    <t>28,08%</t>
+  </si>
+  <si>
+    <t>31,4%</t>
+  </si>
+  <si>
+    <t>22,92%</t>
+  </si>
+  <si>
+    <t>28,23%</t>
+  </si>
+  <si>
+    <t>26,75%</t>
+  </si>
+  <si>
+    <t>24,83%</t>
+  </si>
+  <si>
+    <t>28,64%</t>
+  </si>
+  <si>
+    <t>15,25%</t>
+  </si>
+  <si>
+    <t>20,79%</t>
+  </si>
+  <si>
+    <t>18,23%</t>
+  </si>
+  <si>
+    <t>16,11%</t>
+  </si>
+  <si>
+    <t>20,54%</t>
+  </si>
+  <si>
+    <t>18,02%</t>
+  </si>
+  <si>
+    <t>16,53%</t>
+  </si>
+  <si>
+    <t>19,86%</t>
+  </si>
+  <si>
+    <t>73,7%</t>
+  </si>
+  <si>
+    <t>72,06%</t>
+  </si>
+  <si>
+    <t>75,51%</t>
+  </si>
+  <si>
+    <t>74,11%</t>
+  </si>
+  <si>
+    <t>72,45%</t>
+  </si>
+  <si>
+    <t>76,84%</t>
+  </si>
+  <si>
+    <t>73,92%</t>
+  </si>
+  <si>
+    <t>72,77%</t>
+  </si>
+  <si>
+    <t>75,44%</t>
+  </si>
+  <si>
+    <t>17,24%</t>
+  </si>
+  <si>
+    <t>15,62%</t>
+  </si>
+  <si>
+    <t>18,66%</t>
+  </si>
+  <si>
+    <t>16,03%</t>
+  </si>
+  <si>
+    <t>14,07%</t>
+  </si>
+  <si>
+    <t>17,25%</t>
+  </si>
+  <si>
+    <t>16,6%</t>
+  </si>
+  <si>
+    <t>15,5%</t>
+  </si>
+  <si>
+    <t>17,52%</t>
+  </si>
+  <si>
+    <t>9,06%</t>
+  </si>
+  <si>
+    <t>8,04%</t>
   </si>
   <si>
     <t>10,21%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>78,42%</t>
-  </si>
-  <si>
-    <t>85,32%</t>
-  </si>
-  <si>
-    <t>80,68%</t>
-  </si>
-  <si>
-    <t>77,01%</t>
-  </si>
-  <si>
-    <t>83,62%</t>
-  </si>
-  <si>
-    <t>81,3%</t>
-  </si>
-  <si>
-    <t>78,85%</t>
-  </si>
-  <si>
-    <t>83,44%</t>
-  </si>
-  <si>
-    <t>14,7%</t>
-  </si>
-  <si>
-    <t>11,72%</t>
-  </si>
-  <si>
-    <t>18,09%</t>
-  </si>
-  <si>
-    <t>13,73%</t>
-  </si>
-  <si>
-    <t>11,16%</t>
-  </si>
-  <si>
-    <t>16,81%</t>
-  </si>
-  <si>
-    <t>14,21%</t>
-  </si>
-  <si>
-    <t>12,42%</t>
-  </si>
-  <si>
-    <t>16,53%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>68,58%</t>
-  </si>
-  <si>
-    <t>65,45%</t>
-  </si>
-  <si>
-    <t>71,49%</t>
-  </si>
-  <si>
-    <t>70,1%</t>
-  </si>
-  <si>
-    <t>67,34%</t>
-  </si>
-  <si>
-    <t>73,27%</t>
-  </si>
-  <si>
-    <t>69,35%</t>
-  </si>
-  <si>
-    <t>67,46%</t>
-  </si>
-  <si>
-    <t>71,61%</t>
-  </si>
-  <si>
-    <t>25,05%</t>
-  </si>
-  <si>
-    <t>22,29%</t>
-  </si>
-  <si>
-    <t>28,01%</t>
-  </si>
-  <si>
-    <t>23,12%</t>
-  </si>
-  <si>
-    <t>20,31%</t>
-  </si>
-  <si>
-    <t>25,62%</t>
-  </si>
-  <si>
-    <t>24,08%</t>
-  </si>
-  <si>
-    <t>22,15%</t>
-  </si>
-  <si>
-    <t>26,17%</t>
-  </si>
-  <si>
-    <t>6,37%</t>
-  </si>
-  <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>8,12%</t>
-  </si>
-  <si>
-    <t>6,78%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>8,45%</t>
-  </si>
-  <si>
-    <t>6,58%</t>
-  </si>
-  <si>
-    <t>5,54%</t>
-  </si>
-  <si>
-    <t>59,67%</t>
-  </si>
-  <si>
-    <t>55,73%</t>
-  </si>
-  <si>
-    <t>63,12%</t>
-  </si>
-  <si>
-    <t>59,58%</t>
-  </si>
-  <si>
-    <t>63,31%</t>
-  </si>
-  <si>
-    <t>59,63%</t>
-  </si>
-  <si>
-    <t>56,96%</t>
-  </si>
-  <si>
-    <t>62,12%</t>
-  </si>
-  <si>
-    <t>29,06%</t>
-  </si>
-  <si>
-    <t>25,92%</t>
-  </si>
-  <si>
-    <t>32,85%</t>
-  </si>
-  <si>
-    <t>26,14%</t>
-  </si>
-  <si>
-    <t>23,19%</t>
-  </si>
-  <si>
-    <t>29,34%</t>
-  </si>
-  <si>
-    <t>27,57%</t>
-  </si>
-  <si>
-    <t>25,3%</t>
-  </si>
-  <si>
-    <t>30,0%</t>
-  </si>
-  <si>
-    <t>11,27%</t>
-  </si>
-  <si>
-    <t>9,17%</t>
-  </si>
-  <si>
-    <t>13,89%</t>
-  </si>
-  <si>
-    <t>14,28%</t>
-  </si>
-  <si>
-    <t>11,83%</t>
-  </si>
-  <si>
-    <t>12,8%</t>
-  </si>
-  <si>
-    <t>11,04%</t>
-  </si>
-  <si>
-    <t>14,65%</t>
-  </si>
-  <si>
-    <t>53,54%</t>
-  </si>
-  <si>
-    <t>50,06%</t>
-  </si>
-  <si>
-    <t>56,73%</t>
-  </si>
-  <si>
-    <t>53,9%</t>
-  </si>
-  <si>
-    <t>50,44%</t>
-  </si>
-  <si>
-    <t>56,9%</t>
-  </si>
-  <si>
-    <t>53,73%</t>
-  </si>
-  <si>
-    <t>51,41%</t>
-  </si>
-  <si>
-    <t>56,04%</t>
-  </si>
-  <si>
-    <t>28,74%</t>
-  </si>
-  <si>
-    <t>25,91%</t>
-  </si>
-  <si>
-    <t>31,69%</t>
-  </si>
-  <si>
-    <t>27,08%</t>
-  </si>
-  <si>
-    <t>24,3%</t>
-  </si>
-  <si>
-    <t>30,34%</t>
-  </si>
-  <si>
-    <t>27,87%</t>
-  </si>
-  <si>
-    <t>25,82%</t>
-  </si>
-  <si>
-    <t>30,09%</t>
-  </si>
-  <si>
-    <t>17,72%</t>
-  </si>
-  <si>
-    <t>15,14%</t>
-  </si>
-  <si>
-    <t>20,02%</t>
-  </si>
-  <si>
-    <t>19,02%</t>
-  </si>
-  <si>
-    <t>16,59%</t>
-  </si>
-  <si>
-    <t>21,53%</t>
-  </si>
-  <si>
-    <t>16,58%</t>
-  </si>
-  <si>
-    <t>20,21%</t>
-  </si>
-  <si>
-    <t>65,39%</t>
-  </si>
-  <si>
-    <t>63,6%</t>
-  </si>
-  <si>
-    <t>66,86%</t>
-  </si>
-  <si>
-    <t>65,46%</t>
-  </si>
-  <si>
-    <t>63,81%</t>
-  </si>
-  <si>
-    <t>67,01%</t>
-  </si>
-  <si>
-    <t>65,42%</t>
-  </si>
-  <si>
-    <t>64,3%</t>
-  </si>
-  <si>
-    <t>66,55%</t>
-  </si>
-  <si>
-    <t>24,69%</t>
-  </si>
-  <si>
-    <t>23,29%</t>
-  </si>
-  <si>
-    <t>26,33%</t>
-  </si>
-  <si>
-    <t>22,88%</t>
-  </si>
-  <si>
-    <t>21,51%</t>
-  </si>
-  <si>
-    <t>24,33%</t>
-  </si>
-  <si>
-    <t>23,76%</t>
-  </si>
-  <si>
-    <t>22,77%</t>
-  </si>
-  <si>
-    <t>24,88%</t>
-  </si>
-  <si>
-    <t>9,92%</t>
-  </si>
-  <si>
-    <t>8,91%</t>
-  </si>
-  <si>
-    <t>11,0%</t>
-  </si>
-  <si>
-    <t>11,67%</t>
-  </si>
-  <si>
-    <t>10,5%</t>
-  </si>
-  <si>
-    <t>12,87%</t>
-  </si>
-  <si>
-    <t>10,82%</t>
-  </si>
-  <si>
-    <t>10,09%</t>
-  </si>
-  <si>
-    <t>11,61%</t>
-  </si>
-  <si>
-    <t>Población según si en el barrio donde vive hay trafico intenso de vehículos de motor en 2023 (Tasa respuesta: 99,9%)</t>
-  </si>
-  <si>
-    <t>93,93%</t>
-  </si>
-  <si>
-    <t>87,97%</t>
-  </si>
-  <si>
-    <t>97,17%</t>
-  </si>
-  <si>
-    <t>95,37%</t>
-  </si>
-  <si>
-    <t>87,36%</t>
-  </si>
-  <si>
-    <t>98,2%</t>
-  </si>
-  <si>
-    <t>94,74%</t>
-  </si>
-  <si>
-    <t>90,25%</t>
-  </si>
-  <si>
-    <t>97,12%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>6,61%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>5,13%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>8,25%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>10,72%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>7,55%</t>
-  </si>
-  <si>
-    <t>88,13%</t>
-  </si>
-  <si>
-    <t>84,8%</t>
-  </si>
-  <si>
-    <t>90,79%</t>
-  </si>
-  <si>
-    <t>89,29%</t>
-  </si>
-  <si>
-    <t>87,1%</t>
-  </si>
-  <si>
-    <t>91,58%</t>
-  </si>
-  <si>
-    <t>88,74%</t>
-  </si>
-  <si>
-    <t>86,89%</t>
-  </si>
-  <si>
-    <t>90,44%</t>
-  </si>
-  <si>
-    <t>8,46%</t>
-  </si>
-  <si>
-    <t>6,3%</t>
-  </si>
-  <si>
-    <t>11,35%</t>
-  </si>
-  <si>
-    <t>7,34%</t>
-  </si>
-  <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>9,34%</t>
-  </si>
-  <si>
-    <t>7,86%</t>
-  </si>
-  <si>
-    <t>6,48%</t>
-  </si>
-  <si>
-    <t>9,39%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>81,99%</t>
-  </si>
-  <si>
-    <t>79,09%</t>
-  </si>
-  <si>
-    <t>85,26%</t>
-  </si>
-  <si>
-    <t>78,05%</t>
-  </si>
-  <si>
-    <t>75,63%</t>
-  </si>
-  <si>
-    <t>80,2%</t>
-  </si>
-  <si>
-    <t>80,0%</t>
-  </si>
-  <si>
-    <t>78,07%</t>
-  </si>
-  <si>
-    <t>82,05%</t>
-  </si>
-  <si>
-    <t>12,29%</t>
-  </si>
-  <si>
-    <t>9,69%</t>
-  </si>
-  <si>
-    <t>14,78%</t>
-  </si>
-  <si>
-    <t>14,24%</t>
-  </si>
-  <si>
-    <t>12,1%</t>
-  </si>
-  <si>
-    <t>16,44%</t>
-  </si>
-  <si>
-    <t>13,27%</t>
-  </si>
-  <si>
-    <t>11,63%</t>
-  </si>
-  <si>
-    <t>14,92%</t>
-  </si>
-  <si>
-    <t>5,72%</t>
-  </si>
-  <si>
-    <t>7,4%</t>
-  </si>
-  <si>
-    <t>7,71%</t>
-  </si>
-  <si>
-    <t>9,62%</t>
-  </si>
-  <si>
-    <t>6,72%</t>
-  </si>
-  <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>7,96%</t>
-  </si>
-  <si>
-    <t>74,08%</t>
-  </si>
-  <si>
-    <t>70,52%</t>
-  </si>
-  <si>
-    <t>77,87%</t>
-  </si>
-  <si>
-    <t>79,02%</t>
-  </si>
-  <si>
-    <t>75,12%</t>
-  </si>
-  <si>
-    <t>87,11%</t>
-  </si>
-  <si>
-    <t>76,77%</t>
-  </si>
-  <si>
-    <t>73,77%</t>
-  </si>
-  <si>
-    <t>81,83%</t>
-  </si>
-  <si>
-    <t>18,62%</t>
-  </si>
-  <si>
-    <t>15,55%</t>
-  </si>
-  <si>
-    <t>22,12%</t>
-  </si>
-  <si>
-    <t>8,35%</t>
-  </si>
-  <si>
-    <t>16,61%</t>
-  </si>
-  <si>
-    <t>16,0%</t>
-  </si>
-  <si>
-    <t>12,38%</t>
-  </si>
-  <si>
-    <t>18,49%</t>
-  </si>
-  <si>
-    <t>7,3%</t>
-  </si>
-  <si>
-    <t>5,58%</t>
-  </si>
-  <si>
-    <t>9,87%</t>
-  </si>
-  <si>
-    <t>7,17%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>9,42%</t>
-  </si>
-  <si>
-    <t>7,23%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>8,76%</t>
-  </si>
-  <si>
-    <t>54,15%</t>
-  </si>
-  <si>
-    <t>50,69%</t>
-  </si>
-  <si>
-    <t>57,65%</t>
-  </si>
-  <si>
-    <t>56,15%</t>
-  </si>
-  <si>
-    <t>53,44%</t>
-  </si>
-  <si>
-    <t>59,41%</t>
-  </si>
-  <si>
-    <t>55,23%</t>
-  </si>
-  <si>
-    <t>52,85%</t>
-  </si>
-  <si>
-    <t>57,3%</t>
-  </si>
-  <si>
-    <t>28,08%</t>
-  </si>
-  <si>
-    <t>31,4%</t>
-  </si>
-  <si>
-    <t>25,63%</t>
-  </si>
-  <si>
-    <t>22,92%</t>
-  </si>
-  <si>
-    <t>28,23%</t>
-  </si>
-  <si>
-    <t>26,75%</t>
-  </si>
-  <si>
-    <t>24,83%</t>
-  </si>
-  <si>
-    <t>28,64%</t>
-  </si>
-  <si>
-    <t>17,77%</t>
-  </si>
-  <si>
-    <t>15,25%</t>
-  </si>
-  <si>
-    <t>20,79%</t>
-  </si>
-  <si>
-    <t>18,23%</t>
-  </si>
-  <si>
-    <t>16,11%</t>
-  </si>
-  <si>
-    <t>20,54%</t>
-  </si>
-  <si>
-    <t>18,02%</t>
-  </si>
-  <si>
-    <t>19,86%</t>
-  </si>
-  <si>
-    <t>73,7%</t>
-  </si>
-  <si>
-    <t>72,06%</t>
-  </si>
-  <si>
-    <t>75,51%</t>
-  </si>
-  <si>
-    <t>74,11%</t>
-  </si>
-  <si>
-    <t>72,45%</t>
-  </si>
-  <si>
-    <t>76,84%</t>
-  </si>
-  <si>
-    <t>73,92%</t>
-  </si>
-  <si>
-    <t>72,77%</t>
-  </si>
-  <si>
-    <t>75,44%</t>
-  </si>
-  <si>
-    <t>17,24%</t>
-  </si>
-  <si>
-    <t>15,62%</t>
-  </si>
-  <si>
-    <t>18,66%</t>
-  </si>
-  <si>
-    <t>16,03%</t>
-  </si>
-  <si>
-    <t>14,07%</t>
-  </si>
-  <si>
-    <t>17,25%</t>
-  </si>
-  <si>
-    <t>16,6%</t>
-  </si>
-  <si>
-    <t>15,5%</t>
-  </si>
-  <si>
-    <t>17,52%</t>
-  </si>
-  <si>
-    <t>9,06%</t>
-  </si>
-  <si>
-    <t>8,04%</t>
   </si>
   <si>
     <t>9,86%</t>
@@ -1916,7 +1910,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95FBFFEC-F897-4464-A455-117C63510033}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90C69848-4E46-489C-8B24-BB5B1E1D8945}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2384,7 +2378,7 @@
         <v>67</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2440,7 +2434,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -2452,13 +2446,13 @@
         <v>566756</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>71</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>72</v>
       </c>
       <c r="H12" s="7">
         <v>519</v>
@@ -2467,13 +2461,13 @@
         <v>573723</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>75</v>
       </c>
       <c r="M12" s="7">
         <v>1045</v>
@@ -2482,13 +2476,13 @@
         <v>1140479</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2503,13 +2497,13 @@
         <v>360086</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>80</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>81</v>
       </c>
       <c r="H13" s="7">
         <v>323</v>
@@ -2518,13 +2512,13 @@
         <v>349130</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>84</v>
       </c>
       <c r="M13" s="7">
         <v>651</v>
@@ -2533,13 +2527,13 @@
         <v>709216</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>86</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2554,13 +2548,13 @@
         <v>85968</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>90</v>
       </c>
       <c r="H14" s="7">
         <v>93</v>
@@ -2569,13 +2563,13 @@
         <v>103965</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>93</v>
       </c>
       <c r="M14" s="7">
         <v>170</v>
@@ -2584,13 +2578,13 @@
         <v>189933</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2646,7 +2640,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2658,13 +2652,13 @@
         <v>393780</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="H16" s="7">
         <v>372</v>
@@ -2673,13 +2667,13 @@
         <v>409900</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="M16" s="7">
         <v>730</v>
@@ -2688,13 +2682,13 @@
         <v>803680</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2709,13 +2703,13 @@
         <v>252672</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>109</v>
       </c>
       <c r="H17" s="7">
         <v>223</v>
@@ -2724,13 +2718,13 @@
         <v>245752</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>112</v>
       </c>
       <c r="M17" s="7">
         <v>453</v>
@@ -2739,13 +2733,13 @@
         <v>498424</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2760,13 +2754,13 @@
         <v>111171</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="G18" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>118</v>
       </c>
       <c r="H18" s="7">
         <v>107</v>
@@ -2775,13 +2769,13 @@
         <v>117411</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>121</v>
       </c>
       <c r="M18" s="7">
         <v>208</v>
@@ -2790,13 +2784,13 @@
         <v>228582</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2852,7 +2846,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -2864,13 +2858,13 @@
         <v>384775</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>128</v>
       </c>
       <c r="H20" s="7">
         <v>406</v>
@@ -2879,13 +2873,13 @@
         <v>420983</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>131</v>
       </c>
       <c r="M20" s="7">
         <v>768</v>
@@ -2894,13 +2888,13 @@
         <v>805758</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2915,13 +2909,13 @@
         <v>364342</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="F21" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="G21" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>137</v>
       </c>
       <c r="H21" s="7">
         <v>385</v>
@@ -2930,13 +2924,13 @@
         <v>408789</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="K21" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="K21" s="7" t="s">
+      <c r="L21" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>140</v>
       </c>
       <c r="M21" s="7">
         <v>735</v>
@@ -2945,13 +2939,13 @@
         <v>773130</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="P21" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="P21" s="7" t="s">
+      <c r="Q21" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2966,13 +2960,13 @@
         <v>197637</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="G22" s="7" t="s">
         <v>145</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>146</v>
       </c>
       <c r="H22" s="7">
         <v>210</v>
@@ -2981,13 +2975,13 @@
         <v>220226</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>148</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>149</v>
       </c>
       <c r="M22" s="7">
         <v>407</v>
@@ -2996,13 +2990,13 @@
         <v>417863</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>151</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3070,13 +3064,13 @@
         <v>1796962</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="F24" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="G24" s="7" t="s">
         <v>154</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>155</v>
       </c>
       <c r="H24" s="7">
         <v>1703</v>
@@ -3085,13 +3079,13 @@
         <v>1840410</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>157</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>158</v>
       </c>
       <c r="M24" s="7">
         <v>3376</v>
@@ -3100,13 +3094,13 @@
         <v>3637371</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="P24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>160</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3121,13 +3115,13 @@
         <v>1189930</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="G25" s="7" t="s">
         <v>163</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>164</v>
       </c>
       <c r="H25" s="7">
         <v>1130</v>
@@ -3136,13 +3130,13 @@
         <v>1217933</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>166</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>167</v>
       </c>
       <c r="M25" s="7">
         <v>2247</v>
@@ -3151,13 +3145,13 @@
         <v>2407863</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>169</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3172,13 +3166,13 @@
         <v>431493</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>172</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>173</v>
       </c>
       <c r="H26" s="7">
         <v>452</v>
@@ -3187,13 +3181,13 @@
         <v>484758</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>175</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>176</v>
       </c>
       <c r="M26" s="7">
         <v>863</v>
@@ -3202,13 +3196,13 @@
         <v>916252</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>178</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3264,7 +3258,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
   </sheetData>
@@ -3285,7 +3279,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11022702-7720-4A76-B01B-7B50CF4DFA82}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2170123A-0D72-48FE-A0EC-721775D1BFD6}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3302,7 +3296,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3409,13 +3403,13 @@
         <v>105710</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="G4" s="7" t="s">
         <v>183</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>184</v>
       </c>
       <c r="H4" s="7">
         <v>109</v>
@@ -3424,13 +3418,13 @@
         <v>107554</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="L4" s="7" t="s">
         <v>186</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>187</v>
       </c>
       <c r="M4" s="7">
         <v>211</v>
@@ -3439,13 +3433,13 @@
         <v>213265</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="Q4" s="7" t="s">
         <v>189</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3460,13 +3454,13 @@
         <v>9800</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>192</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>193</v>
       </c>
       <c r="H5" s="7">
         <v>5</v>
@@ -3475,13 +3469,13 @@
         <v>4911</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="K5" s="7" t="s">
-        <v>195</v>
-      </c>
       <c r="L5" s="7" t="s">
-        <v>196</v>
+        <v>93</v>
       </c>
       <c r="M5" s="7">
         <v>15</v>
@@ -3490,13 +3484,13 @@
         <v>14712</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>197</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3511,13 +3505,13 @@
         <v>1035</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>35</v>
+        <v>198</v>
       </c>
       <c r="F6" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="G6" s="7" t="s">
         <v>200</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>201</v>
       </c>
       <c r="H6" s="7">
         <v>1</v>
@@ -3526,13 +3520,13 @@
         <v>894</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="L6" s="7" t="s">
         <v>202</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>203</v>
       </c>
       <c r="M6" s="7">
         <v>2</v>
@@ -3541,13 +3535,13 @@
         <v>1929</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="Q6" s="7" t="s">
         <v>204</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3738,7 +3732,7 @@
         <v>226</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>95</v>
+        <v>227</v>
       </c>
       <c r="M10" s="7">
         <v>47</v>
@@ -3747,13 +3741,13 @@
         <v>49836</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3809,7 +3803,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -3821,13 +3815,13 @@
         <v>697753</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="H12" s="7">
         <v>677</v>
@@ -3836,13 +3830,13 @@
         <v>726409</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="M12" s="7">
         <v>1329</v>
@@ -3851,13 +3845,13 @@
         <v>1424161</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3872,13 +3866,13 @@
         <v>254822</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="H13" s="7">
         <v>226</v>
@@ -3887,13 +3881,13 @@
         <v>239594</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="M13" s="7">
         <v>460</v>
@@ -3902,13 +3896,13 @@
         <v>494416</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>245</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>246</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>247</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3941,10 +3935,10 @@
         <v>251</v>
       </c>
       <c r="K14" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>252</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>253</v>
       </c>
       <c r="M14" s="7">
         <v>128</v>
@@ -3953,13 +3947,13 @@
         <v>135041</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>254</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>255</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4015,7 +4009,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4045,10 +4039,10 @@
         <v>259</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>70</v>
+        <v>260</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="M16" s="7">
         <v>849</v>
@@ -4057,13 +4051,13 @@
         <v>917744</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4078,13 +4072,13 @@
         <v>219783</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="H17" s="7">
         <v>194</v>
@@ -4093,13 +4087,13 @@
         <v>204592</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="M17" s="7">
         <v>394</v>
@@ -4108,13 +4102,13 @@
         <v>424375</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4129,13 +4123,13 @@
         <v>85263</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="H18" s="7">
         <v>103</v>
@@ -4144,13 +4138,13 @@
         <v>111798</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>218</v>
+        <v>279</v>
       </c>
       <c r="M18" s="7">
         <v>184</v>
@@ -4159,13 +4153,13 @@
         <v>197061</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4221,7 +4215,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -4233,13 +4227,13 @@
         <v>499695</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="H20" s="7">
         <v>520</v>
@@ -4248,13 +4242,13 @@
         <v>559856</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="M20" s="7">
         <v>1024</v>
@@ -4263,13 +4257,13 @@
         <v>1059550</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4284,13 +4278,13 @@
         <v>268230</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="H21" s="7">
         <v>259</v>
@@ -4299,13 +4293,13 @@
         <v>281331</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="M21" s="7">
         <v>524</v>
@@ -4314,13 +4308,13 @@
         <v>549561</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -4335,13 +4329,13 @@
         <v>165406</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="H22" s="7">
         <v>175</v>
@@ -4350,13 +4344,13 @@
         <v>197531</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="M22" s="7">
         <v>334</v>
@@ -4368,10 +4362,10 @@
         <v>27</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4439,13 +4433,13 @@
         <v>2209179</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="H24" s="7">
         <v>2182</v>
@@ -4454,13 +4448,13 @@
         <v>2308110</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="M24" s="7">
         <v>4294</v>
@@ -4469,13 +4463,13 @@
         <v>4517288</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4490,13 +4484,13 @@
         <v>834200</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="H25" s="7">
         <v>762</v>
@@ -4505,13 +4499,13 @@
         <v>806656</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="M25" s="7">
         <v>1548</v>
@@ -4520,13 +4514,13 @@
         <v>1640856</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4541,13 +4535,13 @@
         <v>335325</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="H26" s="7">
         <v>377</v>
@@ -4556,13 +4550,13 @@
         <v>411480</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="M26" s="7">
         <v>695</v>
@@ -4571,13 +4565,13 @@
         <v>746805</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4604,7 +4598,7 @@
         <v>3321</v>
       </c>
       <c r="I27" s="7">
-        <v>3526246</v>
+        <v>3526245</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>40</v>
@@ -4633,7 +4627,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
   </sheetData>
@@ -4654,7 +4648,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8F85510-30C1-493F-84F7-D0298FC25137}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{049A3ED2-1560-4F3D-B60F-53F24A4075F3}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4671,7 +4665,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4778,13 +4772,13 @@
         <v>95790</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="H4" s="7">
         <v>235</v>
@@ -4793,13 +4787,13 @@
         <v>124679</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="M4" s="7">
         <v>344</v>
@@ -4808,13 +4802,13 @@
         <v>220469</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4829,13 +4823,13 @@
         <v>2548</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="H5" s="7">
         <v>6</v>
@@ -4844,13 +4838,13 @@
         <v>2875</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="M5" s="7">
         <v>10</v>
@@ -4859,13 +4853,13 @@
         <v>5422</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4880,10 +4874,10 @@
         <v>3645</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>354</v>
+        <v>32</v>
       </c>
       <c r="G6" s="7" t="s">
         <v>355</v>
@@ -4898,7 +4892,7 @@
         <v>356</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="L6" s="7" t="s">
         <v>357</v>
@@ -5035,13 +5029,13 @@
         <v>46405</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="F9" s="7" t="s">
         <v>370</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="G9" s="7" t="s">
         <v>371</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>372</v>
       </c>
       <c r="H9" s="7">
         <v>75</v>
@@ -5050,13 +5044,13 @@
         <v>45486</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="K9" s="7" t="s">
         <v>373</v>
       </c>
-      <c r="K9" s="7" t="s">
+      <c r="L9" s="7" t="s">
         <v>374</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>375</v>
       </c>
       <c r="M9" s="7">
         <v>127</v>
@@ -5065,13 +5059,13 @@
         <v>91892</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="P9" s="7" t="s">
         <v>376</v>
       </c>
-      <c r="P9" s="7" t="s">
+      <c r="Q9" s="7" t="s">
         <v>377</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>378</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -5086,13 +5080,13 @@
         <v>18758</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>379</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>380</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>381</v>
       </c>
       <c r="H10" s="7">
         <v>41</v>
@@ -5101,13 +5095,13 @@
         <v>20907</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>380</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>381</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>382</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>383</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>384</v>
       </c>
       <c r="M10" s="7">
         <v>62</v>
@@ -5116,13 +5110,13 @@
         <v>39665</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>385</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>386</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>387</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5178,7 +5172,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -5190,13 +5184,13 @@
         <v>851650</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="G12" s="7" t="s">
         <v>388</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>389</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>390</v>
       </c>
       <c r="H12" s="7">
         <v>1203</v>
@@ -5205,13 +5199,13 @@
         <v>826925</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>389</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="L12" s="7" t="s">
         <v>391</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>392</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>393</v>
       </c>
       <c r="M12" s="7">
         <v>1986</v>
@@ -5220,13 +5214,13 @@
         <v>1678574</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>392</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>393</v>
+      </c>
+      <c r="Q12" s="7" t="s">
         <v>394</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>395</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>396</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5241,13 +5235,13 @@
         <v>127607</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>395</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>396</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>397</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>398</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>399</v>
       </c>
       <c r="H13" s="7">
         <v>209</v>
@@ -5256,13 +5250,13 @@
         <v>150845</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>398</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>399</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>400</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>401</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>402</v>
       </c>
       <c r="M13" s="7">
         <v>327</v>
@@ -5271,13 +5265,13 @@
         <v>278452</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>401</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>402</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>403</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>404</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>405</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5292,13 +5286,13 @@
         <v>59421</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="H14" s="7">
         <v>104</v>
@@ -5307,13 +5301,13 @@
         <v>81648</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="M14" s="7">
         <v>166</v>
@@ -5322,13 +5316,13 @@
         <v>141068</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>409</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>410</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>411</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>412</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5384,7 +5378,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5396,13 +5390,13 @@
         <v>539757</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>411</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>412</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>413</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>414</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>415</v>
       </c>
       <c r="H16" s="7">
         <v>794</v>
@@ -5411,13 +5405,13 @@
         <v>690664</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>414</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>415</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>416</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>417</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>418</v>
       </c>
       <c r="M16" s="7">
         <v>1278</v>
@@ -5426,13 +5420,13 @@
         <v>1230422</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>417</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>418</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>419</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>420</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>421</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5447,13 +5441,13 @@
         <v>135667</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>420</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>421</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>422</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>423</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>424</v>
       </c>
       <c r="H17" s="7">
         <v>169</v>
@@ -5462,13 +5456,13 @@
         <v>120730</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="M17" s="7">
         <v>303</v>
@@ -5477,13 +5471,13 @@
         <v>256397</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>425</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>426</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>427</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>428</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>429</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5498,13 +5492,13 @@
         <v>53188</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>428</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>429</v>
+      </c>
+      <c r="G18" s="7" t="s">
         <v>430</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>431</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>432</v>
       </c>
       <c r="H18" s="7">
         <v>82</v>
@@ -5513,13 +5507,13 @@
         <v>62657</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>431</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>432</v>
+      </c>
+      <c r="L18" s="7" t="s">
         <v>433</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>434</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>435</v>
       </c>
       <c r="M18" s="7">
         <v>139</v>
@@ -5528,13 +5522,13 @@
         <v>115844</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>434</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>435</v>
+      </c>
+      <c r="Q18" s="7" t="s">
         <v>436</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>437</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>438</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5590,7 +5584,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -5602,13 +5596,13 @@
         <v>522675</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>437</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>438</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>439</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>440</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>441</v>
       </c>
       <c r="H20" s="7">
         <v>869</v>
@@ -5617,13 +5611,13 @@
         <v>645121</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>440</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>441</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>442</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>443</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>444</v>
       </c>
       <c r="M20" s="7">
         <v>1414</v>
@@ -5632,13 +5626,13 @@
         <v>1167796</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>443</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>444</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>445</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>446</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>447</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5653,13 +5647,13 @@
         <v>271075</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="H21" s="7">
         <v>399</v>
@@ -5668,13 +5662,13 @@
         <v>294486</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>450</v>
+        <v>266</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="M21" s="7">
         <v>688</v>
@@ -5683,13 +5677,13 @@
         <v>565561</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5704,13 +5698,13 @@
         <v>171493</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>456</v>
+        <v>117</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="H22" s="7">
         <v>292</v>
@@ -5719,13 +5713,13 @@
         <v>209412</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="M22" s="7">
         <v>463</v>
@@ -5734,13 +5728,13 @@
         <v>380905</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>221</v>
+        <v>459</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5808,13 +5802,13 @@
         <v>2493482</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="H24" s="7">
         <v>3983</v>
@@ -5823,13 +5817,13 @@
         <v>2840962</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="M24" s="7">
         <v>6442</v>
@@ -5838,13 +5832,13 @@
         <v>5334444</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5859,13 +5853,13 @@
         <v>583303</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="H25" s="7">
         <v>858</v>
@@ -5874,13 +5868,13 @@
         <v>614422</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="M25" s="7">
         <v>1455</v>
@@ -5889,13 +5883,13 @@
         <v>1197725</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5910,13 +5904,13 @@
         <v>306503</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>199</v>
+        <v>481</v>
       </c>
       <c r="H26" s="7">
         <v>521</v>
@@ -5925,13 +5919,13 @@
         <v>377803</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>482</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>483</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>484</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>485</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>486</v>
       </c>
       <c r="M26" s="7">
         <v>837</v>
@@ -5940,13 +5934,13 @@
         <v>684306</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6002,7 +5996,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P05A07-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P05A07-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9635C42E-D52C-498E-B0CA-F118A1219719}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C8F3231B-0427-4DE1-99E2-9540B8BC67DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{5BDA50ED-01C1-4D6E-BC96-0C1EDDE40A2A}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{677E2785-0FE0-4A8D-9875-0AD48EABB640}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="798" uniqueCount="487">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="798" uniqueCount="492">
   <si>
     <t>Población según si en el barrio donde vive hay trafico intenso de vehículos de motor en 2012 (Tasa respuesta: 99,68%)</t>
   </si>
@@ -76,28 +76,28 @@
     <t>75,06%</t>
   </si>
   <si>
-    <t>66,78%</t>
-  </si>
-  <si>
-    <t>82,37%</t>
+    <t>67,13%</t>
+  </si>
+  <si>
+    <t>82,57%</t>
   </si>
   <si>
     <t>81,92%</t>
   </si>
   <si>
-    <t>72,73%</t>
-  </si>
-  <si>
-    <t>89,35%</t>
+    <t>72,81%</t>
+  </si>
+  <si>
+    <t>88,98%</t>
   </si>
   <si>
     <t>78,47%</t>
   </si>
   <si>
-    <t>71,72%</t>
-  </si>
-  <si>
-    <t>83,57%</t>
+    <t>72,55%</t>
+  </si>
+  <si>
+    <t>83,65%</t>
   </si>
   <si>
     <t>Algo</t>
@@ -106,28 +106,28 @@
     <t>21,76%</t>
   </si>
   <si>
-    <t>14,33%</t>
-  </si>
-  <si>
-    <t>29,61%</t>
+    <t>15,19%</t>
+  </si>
+  <si>
+    <t>29,72%</t>
   </si>
   <si>
     <t>15,0%</t>
   </si>
   <si>
-    <t>8,96%</t>
-  </si>
-  <si>
-    <t>24,23%</t>
+    <t>8,39%</t>
+  </si>
+  <si>
+    <t>24,09%</t>
   </si>
   <si>
     <t>18,4%</t>
   </si>
   <si>
-    <t>13,43%</t>
-  </si>
-  <si>
-    <t>24,3%</t>
+    <t>13,6%</t>
+  </si>
+  <si>
+    <t>24,2%</t>
   </si>
   <si>
     <t>Mucho</t>
@@ -136,28 +136,28 @@
     <t>3,19%</t>
   </si>
   <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>8,17%</t>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>7,5%</t>
   </si>
   <si>
     <t>3,07%</t>
   </si>
   <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>7,69%</t>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>8,47%</t>
   </si>
   <si>
     <t>3,13%</t>
   </si>
   <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>5,98%</t>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>6,17%</t>
   </si>
   <si>
     <t>100%</t>
@@ -169,1309 +169,1321 @@
     <t>62,36%</t>
   </si>
   <si>
-    <t>58,03%</t>
-  </si>
-  <si>
-    <t>66,35%</t>
+    <t>58,49%</t>
+  </si>
+  <si>
+    <t>66,32%</t>
   </si>
   <si>
     <t>59,2%</t>
   </si>
   <si>
-    <t>54,98%</t>
+    <t>54,96%</t>
+  </si>
+  <si>
+    <t>63,22%</t>
+  </si>
+  <si>
+    <t>60,79%</t>
+  </si>
+  <si>
+    <t>57,84%</t>
   </si>
   <si>
     <t>63,42%</t>
   </si>
   <si>
-    <t>60,79%</t>
-  </si>
-  <si>
-    <t>58,04%</t>
-  </si>
-  <si>
-    <t>63,69%</t>
-  </si>
-  <si>
     <t>32,01%</t>
   </si>
   <si>
-    <t>28,21%</t>
-  </si>
-  <si>
-    <t>36,47%</t>
+    <t>28,49%</t>
+  </si>
+  <si>
+    <t>35,96%</t>
   </si>
   <si>
     <t>33,97%</t>
   </si>
   <si>
+    <t>30,17%</t>
+  </si>
+  <si>
+    <t>38,13%</t>
+  </si>
+  <si>
+    <t>32,99%</t>
+  </si>
+  <si>
+    <t>35,69%</t>
+  </si>
+  <si>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>7,89%</t>
+  </si>
+  <si>
+    <t>6,83%</t>
+  </si>
+  <si>
+    <t>5,12%</t>
+  </si>
+  <si>
+    <t>9,39%</t>
+  </si>
+  <si>
+    <t>6,23%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>7,82%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>55,96%</t>
+  </si>
+  <si>
+    <t>52,45%</t>
+  </si>
+  <si>
+    <t>59,24%</t>
+  </si>
+  <si>
+    <t>55,87%</t>
+  </si>
+  <si>
+    <t>52,64%</t>
+  </si>
+  <si>
+    <t>59,12%</t>
+  </si>
+  <si>
+    <t>55,92%</t>
+  </si>
+  <si>
+    <t>53,9%</t>
+  </si>
+  <si>
+    <t>58,23%</t>
+  </si>
+  <si>
+    <t>35,55%</t>
+  </si>
+  <si>
+    <t>32,51%</t>
+  </si>
+  <si>
+    <t>38,76%</t>
+  </si>
+  <si>
+    <t>34,0%</t>
+  </si>
+  <si>
+    <t>30,96%</t>
+  </si>
+  <si>
+    <t>37,28%</t>
+  </si>
+  <si>
+    <t>34,77%</t>
+  </si>
+  <si>
+    <t>32,52%</t>
+  </si>
+  <si>
+    <t>37,01%</t>
+  </si>
+  <si>
+    <t>8,49%</t>
+  </si>
+  <si>
+    <t>6,68%</t>
+  </si>
+  <si>
+    <t>10,47%</t>
+  </si>
+  <si>
+    <t>10,12%</t>
+  </si>
+  <si>
+    <t>8,1%</t>
+  </si>
+  <si>
+    <t>12,23%</t>
+  </si>
+  <si>
+    <t>9,31%</t>
+  </si>
+  <si>
+    <t>8,07%</t>
+  </si>
+  <si>
+    <t>10,93%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>51,98%</t>
+  </si>
+  <si>
+    <t>48,34%</t>
+  </si>
+  <si>
+    <t>55,79%</t>
+  </si>
+  <si>
+    <t>53,02%</t>
+  </si>
+  <si>
+    <t>49,41%</t>
+  </si>
+  <si>
+    <t>56,92%</t>
+  </si>
+  <si>
+    <t>52,5%</t>
+  </si>
+  <si>
+    <t>49,77%</t>
+  </si>
+  <si>
+    <t>54,95%</t>
+  </si>
+  <si>
+    <t>33,35%</t>
+  </si>
+  <si>
+    <t>29,84%</t>
+  </si>
+  <si>
+    <t>36,82%</t>
+  </si>
+  <si>
+    <t>31,79%</t>
+  </si>
+  <si>
+    <t>28,25%</t>
+  </si>
+  <si>
+    <t>35,27%</t>
+  </si>
+  <si>
+    <t>32,56%</t>
+  </si>
+  <si>
+    <t>30,33%</t>
+  </si>
+  <si>
+    <t>35,23%</t>
+  </si>
+  <si>
+    <t>14,67%</t>
+  </si>
+  <si>
+    <t>12,25%</t>
+  </si>
+  <si>
+    <t>17,41%</t>
+  </si>
+  <si>
+    <t>12,43%</t>
+  </si>
+  <si>
+    <t>17,65%</t>
+  </si>
+  <si>
+    <t>14,93%</t>
+  </si>
+  <si>
+    <t>13,23%</t>
+  </si>
+  <si>
+    <t>17,01%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>40,64%</t>
+  </si>
+  <si>
+    <t>37,43%</t>
+  </si>
+  <si>
+    <t>43,71%</t>
+  </si>
+  <si>
+    <t>40,09%</t>
+  </si>
+  <si>
+    <t>37,02%</t>
+  </si>
+  <si>
+    <t>43,13%</t>
+  </si>
+  <si>
+    <t>40,35%</t>
+  </si>
+  <si>
+    <t>38,11%</t>
+  </si>
+  <si>
+    <t>42,59%</t>
+  </si>
+  <si>
+    <t>38,48%</t>
+  </si>
+  <si>
+    <t>35,19%</t>
+  </si>
+  <si>
+    <t>41,76%</t>
+  </si>
+  <si>
+    <t>38,93%</t>
+  </si>
+  <si>
+    <t>36,11%</t>
+  </si>
+  <si>
+    <t>42,06%</t>
+  </si>
+  <si>
+    <t>38,72%</t>
+  </si>
+  <si>
+    <t>36,54%</t>
+  </si>
+  <si>
+    <t>40,84%</t>
+  </si>
+  <si>
+    <t>20,88%</t>
+  </si>
+  <si>
+    <t>18,41%</t>
+  </si>
+  <si>
+    <t>23,57%</t>
+  </si>
+  <si>
+    <t>20,97%</t>
+  </si>
+  <si>
+    <t>18,48%</t>
+  </si>
+  <si>
+    <t>23,93%</t>
+  </si>
+  <si>
+    <t>20,93%</t>
+  </si>
+  <si>
+    <t>19,11%</t>
+  </si>
+  <si>
+    <t>22,83%</t>
+  </si>
+  <si>
+    <t>52,57%</t>
+  </si>
+  <si>
+    <t>50,84%</t>
+  </si>
+  <si>
+    <t>54,26%</t>
+  </si>
+  <si>
+    <t>51,94%</t>
+  </si>
+  <si>
+    <t>50,03%</t>
+  </si>
+  <si>
+    <t>53,52%</t>
+  </si>
+  <si>
+    <t>52,25%</t>
+  </si>
+  <si>
+    <t>50,97%</t>
+  </si>
+  <si>
+    <t>53,57%</t>
+  </si>
+  <si>
+    <t>34,81%</t>
+  </si>
+  <si>
+    <t>33,28%</t>
+  </si>
+  <si>
+    <t>34,37%</t>
+  </si>
+  <si>
+    <t>32,88%</t>
+  </si>
+  <si>
+    <t>36,25%</t>
+  </si>
+  <si>
+    <t>34,59%</t>
+  </si>
+  <si>
+    <t>33,42%</t>
+  </si>
+  <si>
+    <t>35,75%</t>
+  </si>
+  <si>
+    <t>12,62%</t>
+  </si>
+  <si>
+    <t>11,58%</t>
+  </si>
+  <si>
+    <t>13,85%</t>
+  </si>
+  <si>
+    <t>13,68%</t>
+  </si>
+  <si>
+    <t>12,5%</t>
+  </si>
+  <si>
+    <t>14,94%</t>
+  </si>
+  <si>
+    <t>13,16%</t>
+  </si>
+  <si>
+    <t>12,3%</t>
+  </si>
+  <si>
+    <t>14,03%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si en el barrio donde vive hay trafico intenso de vehículos de motor en 2016 (Tasa respuesta: 99,51%)</t>
+  </si>
+  <si>
+    <t>90,7%</t>
+  </si>
+  <si>
+    <t>84,47%</t>
+  </si>
+  <si>
+    <t>94,78%</t>
+  </si>
+  <si>
+    <t>94,88%</t>
+  </si>
+  <si>
+    <t>90,06%</t>
+  </si>
+  <si>
+    <t>97,56%</t>
+  </si>
+  <si>
+    <t>92,76%</t>
+  </si>
+  <si>
+    <t>88,91%</t>
+  </si>
+  <si>
+    <t>95,62%</t>
+  </si>
+  <si>
+    <t>8,41%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>14,61%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>8,92%</t>
+  </si>
+  <si>
+    <t>6,4%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>10,23%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>78,65%</t>
+  </si>
+  <si>
+    <t>85,16%</t>
+  </si>
+  <si>
+    <t>80,68%</t>
+  </si>
+  <si>
+    <t>77,1%</t>
+  </si>
+  <si>
+    <t>83,89%</t>
+  </si>
+  <si>
+    <t>81,3%</t>
+  </si>
+  <si>
+    <t>78,79%</t>
+  </si>
+  <si>
+    <t>83,31%</t>
+  </si>
+  <si>
+    <t>14,7%</t>
+  </si>
+  <si>
+    <t>11,81%</t>
+  </si>
+  <si>
+    <t>17,79%</t>
+  </si>
+  <si>
+    <t>13,73%</t>
+  </si>
+  <si>
+    <t>10,85%</t>
+  </si>
+  <si>
+    <t>16,63%</t>
+  </si>
+  <si>
+    <t>14,21%</t>
+  </si>
+  <si>
+    <t>12,47%</t>
+  </si>
+  <si>
+    <t>16,58%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>5,38%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>7,88%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>68,58%</t>
+  </si>
+  <si>
+    <t>65,44%</t>
+  </si>
+  <si>
+    <t>71,58%</t>
+  </si>
+  <si>
+    <t>70,1%</t>
+  </si>
+  <si>
+    <t>66,97%</t>
+  </si>
+  <si>
+    <t>72,83%</t>
+  </si>
+  <si>
+    <t>69,35%</t>
+  </si>
+  <si>
+    <t>67,23%</t>
+  </si>
+  <si>
+    <t>71,32%</t>
+  </si>
+  <si>
+    <t>25,05%</t>
+  </si>
+  <si>
+    <t>22,15%</t>
+  </si>
+  <si>
+    <t>27,97%</t>
+  </si>
+  <si>
+    <t>23,12%</t>
+  </si>
+  <si>
+    <t>20,5%</t>
+  </si>
+  <si>
+    <t>25,87%</t>
+  </si>
+  <si>
+    <t>24,08%</t>
+  </si>
+  <si>
+    <t>22,22%</t>
+  </si>
+  <si>
+    <t>26,14%</t>
+  </si>
+  <si>
+    <t>6,37%</t>
+  </si>
+  <si>
+    <t>4,92%</t>
+  </si>
+  <si>
+    <t>8,21%</t>
+  </si>
+  <si>
+    <t>6,78%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>8,44%</t>
+  </si>
+  <si>
+    <t>6,58%</t>
+  </si>
+  <si>
+    <t>7,79%</t>
+  </si>
+  <si>
+    <t>59,67%</t>
+  </si>
+  <si>
+    <t>56,0%</t>
+  </si>
+  <si>
+    <t>63,41%</t>
+  </si>
+  <si>
+    <t>59,58%</t>
+  </si>
+  <si>
+    <t>56,02%</t>
+  </si>
+  <si>
+    <t>63,15%</t>
+  </si>
+  <si>
+    <t>59,63%</t>
+  </si>
+  <si>
+    <t>57,12%</t>
+  </si>
+  <si>
+    <t>62,15%</t>
+  </si>
+  <si>
+    <t>29,06%</t>
+  </si>
+  <si>
+    <t>25,91%</t>
+  </si>
+  <si>
+    <t>32,53%</t>
+  </si>
+  <si>
+    <t>22,79%</t>
+  </si>
+  <si>
+    <t>29,19%</t>
+  </si>
+  <si>
+    <t>27,57%</t>
+  </si>
+  <si>
+    <t>25,31%</t>
+  </si>
+  <si>
     <t>29,87%</t>
   </si>
   <si>
-    <t>38,11%</t>
-  </si>
-  <si>
-    <t>32,99%</t>
-  </si>
-  <si>
-    <t>30,24%</t>
-  </si>
-  <si>
-    <t>35,57%</t>
-  </si>
-  <si>
-    <t>5,63%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>7,76%</t>
-  </si>
-  <si>
-    <t>6,83%</t>
-  </si>
-  <si>
-    <t>5,02%</t>
-  </si>
-  <si>
-    <t>9,11%</t>
-  </si>
-  <si>
-    <t>6,23%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>55,96%</t>
-  </si>
-  <si>
-    <t>52,87%</t>
-  </si>
-  <si>
-    <t>59,16%</t>
-  </si>
-  <si>
-    <t>55,87%</t>
-  </si>
-  <si>
-    <t>52,82%</t>
-  </si>
-  <si>
-    <t>59,29%</t>
-  </si>
-  <si>
-    <t>55,92%</t>
-  </si>
-  <si>
-    <t>53,53%</t>
-  </si>
-  <si>
-    <t>58,15%</t>
-  </si>
-  <si>
-    <t>35,55%</t>
-  </si>
-  <si>
-    <t>32,39%</t>
-  </si>
-  <si>
-    <t>38,52%</t>
-  </si>
-  <si>
-    <t>34,0%</t>
-  </si>
-  <si>
-    <t>30,89%</t>
-  </si>
-  <si>
-    <t>36,89%</t>
-  </si>
-  <si>
-    <t>34,77%</t>
-  </si>
-  <si>
-    <t>32,74%</t>
-  </si>
-  <si>
-    <t>36,88%</t>
-  </si>
-  <si>
-    <t>8,49%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>10,46%</t>
-  </si>
-  <si>
-    <t>10,12%</t>
-  </si>
-  <si>
-    <t>8,23%</t>
-  </si>
-  <si>
-    <t>12,14%</t>
-  </si>
-  <si>
-    <t>9,31%</t>
+    <t>11,27%</t>
+  </si>
+  <si>
+    <t>9,15%</t>
+  </si>
+  <si>
+    <t>13,86%</t>
+  </si>
+  <si>
+    <t>14,28%</t>
+  </si>
+  <si>
+    <t>12,05%</t>
+  </si>
+  <si>
+    <t>17,12%</t>
+  </si>
+  <si>
+    <t>12,8%</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>14,58%</t>
+  </si>
+  <si>
+    <t>53,54%</t>
+  </si>
+  <si>
+    <t>50,36%</t>
+  </si>
+  <si>
+    <t>56,96%</t>
+  </si>
+  <si>
+    <t>50,47%</t>
+  </si>
+  <si>
+    <t>57,09%</t>
+  </si>
+  <si>
+    <t>53,73%</t>
+  </si>
+  <si>
+    <t>51,26%</t>
+  </si>
+  <si>
+    <t>55,9%</t>
+  </si>
+  <si>
+    <t>28,74%</t>
+  </si>
+  <si>
+    <t>25,75%</t>
+  </si>
+  <si>
+    <t>31,64%</t>
+  </si>
+  <si>
+    <t>27,08%</t>
+  </si>
+  <si>
+    <t>24,44%</t>
+  </si>
+  <si>
+    <t>30,13%</t>
+  </si>
+  <si>
+    <t>27,87%</t>
+  </si>
+  <si>
+    <t>25,95%</t>
+  </si>
+  <si>
+    <t>29,95%</t>
+  </si>
+  <si>
+    <t>17,72%</t>
+  </si>
+  <si>
+    <t>15,27%</t>
+  </si>
+  <si>
+    <t>20,24%</t>
+  </si>
+  <si>
+    <t>19,02%</t>
+  </si>
+  <si>
+    <t>16,72%</t>
+  </si>
+  <si>
+    <t>21,8%</t>
+  </si>
+  <si>
+    <t>16,7%</t>
+  </si>
+  <si>
+    <t>20,34%</t>
+  </si>
+  <si>
+    <t>65,39%</t>
+  </si>
+  <si>
+    <t>63,56%</t>
+  </si>
+  <si>
+    <t>66,98%</t>
+  </si>
+  <si>
+    <t>65,46%</t>
+  </si>
+  <si>
+    <t>63,84%</t>
+  </si>
+  <si>
+    <t>67,0%</t>
+  </si>
+  <si>
+    <t>65,42%</t>
+  </si>
+  <si>
+    <t>64,26%</t>
+  </si>
+  <si>
+    <t>66,63%</t>
+  </si>
+  <si>
+    <t>24,69%</t>
+  </si>
+  <si>
+    <t>23,34%</t>
+  </si>
+  <si>
+    <t>26,25%</t>
+  </si>
+  <si>
+    <t>22,88%</t>
+  </si>
+  <si>
+    <t>21,49%</t>
+  </si>
+  <si>
+    <t>24,29%</t>
+  </si>
+  <si>
+    <t>23,76%</t>
+  </si>
+  <si>
+    <t>22,7%</t>
+  </si>
+  <si>
+    <t>24,89%</t>
+  </si>
+  <si>
+    <t>9,92%</t>
+  </si>
+  <si>
+    <t>8,97%</t>
+  </si>
+  <si>
+    <t>11,06%</t>
+  </si>
+  <si>
+    <t>11,67%</t>
+  </si>
+  <si>
+    <t>10,62%</t>
+  </si>
+  <si>
+    <t>12,93%</t>
+  </si>
+  <si>
+    <t>10,82%</t>
+  </si>
+  <si>
+    <t>10,04%</t>
+  </si>
+  <si>
+    <t>11,59%</t>
+  </si>
+  <si>
+    <t>Población según si en el barrio donde vive hay trafico intenso de vehículos de motor en 2023 (Tasa respuesta: 99,9%)</t>
+  </si>
+  <si>
+    <t>93,93%</t>
+  </si>
+  <si>
+    <t>88,04%</t>
+  </si>
+  <si>
+    <t>97,03%</t>
+  </si>
+  <si>
+    <t>95,37%</t>
+  </si>
+  <si>
+    <t>86,37%</t>
+  </si>
+  <si>
+    <t>98,24%</t>
+  </si>
+  <si>
+    <t>94,74%</t>
+  </si>
+  <si>
+    <t>97,06%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>6,67%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>8,65%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>11,79%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>7,14%</t>
+  </si>
+  <si>
+    <t>88,13%</t>
+  </si>
+  <si>
+    <t>84,89%</t>
+  </si>
+  <si>
+    <t>90,73%</t>
+  </si>
+  <si>
+    <t>89,29%</t>
+  </si>
+  <si>
+    <t>86,98%</t>
+  </si>
+  <si>
+    <t>91,35%</t>
+  </si>
+  <si>
+    <t>88,74%</t>
+  </si>
+  <si>
+    <t>86,78%</t>
+  </si>
+  <si>
+    <t>90,37%</t>
+  </si>
+  <si>
+    <t>8,46%</t>
+  </si>
+  <si>
+    <t>6,43%</t>
+  </si>
+  <si>
+    <t>11,3%</t>
+  </si>
+  <si>
+    <t>7,34%</t>
+  </si>
+  <si>
+    <t>5,74%</t>
+  </si>
+  <si>
+    <t>9,37%</t>
+  </si>
+  <si>
+    <t>7,86%</t>
+  </si>
+  <si>
+    <t>6,51%</t>
+  </si>
+  <si>
+    <t>9,47%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>81,99%</t>
+  </si>
+  <si>
+    <t>79,18%</t>
+  </si>
+  <si>
+    <t>85,45%</t>
+  </si>
+  <si>
+    <t>78,05%</t>
+  </si>
+  <si>
+    <t>75,6%</t>
+  </si>
+  <si>
+    <t>80,53%</t>
+  </si>
+  <si>
+    <t>80,0%</t>
+  </si>
+  <si>
+    <t>77,93%</t>
+  </si>
+  <si>
+    <t>82,18%</t>
+  </si>
+  <si>
+    <t>12,29%</t>
+  </si>
+  <si>
+    <t>9,57%</t>
+  </si>
+  <si>
+    <t>14,92%</t>
+  </si>
+  <si>
+    <t>14,24%</t>
+  </si>
+  <si>
+    <t>12,4%</t>
+  </si>
+  <si>
+    <t>13,27%</t>
+  </si>
+  <si>
+    <t>11,65%</t>
+  </si>
+  <si>
+    <t>15,12%</t>
+  </si>
+  <si>
+    <t>5,72%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>7,41%</t>
+  </si>
+  <si>
+    <t>7,71%</t>
+  </si>
+  <si>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>9,38%</t>
+  </si>
+  <si>
+    <t>6,72%</t>
+  </si>
+  <si>
+    <t>5,56%</t>
   </si>
   <si>
     <t>8,03%</t>
   </si>
   <si>
-    <t>10,65%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>51,98%</t>
-  </si>
-  <si>
-    <t>47,8%</t>
-  </si>
-  <si>
-    <t>56,0%</t>
-  </si>
-  <si>
-    <t>53,02%</t>
-  </si>
-  <si>
-    <t>49,25%</t>
-  </si>
-  <si>
-    <t>56,68%</t>
-  </si>
-  <si>
-    <t>52,5%</t>
-  </si>
-  <si>
-    <t>49,66%</t>
-  </si>
-  <si>
-    <t>55,11%</t>
-  </si>
-  <si>
-    <t>33,35%</t>
-  </si>
-  <si>
-    <t>29,55%</t>
-  </si>
-  <si>
-    <t>37,2%</t>
-  </si>
-  <si>
-    <t>31,79%</t>
-  </si>
-  <si>
-    <t>28,34%</t>
-  </si>
-  <si>
-    <t>35,47%</t>
-  </si>
-  <si>
-    <t>32,56%</t>
-  </si>
-  <si>
-    <t>30,18%</t>
-  </si>
-  <si>
-    <t>35,33%</t>
-  </si>
-  <si>
-    <t>14,67%</t>
-  </si>
-  <si>
-    <t>11,86%</t>
+    <t>74,08%</t>
+  </si>
+  <si>
+    <t>70,28%</t>
+  </si>
+  <si>
+    <t>77,2%</t>
+  </si>
+  <si>
+    <t>79,02%</t>
+  </si>
+  <si>
+    <t>74,86%</t>
+  </si>
+  <si>
+    <t>86,2%</t>
+  </si>
+  <si>
+    <t>76,77%</t>
+  </si>
+  <si>
+    <t>73,97%</t>
+  </si>
+  <si>
+    <t>81,87%</t>
+  </si>
+  <si>
+    <t>18,62%</t>
+  </si>
+  <si>
+    <t>15,81%</t>
+  </si>
+  <si>
+    <t>22,21%</t>
+  </si>
+  <si>
+    <t>13,81%</t>
+  </si>
+  <si>
+    <t>9,26%</t>
+  </si>
+  <si>
+    <t>16,85%</t>
+  </si>
+  <si>
+    <t>16,0%</t>
+  </si>
+  <si>
+    <t>12,39%</t>
+  </si>
+  <si>
+    <t>18,28%</t>
+  </si>
+  <si>
+    <t>7,3%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>9,66%</t>
+  </si>
+  <si>
+    <t>7,17%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>9,45%</t>
+  </si>
+  <si>
+    <t>7,23%</t>
+  </si>
+  <si>
+    <t>5,66%</t>
+  </si>
+  <si>
+    <t>8,88%</t>
+  </si>
+  <si>
+    <t>54,15%</t>
+  </si>
+  <si>
+    <t>50,29%</t>
+  </si>
+  <si>
+    <t>57,41%</t>
+  </si>
+  <si>
+    <t>56,15%</t>
+  </si>
+  <si>
+    <t>53,17%</t>
+  </si>
+  <si>
+    <t>58,89%</t>
+  </si>
+  <si>
+    <t>55,23%</t>
+  </si>
+  <si>
+    <t>53,0%</t>
+  </si>
+  <si>
+    <t>57,7%</t>
+  </si>
+  <si>
+    <t>28,08%</t>
+  </si>
+  <si>
+    <t>25,0%</t>
+  </si>
+  <si>
+    <t>31,06%</t>
+  </si>
+  <si>
+    <t>25,63%</t>
+  </si>
+  <si>
+    <t>23,25%</t>
+  </si>
+  <si>
+    <t>28,33%</t>
+  </si>
+  <si>
+    <t>26,75%</t>
+  </si>
+  <si>
+    <t>24,66%</t>
+  </si>
+  <si>
+    <t>28,77%</t>
   </si>
   <si>
     <t>17,77%</t>
   </si>
   <si>
-    <t>15,19%</t>
-  </si>
-  <si>
-    <t>12,68%</t>
-  </si>
-  <si>
-    <t>18,22%</t>
-  </si>
-  <si>
-    <t>14,93%</t>
-  </si>
-  <si>
-    <t>12,99%</t>
-  </si>
-  <si>
-    <t>16,83%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>40,64%</t>
-  </si>
-  <si>
-    <t>37,24%</t>
-  </si>
-  <si>
-    <t>44,27%</t>
-  </si>
-  <si>
-    <t>40,09%</t>
-  </si>
-  <si>
-    <t>36,96%</t>
-  </si>
-  <si>
-    <t>43,28%</t>
-  </si>
-  <si>
-    <t>40,35%</t>
-  </si>
-  <si>
-    <t>38,15%</t>
-  </si>
-  <si>
-    <t>42,6%</t>
-  </si>
-  <si>
-    <t>38,48%</t>
-  </si>
-  <si>
-    <t>35,31%</t>
-  </si>
-  <si>
-    <t>41,55%</t>
-  </si>
-  <si>
-    <t>38,93%</t>
-  </si>
-  <si>
-    <t>35,52%</t>
-  </si>
-  <si>
-    <t>41,97%</t>
-  </si>
-  <si>
-    <t>38,72%</t>
-  </si>
-  <si>
-    <t>36,44%</t>
-  </si>
-  <si>
-    <t>40,87%</t>
-  </si>
-  <si>
-    <t>20,88%</t>
-  </si>
-  <si>
-    <t>18,44%</t>
-  </si>
-  <si>
-    <t>23,6%</t>
-  </si>
-  <si>
-    <t>20,97%</t>
-  </si>
-  <si>
-    <t>18,35%</t>
-  </si>
-  <si>
-    <t>23,64%</t>
-  </si>
-  <si>
-    <t>20,93%</t>
-  </si>
-  <si>
-    <t>19,21%</t>
-  </si>
-  <si>
-    <t>23,26%</t>
-  </si>
-  <si>
-    <t>52,57%</t>
-  </si>
-  <si>
-    <t>50,85%</t>
-  </si>
-  <si>
-    <t>54,45%</t>
-  </si>
-  <si>
-    <t>51,94%</t>
-  </si>
-  <si>
-    <t>50,11%</t>
-  </si>
-  <si>
-    <t>53,66%</t>
-  </si>
-  <si>
-    <t>52,25%</t>
-  </si>
-  <si>
-    <t>51,01%</t>
-  </si>
-  <si>
-    <t>53,47%</t>
-  </si>
-  <si>
-    <t>34,81%</t>
-  </si>
-  <si>
-    <t>33,12%</t>
-  </si>
-  <si>
-    <t>36,58%</t>
-  </si>
-  <si>
-    <t>34,37%</t>
-  </si>
-  <si>
-    <t>32,89%</t>
-  </si>
-  <si>
-    <t>36,18%</t>
-  </si>
-  <si>
-    <t>34,59%</t>
-  </si>
-  <si>
-    <t>33,47%</t>
-  </si>
-  <si>
-    <t>35,85%</t>
-  </si>
-  <si>
-    <t>12,62%</t>
-  </si>
-  <si>
-    <t>11,56%</t>
-  </si>
-  <si>
-    <t>13,81%</t>
-  </si>
-  <si>
-    <t>13,68%</t>
-  </si>
-  <si>
-    <t>12,57%</t>
-  </si>
-  <si>
-    <t>14,87%</t>
-  </si>
-  <si>
-    <t>13,16%</t>
-  </si>
-  <si>
-    <t>12,35%</t>
-  </si>
-  <si>
-    <t>14,01%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si en el barrio donde vive hay trafico intenso de vehículos de motor en 2016 (Tasa respuesta: 99,51%)</t>
-  </si>
-  <si>
-    <t>90,7%</t>
-  </si>
-  <si>
-    <t>84,77%</t>
-  </si>
-  <si>
-    <t>94,97%</t>
-  </si>
-  <si>
-    <t>94,88%</t>
-  </si>
-  <si>
-    <t>89,02%</t>
-  </si>
-  <si>
-    <t>97,55%</t>
-  </si>
-  <si>
-    <t>92,76%</t>
-  </si>
-  <si>
-    <t>88,78%</t>
-  </si>
-  <si>
-    <t>95,75%</t>
-  </si>
-  <si>
-    <t>8,41%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>13,99%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>6,4%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>10,09%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>78,27%</t>
-  </si>
-  <si>
-    <t>85,11%</t>
-  </si>
-  <si>
-    <t>80,68%</t>
-  </si>
-  <si>
-    <t>77,42%</t>
-  </si>
-  <si>
-    <t>83,67%</t>
-  </si>
-  <si>
-    <t>81,3%</t>
-  </si>
-  <si>
-    <t>79,0%</t>
-  </si>
-  <si>
-    <t>83,5%</t>
-  </si>
-  <si>
-    <t>14,7%</t>
-  </si>
-  <si>
-    <t>11,82%</t>
-  </si>
-  <si>
-    <t>18,33%</t>
-  </si>
-  <si>
-    <t>13,73%</t>
-  </si>
-  <si>
-    <t>11,1%</t>
-  </si>
-  <si>
-    <t>16,74%</t>
-  </si>
-  <si>
-    <t>14,21%</t>
-  </si>
-  <si>
-    <t>12,09%</t>
-  </si>
-  <si>
-    <t>16,19%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>7,94%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>68,58%</t>
-  </si>
-  <si>
-    <t>65,33%</t>
-  </si>
-  <si>
-    <t>71,61%</t>
-  </si>
-  <si>
-    <t>70,1%</t>
-  </si>
-  <si>
-    <t>66,96%</t>
-  </si>
-  <si>
-    <t>73,1%</t>
-  </si>
-  <si>
-    <t>69,35%</t>
-  </si>
-  <si>
-    <t>67,36%</t>
-  </si>
-  <si>
-    <t>71,33%</t>
-  </si>
-  <si>
-    <t>25,05%</t>
-  </si>
-  <si>
-    <t>22,4%</t>
-  </si>
-  <si>
-    <t>28,12%</t>
-  </si>
-  <si>
-    <t>23,12%</t>
-  </si>
-  <si>
-    <t>20,37%</t>
-  </si>
-  <si>
-    <t>25,97%</t>
-  </si>
-  <si>
-    <t>24,08%</t>
-  </si>
-  <si>
-    <t>22,08%</t>
-  </si>
-  <si>
-    <t>6,37%</t>
-  </si>
-  <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>8,08%</t>
-  </si>
-  <si>
-    <t>6,78%</t>
-  </si>
-  <si>
-    <t>8,46%</t>
-  </si>
-  <si>
-    <t>6,58%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>7,81%</t>
-  </si>
-  <si>
-    <t>59,67%</t>
-  </si>
-  <si>
-    <t>56,16%</t>
-  </si>
-  <si>
-    <t>63,37%</t>
-  </si>
-  <si>
-    <t>59,58%</t>
-  </si>
-  <si>
-    <t>55,48%</t>
-  </si>
-  <si>
-    <t>63,0%</t>
-  </si>
-  <si>
-    <t>59,63%</t>
-  </si>
-  <si>
-    <t>57,11%</t>
-  </si>
-  <si>
-    <t>62,3%</t>
-  </si>
-  <si>
-    <t>29,06%</t>
-  </si>
-  <si>
-    <t>25,63%</t>
-  </si>
-  <si>
-    <t>32,35%</t>
-  </si>
-  <si>
-    <t>26,14%</t>
-  </si>
-  <si>
-    <t>22,9%</t>
-  </si>
-  <si>
-    <t>29,43%</t>
-  </si>
-  <si>
-    <t>27,57%</t>
-  </si>
-  <si>
-    <t>25,35%</t>
-  </si>
-  <si>
-    <t>30,07%</t>
-  </si>
-  <si>
-    <t>11,27%</t>
-  </si>
-  <si>
-    <t>9,09%</t>
-  </si>
-  <si>
-    <t>13,69%</t>
-  </si>
-  <si>
-    <t>14,28%</t>
-  </si>
-  <si>
-    <t>11,73%</t>
-  </si>
-  <si>
-    <t>17,08%</t>
-  </si>
-  <si>
-    <t>12,8%</t>
-  </si>
-  <si>
-    <t>11,18%</t>
-  </si>
-  <si>
-    <t>14,69%</t>
-  </si>
-  <si>
-    <t>53,54%</t>
-  </si>
-  <si>
-    <t>50,14%</t>
-  </si>
-  <si>
-    <t>56,55%</t>
-  </si>
-  <si>
-    <t>53,9%</t>
-  </si>
-  <si>
-    <t>50,74%</t>
-  </si>
-  <si>
-    <t>56,86%</t>
-  </si>
-  <si>
-    <t>53,73%</t>
-  </si>
-  <si>
-    <t>51,41%</t>
-  </si>
-  <si>
-    <t>55,89%</t>
-  </si>
-  <si>
-    <t>28,74%</t>
-  </si>
-  <si>
-    <t>25,68%</t>
-  </si>
-  <si>
-    <t>31,57%</t>
-  </si>
-  <si>
-    <t>27,08%</t>
-  </si>
-  <si>
-    <t>24,31%</t>
-  </si>
-  <si>
-    <t>29,98%</t>
-  </si>
-  <si>
-    <t>27,87%</t>
-  </si>
-  <si>
-    <t>25,83%</t>
-  </si>
-  <si>
-    <t>29,81%</t>
-  </si>
-  <si>
-    <t>17,72%</t>
-  </si>
-  <si>
-    <t>15,34%</t>
-  </si>
-  <si>
-    <t>20,32%</t>
-  </si>
-  <si>
-    <t>19,02%</t>
-  </si>
-  <si>
-    <t>16,8%</t>
-  </si>
-  <si>
-    <t>21,55%</t>
-  </si>
-  <si>
-    <t>16,58%</t>
-  </si>
-  <si>
-    <t>20,4%</t>
-  </si>
-  <si>
-    <t>65,39%</t>
-  </si>
-  <si>
-    <t>63,78%</t>
-  </si>
-  <si>
-    <t>67,02%</t>
-  </si>
-  <si>
-    <t>65,46%</t>
-  </si>
-  <si>
-    <t>63,9%</t>
-  </si>
-  <si>
-    <t>66,98%</t>
-  </si>
-  <si>
-    <t>65,42%</t>
-  </si>
-  <si>
-    <t>64,21%</t>
-  </si>
-  <si>
-    <t>66,57%</t>
-  </si>
-  <si>
-    <t>24,69%</t>
-  </si>
-  <si>
-    <t>23,07%</t>
-  </si>
-  <si>
-    <t>26,11%</t>
-  </si>
-  <si>
-    <t>22,88%</t>
-  </si>
-  <si>
-    <t>21,46%</t>
-  </si>
-  <si>
-    <t>24,18%</t>
-  </si>
-  <si>
-    <t>23,76%</t>
-  </si>
-  <si>
-    <t>22,78%</t>
-  </si>
-  <si>
-    <t>24,82%</t>
-  </si>
-  <si>
-    <t>9,92%</t>
-  </si>
-  <si>
-    <t>8,99%</t>
-  </si>
-  <si>
-    <t>11,12%</t>
-  </si>
-  <si>
-    <t>11,67%</t>
-  </si>
-  <si>
-    <t>10,64%</t>
-  </si>
-  <si>
-    <t>12,91%</t>
-  </si>
-  <si>
-    <t>10,82%</t>
-  </si>
-  <si>
-    <t>10,1%</t>
-  </si>
-  <si>
-    <t>Población según si en el barrio donde vive hay trafico intenso de vehículos de motor en 2023 (Tasa respuesta: 99,9%)</t>
-  </si>
-  <si>
-    <t>93,93%</t>
-  </si>
-  <si>
-    <t>87,97%</t>
-  </si>
-  <si>
-    <t>97,17%</t>
-  </si>
-  <si>
-    <t>95,37%</t>
-  </si>
-  <si>
-    <t>87,36%</t>
-  </si>
-  <si>
-    <t>98,2%</t>
-  </si>
-  <si>
-    <t>94,74%</t>
-  </si>
-  <si>
-    <t>90,25%</t>
-  </si>
-  <si>
-    <t>97,12%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>6,61%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>5,13%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>8,25%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>10,72%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>7,55%</t>
-  </si>
-  <si>
-    <t>88,13%</t>
-  </si>
-  <si>
-    <t>84,8%</t>
-  </si>
-  <si>
-    <t>90,79%</t>
-  </si>
-  <si>
-    <t>89,29%</t>
-  </si>
-  <si>
-    <t>87,1%</t>
-  </si>
-  <si>
-    <t>91,58%</t>
-  </si>
-  <si>
-    <t>88,74%</t>
-  </si>
-  <si>
-    <t>86,89%</t>
-  </si>
-  <si>
-    <t>90,44%</t>
-  </si>
-  <si>
-    <t>6,3%</t>
-  </si>
-  <si>
-    <t>11,35%</t>
-  </si>
-  <si>
-    <t>7,34%</t>
-  </si>
-  <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>9,34%</t>
-  </si>
-  <si>
-    <t>7,86%</t>
-  </si>
-  <si>
-    <t>6,48%</t>
-  </si>
-  <si>
-    <t>9,39%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>81,99%</t>
-  </si>
-  <si>
-    <t>79,09%</t>
-  </si>
-  <si>
-    <t>85,26%</t>
-  </si>
-  <si>
-    <t>78,05%</t>
-  </si>
-  <si>
-    <t>75,63%</t>
-  </si>
-  <si>
-    <t>80,2%</t>
-  </si>
-  <si>
-    <t>80,0%</t>
-  </si>
-  <si>
-    <t>78,07%</t>
-  </si>
-  <si>
-    <t>82,05%</t>
-  </si>
-  <si>
-    <t>12,29%</t>
-  </si>
-  <si>
-    <t>9,69%</t>
-  </si>
-  <si>
-    <t>14,78%</t>
-  </si>
-  <si>
-    <t>14,24%</t>
-  </si>
-  <si>
-    <t>12,1%</t>
-  </si>
-  <si>
-    <t>16,44%</t>
-  </si>
-  <si>
-    <t>13,27%</t>
-  </si>
-  <si>
-    <t>11,63%</t>
-  </si>
-  <si>
-    <t>14,92%</t>
-  </si>
-  <si>
-    <t>5,72%</t>
-  </si>
-  <si>
-    <t>7,4%</t>
-  </si>
-  <si>
-    <t>7,71%</t>
-  </si>
-  <si>
-    <t>9,62%</t>
-  </si>
-  <si>
-    <t>6,72%</t>
-  </si>
-  <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>7,96%</t>
-  </si>
-  <si>
-    <t>74,08%</t>
-  </si>
-  <si>
-    <t>70,52%</t>
-  </si>
-  <si>
-    <t>77,87%</t>
-  </si>
-  <si>
-    <t>79,02%</t>
-  </si>
-  <si>
-    <t>75,12%</t>
-  </si>
-  <si>
-    <t>87,11%</t>
-  </si>
-  <si>
-    <t>76,77%</t>
-  </si>
-  <si>
-    <t>73,77%</t>
-  </si>
-  <si>
-    <t>81,83%</t>
-  </si>
-  <si>
-    <t>18,62%</t>
-  </si>
-  <si>
-    <t>15,55%</t>
-  </si>
-  <si>
-    <t>22,12%</t>
-  </si>
-  <si>
-    <t>8,35%</t>
-  </si>
-  <si>
-    <t>16,61%</t>
-  </si>
-  <si>
-    <t>16,0%</t>
-  </si>
-  <si>
-    <t>12,38%</t>
-  </si>
-  <si>
-    <t>18,49%</t>
-  </si>
-  <si>
-    <t>7,3%</t>
-  </si>
-  <si>
-    <t>5,58%</t>
-  </si>
-  <si>
-    <t>9,87%</t>
-  </si>
-  <si>
-    <t>7,17%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>9,42%</t>
-  </si>
-  <si>
-    <t>7,23%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>8,76%</t>
-  </si>
-  <si>
-    <t>54,15%</t>
-  </si>
-  <si>
-    <t>50,69%</t>
-  </si>
-  <si>
-    <t>57,65%</t>
-  </si>
-  <si>
-    <t>56,15%</t>
-  </si>
-  <si>
-    <t>53,44%</t>
-  </si>
-  <si>
-    <t>59,41%</t>
-  </si>
-  <si>
-    <t>55,23%</t>
-  </si>
-  <si>
-    <t>52,85%</t>
-  </si>
-  <si>
-    <t>57,3%</t>
-  </si>
-  <si>
-    <t>28,08%</t>
-  </si>
-  <si>
-    <t>31,4%</t>
-  </si>
-  <si>
-    <t>22,92%</t>
-  </si>
-  <si>
-    <t>28,23%</t>
-  </si>
-  <si>
-    <t>26,75%</t>
-  </si>
-  <si>
-    <t>24,83%</t>
-  </si>
-  <si>
-    <t>28,64%</t>
-  </si>
-  <si>
-    <t>15,25%</t>
-  </si>
-  <si>
-    <t>20,79%</t>
+    <t>15,33%</t>
+  </si>
+  <si>
+    <t>20,58%</t>
   </si>
   <si>
     <t>18,23%</t>
   </si>
   <si>
-    <t>16,11%</t>
-  </si>
-  <si>
-    <t>20,54%</t>
+    <t>16,24%</t>
+  </si>
+  <si>
+    <t>20,6%</t>
   </si>
   <si>
     <t>18,02%</t>
   </si>
   <si>
-    <t>16,53%</t>
-  </si>
-  <si>
-    <t>19,86%</t>
+    <t>16,37%</t>
+  </si>
+  <si>
+    <t>19,72%</t>
   </si>
   <si>
     <t>73,7%</t>
   </si>
   <si>
-    <t>72,06%</t>
-  </si>
-  <si>
-    <t>75,51%</t>
+    <t>71,9%</t>
+  </si>
+  <si>
+    <t>75,55%</t>
   </si>
   <si>
     <t>74,11%</t>
   </si>
   <si>
-    <t>72,45%</t>
-  </si>
-  <si>
-    <t>76,84%</t>
+    <t>72,56%</t>
+  </si>
+  <si>
+    <t>76,53%</t>
   </si>
   <si>
     <t>73,92%</t>
   </si>
   <si>
-    <t>72,77%</t>
-  </si>
-  <si>
-    <t>75,44%</t>
+    <t>72,8%</t>
+  </si>
+  <si>
+    <t>75,53%</t>
   </si>
   <si>
     <t>17,24%</t>
   </si>
   <si>
-    <t>15,62%</t>
-  </si>
-  <si>
-    <t>18,66%</t>
+    <t>15,87%</t>
+  </si>
+  <si>
+    <t>18,79%</t>
   </si>
   <si>
     <t>16,03%</t>
   </si>
   <si>
-    <t>14,07%</t>
-  </si>
-  <si>
-    <t>17,25%</t>
+    <t>14,43%</t>
+  </si>
+  <si>
+    <t>17,33%</t>
   </si>
   <si>
     <t>16,6%</t>
   </si>
   <si>
-    <t>15,5%</t>
+    <t>15,52%</t>
   </si>
   <si>
     <t>17,52%</t>
@@ -1480,25 +1492,28 @@
     <t>9,06%</t>
   </si>
   <si>
-    <t>8,04%</t>
-  </si>
-  <si>
-    <t>10,21%</t>
+    <t>7,99%</t>
+  </si>
+  <si>
+    <t>10,3%</t>
   </si>
   <si>
     <t>9,86%</t>
   </si>
   <si>
-    <t>8,74%</t>
-  </si>
-  <si>
-    <t>10,93%</t>
+    <t>8,71%</t>
+  </si>
+  <si>
+    <t>10,96%</t>
   </si>
   <si>
     <t>9,48%</t>
   </si>
   <si>
-    <t>10,19%</t>
+    <t>8,78%</t>
+  </si>
+  <si>
+    <t>10,27%</t>
   </si>
 </sst>
 </file>
@@ -1910,7 +1925,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90C69848-4E46-489C-8B24-BB5B1E1D8945}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF7B1F2C-B02B-418B-B245-0010C65D3909}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2324,10 +2339,10 @@
         <v>57</v>
       </c>
       <c r="P9" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q9" s="7" t="s">
         <v>58</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -2342,13 +2357,13 @@
         <v>33102</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>61</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>62</v>
       </c>
       <c r="H10" s="7">
         <v>39</v>
@@ -2357,13 +2372,13 @@
         <v>39718</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>64</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>65</v>
       </c>
       <c r="M10" s="7">
         <v>71</v>
@@ -2372,13 +2387,13 @@
         <v>72820</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>67</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2769,13 +2784,13 @@
         <v>117411</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>120</v>
       </c>
       <c r="M18" s="7">
         <v>208</v>
@@ -2784,13 +2799,13 @@
         <v>228582</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2846,7 +2861,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -2858,13 +2873,13 @@
         <v>384775</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>127</v>
       </c>
       <c r="H20" s="7">
         <v>406</v>
@@ -2873,13 +2888,13 @@
         <v>420983</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>130</v>
       </c>
       <c r="M20" s="7">
         <v>768</v>
@@ -2888,13 +2903,13 @@
         <v>805758</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2909,13 +2924,13 @@
         <v>364342</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="F21" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="G21" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>136</v>
       </c>
       <c r="H21" s="7">
         <v>385</v>
@@ -2924,13 +2939,13 @@
         <v>408789</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="K21" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="K21" s="7" t="s">
+      <c r="L21" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>139</v>
       </c>
       <c r="M21" s="7">
         <v>735</v>
@@ -2939,13 +2954,13 @@
         <v>773130</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="P21" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="P21" s="7" t="s">
+      <c r="Q21" s="7" t="s">
         <v>141</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2960,13 +2975,13 @@
         <v>197637</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="G22" s="7" t="s">
         <v>144</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>145</v>
       </c>
       <c r="H22" s="7">
         <v>210</v>
@@ -2975,13 +2990,13 @@
         <v>220226</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>148</v>
       </c>
       <c r="M22" s="7">
         <v>407</v>
@@ -2990,13 +3005,13 @@
         <v>417863</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>150</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3064,13 +3079,13 @@
         <v>1796962</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="F24" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="G24" s="7" t="s">
         <v>153</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>154</v>
       </c>
       <c r="H24" s="7">
         <v>1703</v>
@@ -3079,13 +3094,13 @@
         <v>1840410</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>156</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>157</v>
       </c>
       <c r="M24" s="7">
         <v>3376</v>
@@ -3094,13 +3109,13 @@
         <v>3637371</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="P24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>159</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3115,13 +3130,13 @@
         <v>1189930</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="F25" s="7" t="s">
-        <v>162</v>
-      </c>
       <c r="G25" s="7" t="s">
-        <v>163</v>
+        <v>140</v>
       </c>
       <c r="H25" s="7">
         <v>1130</v>
@@ -3130,13 +3145,13 @@
         <v>1217933</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>164</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>166</v>
       </c>
       <c r="M25" s="7">
         <v>2247</v>
@@ -3145,13 +3160,13 @@
         <v>2407863</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>167</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3166,13 +3181,13 @@
         <v>431493</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>170</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>172</v>
       </c>
       <c r="H26" s="7">
         <v>452</v>
@@ -3181,13 +3196,13 @@
         <v>484758</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>173</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>175</v>
       </c>
       <c r="M26" s="7">
         <v>863</v>
@@ -3196,13 +3211,13 @@
         <v>916252</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>176</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3258,7 +3273,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
   </sheetData>
@@ -3279,7 +3294,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2170123A-0D72-48FE-A0EC-721775D1BFD6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{523A3106-3255-429E-AF0F-50BB8B3FFD79}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3296,7 +3311,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3403,13 +3418,13 @@
         <v>105710</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>181</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>183</v>
       </c>
       <c r="H4" s="7">
         <v>109</v>
@@ -3418,13 +3433,13 @@
         <v>107554</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>184</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>186</v>
       </c>
       <c r="M4" s="7">
         <v>211</v>
@@ -3433,13 +3448,13 @@
         <v>213265</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>187</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3454,13 +3469,13 @@
         <v>9800</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>190</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>192</v>
       </c>
       <c r="H5" s="7">
         <v>5</v>
@@ -3469,13 +3484,13 @@
         <v>4911</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>193</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>93</v>
       </c>
       <c r="M5" s="7">
         <v>15</v>
@@ -3484,13 +3499,13 @@
         <v>14712</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="P5" s="7" t="s">
+      <c r="Q5" s="7" t="s">
         <v>196</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3505,13 +3520,13 @@
         <v>1035</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="F6" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="G6" s="7" t="s">
         <v>199</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>200</v>
       </c>
       <c r="H6" s="7">
         <v>1</v>
@@ -3520,13 +3535,13 @@
         <v>894</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="L6" s="7" t="s">
         <v>201</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>202</v>
       </c>
       <c r="M6" s="7">
         <v>2</v>
@@ -3535,13 +3550,13 @@
         <v>1929</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="Q6" s="7" t="s">
         <v>203</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3612,10 +3627,10 @@
         <v>14</v>
       </c>
       <c r="F8" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>205</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>206</v>
       </c>
       <c r="H8" s="7">
         <v>439</v>
@@ -3624,13 +3639,13 @@
         <v>447927</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>207</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>208</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>209</v>
       </c>
       <c r="M8" s="7">
         <v>881</v>
@@ -3639,13 +3654,13 @@
         <v>902568</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="P8" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>211</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3660,13 +3675,13 @@
         <v>81565</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="F9" s="7" t="s">
         <v>213</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="G9" s="7" t="s">
         <v>214</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>215</v>
       </c>
       <c r="H9" s="7">
         <v>78</v>
@@ -3675,13 +3690,13 @@
         <v>76227</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="K9" s="7" t="s">
         <v>216</v>
       </c>
-      <c r="K9" s="7" t="s">
+      <c r="L9" s="7" t="s">
         <v>217</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>218</v>
       </c>
       <c r="M9" s="7">
         <v>155</v>
@@ -3690,13 +3705,13 @@
         <v>157792</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="P9" s="7" t="s">
         <v>219</v>
       </c>
-      <c r="P9" s="7" t="s">
+      <c r="Q9" s="7" t="s">
         <v>220</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3711,13 +3726,13 @@
         <v>18785</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>222</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>223</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>224</v>
       </c>
       <c r="H10" s="7">
         <v>30</v>
@@ -3726,13 +3741,13 @@
         <v>31050</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>225</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>227</v>
       </c>
       <c r="M10" s="7">
         <v>47</v>
@@ -3741,13 +3756,13 @@
         <v>49836</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>228</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3815,13 +3830,13 @@
         <v>697753</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="G12" s="7" t="s">
         <v>231</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>233</v>
       </c>
       <c r="H12" s="7">
         <v>677</v>
@@ -3830,13 +3845,13 @@
         <v>726409</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="L12" s="7" t="s">
         <v>234</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>236</v>
       </c>
       <c r="M12" s="7">
         <v>1329</v>
@@ -3845,13 +3860,13 @@
         <v>1424161</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="Q12" s="7" t="s">
         <v>237</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>238</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3866,13 +3881,13 @@
         <v>254822</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>240</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>242</v>
       </c>
       <c r="H13" s="7">
         <v>226</v>
@@ -3881,13 +3896,13 @@
         <v>239594</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>243</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>245</v>
       </c>
       <c r="M13" s="7">
         <v>460</v>
@@ -3896,13 +3911,13 @@
         <v>494416</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>246</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>247</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3917,13 +3932,13 @@
         <v>64836</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>249</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>250</v>
       </c>
       <c r="H14" s="7">
         <v>68</v>
@@ -3932,10 +3947,10 @@
         <v>70206</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>251</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>224</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>252</v>
@@ -3950,10 +3965,10 @@
         <v>253</v>
       </c>
       <c r="P14" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>254</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4021,13 +4036,13 @@
         <v>451379</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>256</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>257</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>258</v>
       </c>
       <c r="H16" s="7">
         <v>437</v>
@@ -4036,13 +4051,13 @@
         <v>466364</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>259</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>260</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>261</v>
       </c>
       <c r="M16" s="7">
         <v>849</v>
@@ -4051,13 +4066,13 @@
         <v>917744</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>262</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>263</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4072,13 +4087,13 @@
         <v>219783</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>265</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>266</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>267</v>
       </c>
       <c r="H17" s="7">
         <v>194</v>
@@ -4087,13 +4102,13 @@
         <v>204592</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>268</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>269</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>270</v>
       </c>
       <c r="M17" s="7">
         <v>394</v>
@@ -4102,13 +4117,13 @@
         <v>424375</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>271</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>272</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>273</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4123,13 +4138,13 @@
         <v>85263</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="G18" s="7" t="s">
         <v>274</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>275</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>276</v>
       </c>
       <c r="H18" s="7">
         <v>103</v>
@@ -4138,13 +4153,13 @@
         <v>111798</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="L18" s="7" t="s">
         <v>277</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>278</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>279</v>
       </c>
       <c r="M18" s="7">
         <v>184</v>
@@ -4153,13 +4168,13 @@
         <v>197061</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="Q18" s="7" t="s">
         <v>280</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>281</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>282</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4215,7 +4230,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -4227,13 +4242,13 @@
         <v>499695</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>283</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>284</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>285</v>
       </c>
       <c r="H20" s="7">
         <v>520</v>
@@ -4242,13 +4257,13 @@
         <v>559856</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>286</v>
+        <v>76</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="M20" s="7">
         <v>1024</v>
@@ -4257,13 +4272,13 @@
         <v>1059550</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4278,13 +4293,13 @@
         <v>268230</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="H21" s="7">
         <v>259</v>
@@ -4293,13 +4308,13 @@
         <v>281331</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="M21" s="7">
         <v>524</v>
@@ -4308,13 +4323,13 @@
         <v>549561</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -4329,13 +4344,13 @@
         <v>165406</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="H22" s="7">
         <v>175</v>
@@ -4344,13 +4359,13 @@
         <v>197531</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="M22" s="7">
         <v>334</v>
@@ -4362,10 +4377,10 @@
         <v>27</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4433,13 +4448,13 @@
         <v>2209179</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="H24" s="7">
         <v>2182</v>
@@ -4448,13 +4463,13 @@
         <v>2308110</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="M24" s="7">
         <v>4294</v>
@@ -4463,13 +4478,13 @@
         <v>4517288</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4484,13 +4499,13 @@
         <v>834200</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="H25" s="7">
         <v>762</v>
@@ -4499,13 +4514,13 @@
         <v>806656</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="M25" s="7">
         <v>1548</v>
@@ -4514,13 +4529,13 @@
         <v>1640856</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4535,13 +4550,13 @@
         <v>335325</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="H26" s="7">
         <v>377</v>
@@ -4550,13 +4565,13 @@
         <v>411480</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="M26" s="7">
         <v>695</v>
@@ -4565,13 +4580,13 @@
         <v>746805</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4598,7 +4613,7 @@
         <v>3321</v>
       </c>
       <c r="I27" s="7">
-        <v>3526245</v>
+        <v>3526246</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>40</v>
@@ -4627,7 +4642,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
   </sheetData>
@@ -4648,7 +4663,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{049A3ED2-1560-4F3D-B60F-53F24A4075F3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99251E03-5DD0-4300-B7DB-9CC518896485}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4665,7 +4680,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4772,13 +4787,13 @@
         <v>95790</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>336</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>337</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>338</v>
       </c>
       <c r="H4" s="7">
         <v>235</v>
@@ -4787,13 +4802,13 @@
         <v>124679</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>339</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>340</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>341</v>
       </c>
       <c r="M4" s="7">
         <v>344</v>
@@ -4802,13 +4817,13 @@
         <v>220469</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>343</v>
+        <v>179</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4823,13 +4838,13 @@
         <v>2548</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="H5" s="7">
         <v>6</v>
@@ -4838,13 +4853,13 @@
         <v>2875</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>349</v>
+        <v>202</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="M5" s="7">
         <v>10</v>
@@ -4853,13 +4868,13 @@
         <v>5422</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4874,13 +4889,13 @@
         <v>3645</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>32</v>
+        <v>351</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="H6" s="7">
         <v>2</v>
@@ -4889,13 +4904,13 @@
         <v>3179</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="M6" s="7">
         <v>7</v>
@@ -4904,13 +4919,13 @@
         <v>6824</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4978,13 +4993,13 @@
         <v>483610</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="H8" s="7">
         <v>882</v>
@@ -4993,13 +5008,13 @@
         <v>553573</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="M8" s="7">
         <v>1420</v>
@@ -5008,13 +5023,13 @@
         <v>1037183</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5029,13 +5044,13 @@
         <v>46405</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>252</v>
+        <v>367</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="H9" s="7">
         <v>75</v>
@@ -5044,13 +5059,13 @@
         <v>45486</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="L9" s="7" t="s">
         <v>372</v>
-      </c>
-      <c r="K9" s="7" t="s">
-        <v>373</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>374</v>
       </c>
       <c r="M9" s="7">
         <v>127</v>
@@ -5059,13 +5074,13 @@
         <v>91892</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="P9" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="Q9" s="7" t="s">
         <v>375</v>
-      </c>
-      <c r="P9" s="7" t="s">
-        <v>376</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>377</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -5080,13 +5095,13 @@
         <v>18758</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>229</v>
+        <v>376</v>
       </c>
       <c r="F10" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>378</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>379</v>
       </c>
       <c r="H10" s="7">
         <v>41</v>
@@ -5095,13 +5110,13 @@
         <v>20907</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>379</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>381</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>382</v>
       </c>
       <c r="M10" s="7">
         <v>62</v>
@@ -5110,13 +5125,13 @@
         <v>39665</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>382</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>383</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>384</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>385</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5184,13 +5199,13 @@
         <v>851650</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>385</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>386</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>387</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>388</v>
       </c>
       <c r="H12" s="7">
         <v>1203</v>
@@ -5199,13 +5214,13 @@
         <v>826925</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>389</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>390</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>391</v>
       </c>
       <c r="M12" s="7">
         <v>1986</v>
@@ -5214,13 +5229,13 @@
         <v>1678574</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>391</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>392</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>393</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>394</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5235,13 +5250,13 @@
         <v>127607</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>394</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>395</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>396</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>397</v>
       </c>
       <c r="H13" s="7">
         <v>209</v>
@@ -5250,13 +5265,13 @@
         <v>150845</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>397</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>398</v>
       </c>
-      <c r="K13" s="7" t="s">
-        <v>399</v>
-      </c>
       <c r="L13" s="7" t="s">
-        <v>400</v>
+        <v>220</v>
       </c>
       <c r="M13" s="7">
         <v>327</v>
@@ -5265,13 +5280,13 @@
         <v>278452</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>399</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>400</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>401</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>402</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>403</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5286,13 +5301,13 @@
         <v>59421</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>402</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>403</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>404</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>353</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>405</v>
       </c>
       <c r="H14" s="7">
         <v>104</v>
@@ -5301,10 +5316,10 @@
         <v>81648</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>406</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>370</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>407</v>
@@ -5456,13 +5471,13 @@
         <v>120730</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>172</v>
+        <v>423</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="M17" s="7">
         <v>303</v>
@@ -5471,13 +5486,13 @@
         <v>256397</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5492,13 +5507,13 @@
         <v>53188</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="H18" s="7">
         <v>82</v>
@@ -5507,13 +5522,13 @@
         <v>62657</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="M18" s="7">
         <v>139</v>
@@ -5522,13 +5537,13 @@
         <v>115844</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5584,7 +5599,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -5596,13 +5611,13 @@
         <v>522675</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="H20" s="7">
         <v>869</v>
@@ -5611,13 +5626,13 @@
         <v>645121</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="M20" s="7">
         <v>1414</v>
@@ -5626,13 +5641,13 @@
         <v>1167796</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5647,13 +5662,13 @@
         <v>271075</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>240</v>
+        <v>448</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="H21" s="7">
         <v>399</v>
@@ -5662,13 +5677,13 @@
         <v>294486</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>266</v>
+        <v>450</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="M21" s="7">
         <v>688</v>
@@ -5677,13 +5692,13 @@
         <v>565561</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5698,13 +5713,13 @@
         <v>171493</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>117</v>
+        <v>456</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>453</v>
+        <v>457</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="H22" s="7">
         <v>292</v>
@@ -5713,13 +5728,13 @@
         <v>209412</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>455</v>
+        <v>459</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>456</v>
+        <v>460</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>457</v>
+        <v>461</v>
       </c>
       <c r="M22" s="7">
         <v>463</v>
@@ -5728,13 +5743,13 @@
         <v>380905</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>459</v>
+        <v>463</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>460</v>
+        <v>464</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5746,7 +5761,7 @@
         <v>1005</v>
       </c>
       <c r="D23" s="7">
-        <v>965243</v>
+        <v>965244</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>40</v>
@@ -5802,13 +5817,13 @@
         <v>2493482</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>461</v>
+        <v>465</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>462</v>
+        <v>466</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>463</v>
+        <v>467</v>
       </c>
       <c r="H24" s="7">
         <v>3983</v>
@@ -5817,13 +5832,13 @@
         <v>2840962</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>464</v>
+        <v>468</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>465</v>
+        <v>469</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="M24" s="7">
         <v>6442</v>
@@ -5832,13 +5847,13 @@
         <v>5334444</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>467</v>
+        <v>471</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>468</v>
+        <v>472</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>469</v>
+        <v>473</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5853,13 +5868,13 @@
         <v>583303</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>470</v>
+        <v>474</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>471</v>
+        <v>475</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>472</v>
+        <v>476</v>
       </c>
       <c r="H25" s="7">
         <v>858</v>
@@ -5868,13 +5883,13 @@
         <v>614422</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>473</v>
+        <v>477</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>474</v>
+        <v>478</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>475</v>
+        <v>479</v>
       </c>
       <c r="M25" s="7">
         <v>1455</v>
@@ -5883,13 +5898,13 @@
         <v>1197725</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>476</v>
+        <v>480</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>477</v>
+        <v>481</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5904,13 +5919,13 @@
         <v>306503</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>479</v>
+        <v>483</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>480</v>
+        <v>484</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>481</v>
+        <v>485</v>
       </c>
       <c r="H26" s="7">
         <v>521</v>
@@ -5919,13 +5934,13 @@
         <v>377803</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>482</v>
+        <v>486</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>484</v>
+        <v>488</v>
       </c>
       <c r="M26" s="7">
         <v>837</v>
@@ -5934,13 +5949,13 @@
         <v>684306</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>485</v>
+        <v>489</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>483</v>
+        <v>490</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>486</v>
+        <v>491</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5996,7 +6011,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P05A07-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P05A07-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C8F3231B-0427-4DE1-99E2-9540B8BC67DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AB5783E1-59A5-4A31-B977-19870BBD24FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{677E2785-0FE0-4A8D-9875-0AD48EABB640}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{C75F53BC-3691-4733-9FB4-5BEFD1EB7130}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="798" uniqueCount="492">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="675" uniqueCount="417">
   <si>
     <t>Población según si en el barrio donde vive hay trafico intenso de vehículos de motor en 2012 (Tasa respuesta: 99,68%)</t>
   </si>
@@ -67,1453 +67,1228 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>&lt;2.000hab</t>
+    <t>&lt;10.000 hab</t>
   </si>
   <si>
     <t>Nada</t>
   </si>
   <si>
-    <t>75,06%</t>
-  </si>
-  <si>
-    <t>67,13%</t>
-  </si>
-  <si>
-    <t>82,57%</t>
-  </si>
-  <si>
-    <t>81,92%</t>
-  </si>
-  <si>
-    <t>72,81%</t>
-  </si>
-  <si>
-    <t>88,98%</t>
-  </si>
-  <si>
-    <t>78,47%</t>
-  </si>
-  <si>
-    <t>72,55%</t>
-  </si>
-  <si>
-    <t>83,65%</t>
+    <t>64,41%</t>
+  </si>
+  <si>
+    <t>60,49%</t>
+  </si>
+  <si>
+    <t>68,02%</t>
+  </si>
+  <si>
+    <t>62,87%</t>
+  </si>
+  <si>
+    <t>59,07%</t>
+  </si>
+  <si>
+    <t>66,55%</t>
+  </si>
+  <si>
+    <t>63,64%</t>
+  </si>
+  <si>
+    <t>61,07%</t>
+  </si>
+  <si>
+    <t>66,35%</t>
   </si>
   <si>
     <t>Algo</t>
   </si>
   <si>
-    <t>21,76%</t>
+    <t>30,35%</t>
+  </si>
+  <si>
+    <t>26,78%</t>
+  </si>
+  <si>
+    <t>33,86%</t>
+  </si>
+  <si>
+    <t>30,91%</t>
+  </si>
+  <si>
+    <t>27,34%</t>
+  </si>
+  <si>
+    <t>34,61%</t>
+  </si>
+  <si>
+    <t>30,63%</t>
+  </si>
+  <si>
+    <t>28,39%</t>
+  </si>
+  <si>
+    <t>33,09%</t>
+  </si>
+  <si>
+    <t>Mucho</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>7,31%</t>
+  </si>
+  <si>
+    <t>6,23%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>8,34%</t>
+  </si>
+  <si>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>7,25%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>55,96%</t>
+  </si>
+  <si>
+    <t>52,45%</t>
+  </si>
+  <si>
+    <t>59,24%</t>
+  </si>
+  <si>
+    <t>55,87%</t>
+  </si>
+  <si>
+    <t>52,64%</t>
+  </si>
+  <si>
+    <t>59,12%</t>
+  </si>
+  <si>
+    <t>55,92%</t>
+  </si>
+  <si>
+    <t>53,9%</t>
+  </si>
+  <si>
+    <t>58,23%</t>
+  </si>
+  <si>
+    <t>35,55%</t>
+  </si>
+  <si>
+    <t>32,51%</t>
+  </si>
+  <si>
+    <t>38,76%</t>
+  </si>
+  <si>
+    <t>34,0%</t>
+  </si>
+  <si>
+    <t>30,96%</t>
+  </si>
+  <si>
+    <t>37,28%</t>
+  </si>
+  <si>
+    <t>34,77%</t>
+  </si>
+  <si>
+    <t>32,52%</t>
+  </si>
+  <si>
+    <t>37,01%</t>
+  </si>
+  <si>
+    <t>8,49%</t>
+  </si>
+  <si>
+    <t>6,68%</t>
+  </si>
+  <si>
+    <t>10,47%</t>
+  </si>
+  <si>
+    <t>10,12%</t>
+  </si>
+  <si>
+    <t>8,1%</t>
+  </si>
+  <si>
+    <t>12,23%</t>
+  </si>
+  <si>
+    <t>9,31%</t>
+  </si>
+  <si>
+    <t>8,07%</t>
+  </si>
+  <si>
+    <t>10,93%</t>
+  </si>
+  <si>
+    <t>&gt;50.000 hab</t>
+  </si>
+  <si>
+    <t>51,98%</t>
+  </si>
+  <si>
+    <t>48,34%</t>
+  </si>
+  <si>
+    <t>55,79%</t>
+  </si>
+  <si>
+    <t>53,02%</t>
+  </si>
+  <si>
+    <t>49,41%</t>
+  </si>
+  <si>
+    <t>56,92%</t>
+  </si>
+  <si>
+    <t>52,5%</t>
+  </si>
+  <si>
+    <t>49,77%</t>
+  </si>
+  <si>
+    <t>54,95%</t>
+  </si>
+  <si>
+    <t>33,35%</t>
+  </si>
+  <si>
+    <t>29,84%</t>
+  </si>
+  <si>
+    <t>36,82%</t>
+  </si>
+  <si>
+    <t>31,79%</t>
+  </si>
+  <si>
+    <t>28,25%</t>
+  </si>
+  <si>
+    <t>35,27%</t>
+  </si>
+  <si>
+    <t>32,56%</t>
+  </si>
+  <si>
+    <t>30,33%</t>
+  </si>
+  <si>
+    <t>35,23%</t>
+  </si>
+  <si>
+    <t>14,67%</t>
+  </si>
+  <si>
+    <t>12,25%</t>
+  </si>
+  <si>
+    <t>17,41%</t>
   </si>
   <si>
     <t>15,19%</t>
   </si>
   <si>
-    <t>29,72%</t>
-  </si>
-  <si>
-    <t>15,0%</t>
-  </si>
-  <si>
-    <t>8,39%</t>
-  </si>
-  <si>
-    <t>24,09%</t>
+    <t>12,43%</t>
+  </si>
+  <si>
+    <t>17,65%</t>
+  </si>
+  <si>
+    <t>14,93%</t>
+  </si>
+  <si>
+    <t>13,23%</t>
+  </si>
+  <si>
+    <t>17,01%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>40,64%</t>
+  </si>
+  <si>
+    <t>37,43%</t>
+  </si>
+  <si>
+    <t>43,71%</t>
+  </si>
+  <si>
+    <t>40,09%</t>
+  </si>
+  <si>
+    <t>37,02%</t>
+  </si>
+  <si>
+    <t>43,13%</t>
+  </si>
+  <si>
+    <t>40,35%</t>
+  </si>
+  <si>
+    <t>38,11%</t>
+  </si>
+  <si>
+    <t>42,59%</t>
+  </si>
+  <si>
+    <t>38,48%</t>
+  </si>
+  <si>
+    <t>35,19%</t>
+  </si>
+  <si>
+    <t>41,76%</t>
+  </si>
+  <si>
+    <t>38,93%</t>
+  </si>
+  <si>
+    <t>36,11%</t>
+  </si>
+  <si>
+    <t>42,06%</t>
+  </si>
+  <si>
+    <t>38,72%</t>
+  </si>
+  <si>
+    <t>36,54%</t>
+  </si>
+  <si>
+    <t>40,84%</t>
+  </si>
+  <si>
+    <t>20,88%</t>
+  </si>
+  <si>
+    <t>18,41%</t>
+  </si>
+  <si>
+    <t>23,57%</t>
+  </si>
+  <si>
+    <t>20,97%</t>
+  </si>
+  <si>
+    <t>18,48%</t>
+  </si>
+  <si>
+    <t>23,93%</t>
+  </si>
+  <si>
+    <t>20,93%</t>
+  </si>
+  <si>
+    <t>19,11%</t>
+  </si>
+  <si>
+    <t>22,83%</t>
+  </si>
+  <si>
+    <t>52,57%</t>
+  </si>
+  <si>
+    <t>50,84%</t>
+  </si>
+  <si>
+    <t>54,26%</t>
+  </si>
+  <si>
+    <t>51,94%</t>
+  </si>
+  <si>
+    <t>50,03%</t>
+  </si>
+  <si>
+    <t>53,52%</t>
+  </si>
+  <si>
+    <t>52,25%</t>
+  </si>
+  <si>
+    <t>50,97%</t>
+  </si>
+  <si>
+    <t>53,57%</t>
+  </si>
+  <si>
+    <t>34,81%</t>
+  </si>
+  <si>
+    <t>33,28%</t>
+  </si>
+  <si>
+    <t>34,37%</t>
+  </si>
+  <si>
+    <t>32,88%</t>
+  </si>
+  <si>
+    <t>36,25%</t>
+  </si>
+  <si>
+    <t>34,59%</t>
+  </si>
+  <si>
+    <t>33,42%</t>
+  </si>
+  <si>
+    <t>35,75%</t>
+  </si>
+  <si>
+    <t>12,62%</t>
+  </si>
+  <si>
+    <t>11,58%</t>
+  </si>
+  <si>
+    <t>13,85%</t>
+  </si>
+  <si>
+    <t>13,68%</t>
+  </si>
+  <si>
+    <t>12,5%</t>
+  </si>
+  <si>
+    <t>14,94%</t>
+  </si>
+  <si>
+    <t>13,16%</t>
+  </si>
+  <si>
+    <t>12,3%</t>
+  </si>
+  <si>
+    <t>14,03%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si en el barrio donde vive hay trafico intenso de vehículos de motor en 2016 (Tasa respuesta: 99,51%)</t>
+  </si>
+  <si>
+    <t>83,44%</t>
+  </si>
+  <si>
+    <t>80,46%</t>
+  </si>
+  <si>
+    <t>86,27%</t>
+  </si>
+  <si>
+    <t>83,09%</t>
+  </si>
+  <si>
+    <t>80,16%</t>
+  </si>
+  <si>
+    <t>85,67%</t>
+  </si>
+  <si>
+    <t>83,26%</t>
+  </si>
+  <si>
+    <t>81,23%</t>
+  </si>
+  <si>
+    <t>85,35%</t>
+  </si>
+  <si>
+    <t>13,61%</t>
+  </si>
+  <si>
+    <t>11,04%</t>
+  </si>
+  <si>
+    <t>16,44%</t>
+  </si>
+  <si>
+    <t>12,14%</t>
+  </si>
+  <si>
+    <t>9,84%</t>
+  </si>
+  <si>
+    <t>14,79%</t>
+  </si>
+  <si>
+    <t>12,87%</t>
+  </si>
+  <si>
+    <t>11,18%</t>
+  </si>
+  <si>
+    <t>14,81%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>6,47%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>68,58%</t>
+  </si>
+  <si>
+    <t>65,44%</t>
+  </si>
+  <si>
+    <t>71,58%</t>
+  </si>
+  <si>
+    <t>70,1%</t>
+  </si>
+  <si>
+    <t>66,97%</t>
+  </si>
+  <si>
+    <t>72,83%</t>
+  </si>
+  <si>
+    <t>69,35%</t>
+  </si>
+  <si>
+    <t>67,23%</t>
+  </si>
+  <si>
+    <t>71,32%</t>
+  </si>
+  <si>
+    <t>25,05%</t>
+  </si>
+  <si>
+    <t>22,15%</t>
+  </si>
+  <si>
+    <t>27,97%</t>
+  </si>
+  <si>
+    <t>23,12%</t>
+  </si>
+  <si>
+    <t>20,5%</t>
+  </si>
+  <si>
+    <t>25,87%</t>
+  </si>
+  <si>
+    <t>24,08%</t>
+  </si>
+  <si>
+    <t>22,22%</t>
+  </si>
+  <si>
+    <t>26,14%</t>
+  </si>
+  <si>
+    <t>6,37%</t>
+  </si>
+  <si>
+    <t>4,92%</t>
+  </si>
+  <si>
+    <t>8,21%</t>
+  </si>
+  <si>
+    <t>6,78%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>8,44%</t>
+  </si>
+  <si>
+    <t>6,58%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>7,79%</t>
+  </si>
+  <si>
+    <t>59,67%</t>
+  </si>
+  <si>
+    <t>56,0%</t>
+  </si>
+  <si>
+    <t>63,41%</t>
+  </si>
+  <si>
+    <t>59,58%</t>
+  </si>
+  <si>
+    <t>56,02%</t>
+  </si>
+  <si>
+    <t>63,15%</t>
+  </si>
+  <si>
+    <t>59,63%</t>
+  </si>
+  <si>
+    <t>57,12%</t>
+  </si>
+  <si>
+    <t>62,15%</t>
+  </si>
+  <si>
+    <t>29,06%</t>
+  </si>
+  <si>
+    <t>25,91%</t>
+  </si>
+  <si>
+    <t>32,53%</t>
+  </si>
+  <si>
+    <t>22,79%</t>
+  </si>
+  <si>
+    <t>29,19%</t>
+  </si>
+  <si>
+    <t>27,57%</t>
+  </si>
+  <si>
+    <t>25,31%</t>
+  </si>
+  <si>
+    <t>29,87%</t>
+  </si>
+  <si>
+    <t>11,27%</t>
+  </si>
+  <si>
+    <t>9,15%</t>
+  </si>
+  <si>
+    <t>13,86%</t>
+  </si>
+  <si>
+    <t>14,28%</t>
+  </si>
+  <si>
+    <t>12,05%</t>
+  </si>
+  <si>
+    <t>17,12%</t>
+  </si>
+  <si>
+    <t>12,8%</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>14,58%</t>
+  </si>
+  <si>
+    <t>53,54%</t>
+  </si>
+  <si>
+    <t>50,36%</t>
+  </si>
+  <si>
+    <t>56,96%</t>
+  </si>
+  <si>
+    <t>50,47%</t>
+  </si>
+  <si>
+    <t>57,09%</t>
+  </si>
+  <si>
+    <t>53,73%</t>
+  </si>
+  <si>
+    <t>51,26%</t>
+  </si>
+  <si>
+    <t>55,9%</t>
+  </si>
+  <si>
+    <t>28,74%</t>
+  </si>
+  <si>
+    <t>25,75%</t>
+  </si>
+  <si>
+    <t>31,64%</t>
+  </si>
+  <si>
+    <t>27,08%</t>
+  </si>
+  <si>
+    <t>24,44%</t>
+  </si>
+  <si>
+    <t>30,13%</t>
+  </si>
+  <si>
+    <t>27,87%</t>
+  </si>
+  <si>
+    <t>25,95%</t>
+  </si>
+  <si>
+    <t>29,95%</t>
+  </si>
+  <si>
+    <t>17,72%</t>
+  </si>
+  <si>
+    <t>15,27%</t>
+  </si>
+  <si>
+    <t>20,24%</t>
+  </si>
+  <si>
+    <t>19,02%</t>
+  </si>
+  <si>
+    <t>16,72%</t>
+  </si>
+  <si>
+    <t>21,8%</t>
   </si>
   <si>
     <t>18,4%</t>
   </si>
   <si>
-    <t>13,6%</t>
-  </si>
-  <si>
-    <t>24,2%</t>
-  </si>
-  <si>
-    <t>Mucho</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>7,5%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>8,47%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>6,17%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>62,36%</t>
-  </si>
-  <si>
-    <t>58,49%</t>
-  </si>
-  <si>
-    <t>66,32%</t>
-  </si>
-  <si>
-    <t>59,2%</t>
-  </si>
-  <si>
-    <t>54,96%</t>
-  </si>
-  <si>
-    <t>63,22%</t>
-  </si>
-  <si>
-    <t>60,79%</t>
-  </si>
-  <si>
-    <t>57,84%</t>
-  </si>
-  <si>
-    <t>63,42%</t>
-  </si>
-  <si>
-    <t>32,01%</t>
-  </si>
-  <si>
-    <t>28,49%</t>
-  </si>
-  <si>
-    <t>35,96%</t>
-  </si>
-  <si>
-    <t>33,97%</t>
-  </si>
-  <si>
-    <t>30,17%</t>
-  </si>
-  <si>
-    <t>38,13%</t>
-  </si>
-  <si>
-    <t>32,99%</t>
-  </si>
-  <si>
-    <t>35,69%</t>
-  </si>
-  <si>
-    <t>5,63%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>7,89%</t>
-  </si>
-  <si>
-    <t>6,83%</t>
-  </si>
-  <si>
-    <t>5,12%</t>
-  </si>
-  <si>
-    <t>9,39%</t>
-  </si>
-  <si>
-    <t>6,23%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>7,82%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>55,96%</t>
-  </si>
-  <si>
-    <t>52,45%</t>
-  </si>
-  <si>
-    <t>59,24%</t>
-  </si>
-  <si>
-    <t>55,87%</t>
-  </si>
-  <si>
-    <t>52,64%</t>
-  </si>
-  <si>
-    <t>59,12%</t>
-  </si>
-  <si>
-    <t>55,92%</t>
-  </si>
-  <si>
-    <t>53,9%</t>
-  </si>
-  <si>
-    <t>58,23%</t>
-  </si>
-  <si>
-    <t>35,55%</t>
-  </si>
-  <si>
-    <t>32,51%</t>
-  </si>
-  <si>
-    <t>38,76%</t>
-  </si>
-  <si>
-    <t>34,0%</t>
-  </si>
-  <si>
-    <t>30,96%</t>
-  </si>
-  <si>
-    <t>37,28%</t>
-  </si>
-  <si>
-    <t>34,77%</t>
-  </si>
-  <si>
-    <t>32,52%</t>
-  </si>
-  <si>
-    <t>37,01%</t>
-  </si>
-  <si>
-    <t>8,49%</t>
-  </si>
-  <si>
-    <t>6,68%</t>
-  </si>
-  <si>
-    <t>10,47%</t>
-  </si>
-  <si>
-    <t>10,12%</t>
-  </si>
-  <si>
-    <t>8,1%</t>
-  </si>
-  <si>
-    <t>12,23%</t>
-  </si>
-  <si>
-    <t>9,31%</t>
-  </si>
-  <si>
-    <t>8,07%</t>
-  </si>
-  <si>
-    <t>10,93%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>51,98%</t>
-  </si>
-  <si>
-    <t>48,34%</t>
-  </si>
-  <si>
-    <t>55,79%</t>
-  </si>
-  <si>
-    <t>53,02%</t>
-  </si>
-  <si>
-    <t>49,41%</t>
-  </si>
-  <si>
-    <t>56,92%</t>
-  </si>
-  <si>
-    <t>52,5%</t>
-  </si>
-  <si>
-    <t>49,77%</t>
-  </si>
-  <si>
-    <t>54,95%</t>
-  </si>
-  <si>
-    <t>33,35%</t>
-  </si>
-  <si>
-    <t>29,84%</t>
-  </si>
-  <si>
-    <t>36,82%</t>
-  </si>
-  <si>
-    <t>31,79%</t>
-  </si>
-  <si>
-    <t>28,25%</t>
-  </si>
-  <si>
-    <t>35,27%</t>
-  </si>
-  <si>
-    <t>32,56%</t>
-  </si>
-  <si>
-    <t>30,33%</t>
-  </si>
-  <si>
-    <t>35,23%</t>
-  </si>
-  <si>
-    <t>14,67%</t>
-  </si>
-  <si>
-    <t>12,25%</t>
-  </si>
-  <si>
-    <t>17,41%</t>
-  </si>
-  <si>
-    <t>12,43%</t>
-  </si>
-  <si>
-    <t>17,65%</t>
-  </si>
-  <si>
-    <t>14,93%</t>
-  </si>
-  <si>
-    <t>13,23%</t>
-  </si>
-  <si>
-    <t>17,01%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>40,64%</t>
-  </si>
-  <si>
-    <t>37,43%</t>
-  </si>
-  <si>
-    <t>43,71%</t>
-  </si>
-  <si>
-    <t>40,09%</t>
-  </si>
-  <si>
-    <t>37,02%</t>
-  </si>
-  <si>
-    <t>43,13%</t>
-  </si>
-  <si>
-    <t>40,35%</t>
-  </si>
-  <si>
-    <t>38,11%</t>
-  </si>
-  <si>
-    <t>42,59%</t>
-  </si>
-  <si>
-    <t>38,48%</t>
-  </si>
-  <si>
-    <t>35,19%</t>
-  </si>
-  <si>
-    <t>41,76%</t>
-  </si>
-  <si>
-    <t>38,93%</t>
-  </si>
-  <si>
-    <t>36,11%</t>
-  </si>
-  <si>
-    <t>42,06%</t>
-  </si>
-  <si>
-    <t>38,72%</t>
-  </si>
-  <si>
-    <t>36,54%</t>
-  </si>
-  <si>
-    <t>40,84%</t>
-  </si>
-  <si>
-    <t>20,88%</t>
-  </si>
-  <si>
-    <t>18,41%</t>
-  </si>
-  <si>
-    <t>23,57%</t>
-  </si>
-  <si>
-    <t>20,97%</t>
-  </si>
-  <si>
-    <t>18,48%</t>
-  </si>
-  <si>
-    <t>23,93%</t>
-  </si>
-  <si>
-    <t>20,93%</t>
-  </si>
-  <si>
-    <t>19,11%</t>
-  </si>
-  <si>
-    <t>22,83%</t>
-  </si>
-  <si>
-    <t>52,57%</t>
-  </si>
-  <si>
-    <t>50,84%</t>
-  </si>
-  <si>
-    <t>54,26%</t>
-  </si>
-  <si>
-    <t>51,94%</t>
-  </si>
-  <si>
-    <t>50,03%</t>
-  </si>
-  <si>
-    <t>53,52%</t>
-  </si>
-  <si>
-    <t>52,25%</t>
-  </si>
-  <si>
-    <t>50,97%</t>
-  </si>
-  <si>
-    <t>53,57%</t>
-  </si>
-  <si>
-    <t>34,81%</t>
-  </si>
-  <si>
-    <t>33,28%</t>
-  </si>
-  <si>
-    <t>34,37%</t>
-  </si>
-  <si>
-    <t>32,88%</t>
-  </si>
-  <si>
-    <t>36,25%</t>
-  </si>
-  <si>
-    <t>34,59%</t>
-  </si>
-  <si>
-    <t>33,42%</t>
-  </si>
-  <si>
-    <t>35,75%</t>
-  </si>
-  <si>
-    <t>12,62%</t>
-  </si>
-  <si>
-    <t>11,58%</t>
-  </si>
-  <si>
-    <t>13,85%</t>
-  </si>
-  <si>
-    <t>13,68%</t>
-  </si>
-  <si>
-    <t>12,5%</t>
-  </si>
-  <si>
-    <t>14,94%</t>
-  </si>
-  <si>
-    <t>13,16%</t>
-  </si>
-  <si>
-    <t>12,3%</t>
-  </si>
-  <si>
-    <t>14,03%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si en el barrio donde vive hay trafico intenso de vehículos de motor en 2016 (Tasa respuesta: 99,51%)</t>
-  </si>
-  <si>
-    <t>90,7%</t>
-  </si>
-  <si>
-    <t>84,47%</t>
-  </si>
-  <si>
-    <t>94,78%</t>
-  </si>
-  <si>
-    <t>94,88%</t>
-  </si>
-  <si>
-    <t>90,06%</t>
-  </si>
-  <si>
-    <t>97,56%</t>
+    <t>16,7%</t>
+  </si>
+  <si>
+    <t>20,34%</t>
+  </si>
+  <si>
+    <t>65,39%</t>
+  </si>
+  <si>
+    <t>63,56%</t>
+  </si>
+  <si>
+    <t>66,98%</t>
+  </si>
+  <si>
+    <t>65,46%</t>
+  </si>
+  <si>
+    <t>63,84%</t>
+  </si>
+  <si>
+    <t>67,0%</t>
+  </si>
+  <si>
+    <t>65,42%</t>
+  </si>
+  <si>
+    <t>64,26%</t>
+  </si>
+  <si>
+    <t>66,63%</t>
+  </si>
+  <si>
+    <t>24,69%</t>
+  </si>
+  <si>
+    <t>23,34%</t>
+  </si>
+  <si>
+    <t>26,25%</t>
+  </si>
+  <si>
+    <t>22,88%</t>
+  </si>
+  <si>
+    <t>21,49%</t>
+  </si>
+  <si>
+    <t>24,29%</t>
+  </si>
+  <si>
+    <t>23,76%</t>
+  </si>
+  <si>
+    <t>22,7%</t>
+  </si>
+  <si>
+    <t>24,89%</t>
+  </si>
+  <si>
+    <t>9,92%</t>
+  </si>
+  <si>
+    <t>8,97%</t>
+  </si>
+  <si>
+    <t>11,06%</t>
+  </si>
+  <si>
+    <t>11,67%</t>
+  </si>
+  <si>
+    <t>10,62%</t>
+  </si>
+  <si>
+    <t>12,93%</t>
+  </si>
+  <si>
+    <t>10,82%</t>
+  </si>
+  <si>
+    <t>10,04%</t>
+  </si>
+  <si>
+    <t>11,59%</t>
+  </si>
+  <si>
+    <t>Población según si en el barrio donde vive hay trafico intenso de vehículos de motor en 2023 (Tasa respuesta: 99,9%)</t>
+  </si>
+  <si>
+    <t>89,31%</t>
+  </si>
+  <si>
+    <t>86,45%</t>
+  </si>
+  <si>
+    <t>91,53%</t>
+  </si>
+  <si>
+    <t>90,73%</t>
+  </si>
+  <si>
+    <t>88,62%</t>
+  </si>
+  <si>
+    <t>93,04%</t>
+  </si>
+  <si>
+    <t>90,07%</t>
+  </si>
+  <si>
+    <t>88,36%</t>
+  </si>
+  <si>
+    <t>91,68%</t>
+  </si>
+  <si>
+    <t>7,36%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>9,71%</t>
+  </si>
+  <si>
+    <t>6,16%</t>
+  </si>
+  <si>
+    <t>7,84%</t>
+  </si>
+  <si>
+    <t>6,72%</t>
+  </si>
+  <si>
+    <t>5,38%</t>
+  </si>
+  <si>
+    <t>7,94%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>85,19%</t>
+  </si>
+  <si>
+    <t>80,47%</t>
   </si>
   <si>
     <t>92,76%</t>
   </si>
   <si>
-    <t>88,91%</t>
-  </si>
-  <si>
-    <t>95,62%</t>
-  </si>
-  <si>
-    <t>8,41%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>14,61%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>8,92%</t>
-  </si>
-  <si>
-    <t>6,4%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>10,23%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
+    <t>78,25%</t>
+  </si>
+  <si>
+    <t>75,9%</t>
+  </si>
+  <si>
+    <t>80,63%</t>
+  </si>
+  <si>
+    <t>82,1%</t>
+  </si>
+  <si>
+    <t>79,16%</t>
+  </si>
+  <si>
+    <t>88,15%</t>
+  </si>
+  <si>
+    <t>9,97%</t>
+  </si>
+  <si>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>13,32%</t>
+  </si>
+  <si>
+    <t>14,04%</t>
+  </si>
+  <si>
+    <t>12,27%</t>
+  </si>
+  <si>
+    <t>16,33%</t>
+  </si>
+  <si>
+    <t>11,78%</t>
+  </si>
+  <si>
+    <t>13,99%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>7,7%</t>
+  </si>
+  <si>
+    <t>6,08%</t>
+  </si>
+  <si>
+    <t>9,34%</t>
+  </si>
+  <si>
+    <t>6,12%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>7,49%</t>
+  </si>
+  <si>
+    <t>74,6%</t>
+  </si>
+  <si>
+    <t>70,64%</t>
+  </si>
+  <si>
+    <t>77,79%</t>
+  </si>
+  <si>
+    <t>82,07%</t>
+  </si>
+  <si>
+    <t>75,92%</t>
+  </si>
+  <si>
+    <t>90,67%</t>
+  </si>
+  <si>
+    <t>78,86%</t>
+  </si>
+  <si>
+    <t>74,96%</t>
+  </si>
+  <si>
+    <t>86,49%</t>
+  </si>
+  <si>
+    <t>18,18%</t>
+  </si>
+  <si>
+    <t>15,35%</t>
+  </si>
+  <si>
+    <t>21,86%</t>
+  </si>
+  <si>
+    <t>11,79%</t>
+  </si>
+  <si>
+    <t>5,99%</t>
+  </si>
+  <si>
+    <t>16,11%</t>
+  </si>
+  <si>
+    <t>14,54%</t>
+  </si>
+  <si>
+    <t>9,52%</t>
+  </si>
+  <si>
+    <t>17,49%</t>
+  </si>
+  <si>
+    <t>7,22%</t>
+  </si>
+  <si>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>9,62%</t>
+  </si>
+  <si>
+    <t>6,14%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>8,79%</t>
+  </si>
+  <si>
+    <t>6,6%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>8,33%</t>
+  </si>
+  <si>
+    <t>54,77%</t>
+  </si>
+  <si>
+    <t>50,85%</t>
+  </si>
+  <si>
+    <t>58,01%</t>
+  </si>
+  <si>
+    <t>58,79%</t>
+  </si>
+  <si>
+    <t>54,86%</t>
+  </si>
+  <si>
+    <t>66,27%</t>
+  </si>
+  <si>
+    <t>56,95%</t>
+  </si>
+  <si>
+    <t>54,11%</t>
+  </si>
+  <si>
+    <t>61,72%</t>
+  </si>
+  <si>
+    <t>27,47%</t>
+  </si>
+  <si>
+    <t>24,51%</t>
+  </si>
+  <si>
+    <t>30,49%</t>
+  </si>
+  <si>
+    <t>23,98%</t>
+  </si>
+  <si>
+    <t>19,53%</t>
+  </si>
+  <si>
+    <t>26,84%</t>
+  </si>
+  <si>
+    <t>25,58%</t>
+  </si>
+  <si>
+    <t>22,66%</t>
+  </si>
+  <si>
+    <t>27,92%</t>
+  </si>
+  <si>
+    <t>17,76%</t>
+  </si>
+  <si>
+    <t>15,18%</t>
+  </si>
+  <si>
+    <t>20,75%</t>
+  </si>
+  <si>
+    <t>17,23%</t>
+  </si>
+  <si>
+    <t>14,13%</t>
+  </si>
+  <si>
+    <t>17,47%</t>
+  </si>
+  <si>
+    <t>15,33%</t>
+  </si>
+  <si>
+    <t>19,31%</t>
+  </si>
+  <si>
+    <t>75,64%</t>
+  </si>
+  <si>
+    <t>72,98%</t>
+  </si>
+  <si>
+    <t>80,88%</t>
+  </si>
+  <si>
+    <t>73,79%</t>
+  </si>
+  <si>
+    <t>79,65%</t>
+  </si>
+  <si>
+    <t>75,78%</t>
+  </si>
+  <si>
+    <t>73,97%</t>
   </si>
   <si>
     <t>78,65%</t>
   </si>
   <si>
-    <t>85,16%</t>
-  </si>
-  <si>
-    <t>80,68%</t>
-  </si>
-  <si>
-    <t>77,1%</t>
-  </si>
-  <si>
-    <t>83,89%</t>
-  </si>
-  <si>
-    <t>81,3%</t>
-  </si>
-  <si>
-    <t>78,79%</t>
-  </si>
-  <si>
-    <t>83,31%</t>
-  </si>
-  <si>
-    <t>14,7%</t>
-  </si>
-  <si>
-    <t>11,81%</t>
-  </si>
-  <si>
-    <t>17,79%</t>
-  </si>
-  <si>
-    <t>13,73%</t>
-  </si>
-  <si>
-    <t>10,85%</t>
-  </si>
-  <si>
-    <t>16,63%</t>
-  </si>
-  <si>
-    <t>14,21%</t>
-  </si>
-  <si>
-    <t>12,47%</t>
-  </si>
-  <si>
-    <t>16,58%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>5,38%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>7,88%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>68,58%</t>
-  </si>
-  <si>
-    <t>65,44%</t>
-  </si>
-  <si>
-    <t>71,58%</t>
-  </si>
-  <si>
-    <t>70,1%</t>
-  </si>
-  <si>
-    <t>66,97%</t>
-  </si>
-  <si>
-    <t>72,83%</t>
-  </si>
-  <si>
-    <t>69,35%</t>
-  </si>
-  <si>
-    <t>67,23%</t>
-  </si>
-  <si>
-    <t>71,32%</t>
-  </si>
-  <si>
-    <t>25,05%</t>
-  </si>
-  <si>
-    <t>22,15%</t>
-  </si>
-  <si>
-    <t>27,97%</t>
-  </si>
-  <si>
-    <t>23,12%</t>
-  </si>
-  <si>
-    <t>20,5%</t>
-  </si>
-  <si>
-    <t>25,87%</t>
-  </si>
-  <si>
-    <t>24,08%</t>
-  </si>
-  <si>
-    <t>22,22%</t>
-  </si>
-  <si>
-    <t>26,14%</t>
-  </si>
-  <si>
-    <t>6,37%</t>
-  </si>
-  <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>8,21%</t>
-  </si>
-  <si>
-    <t>6,78%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>8,44%</t>
-  </si>
-  <si>
-    <t>6,58%</t>
-  </si>
-  <si>
-    <t>7,79%</t>
-  </si>
-  <si>
-    <t>59,67%</t>
-  </si>
-  <si>
-    <t>56,0%</t>
-  </si>
-  <si>
-    <t>63,41%</t>
-  </si>
-  <si>
-    <t>59,58%</t>
-  </si>
-  <si>
-    <t>56,02%</t>
-  </si>
-  <si>
-    <t>63,15%</t>
-  </si>
-  <si>
-    <t>59,63%</t>
-  </si>
-  <si>
-    <t>57,12%</t>
-  </si>
-  <si>
-    <t>62,15%</t>
-  </si>
-  <si>
-    <t>29,06%</t>
-  </si>
-  <si>
-    <t>25,91%</t>
-  </si>
-  <si>
-    <t>32,53%</t>
-  </si>
-  <si>
-    <t>22,79%</t>
-  </si>
-  <si>
-    <t>29,19%</t>
-  </si>
-  <si>
-    <t>27,57%</t>
-  </si>
-  <si>
-    <t>25,31%</t>
-  </si>
-  <si>
-    <t>29,87%</t>
-  </si>
-  <si>
-    <t>11,27%</t>
-  </si>
-  <si>
-    <t>9,15%</t>
-  </si>
-  <si>
-    <t>13,86%</t>
-  </si>
-  <si>
-    <t>14,28%</t>
-  </si>
-  <si>
-    <t>12,05%</t>
-  </si>
-  <si>
-    <t>17,12%</t>
-  </si>
-  <si>
-    <t>12,8%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>14,58%</t>
-  </si>
-  <si>
-    <t>53,54%</t>
-  </si>
-  <si>
-    <t>50,36%</t>
-  </si>
-  <si>
-    <t>56,96%</t>
-  </si>
-  <si>
-    <t>50,47%</t>
-  </si>
-  <si>
-    <t>57,09%</t>
-  </si>
-  <si>
-    <t>53,73%</t>
-  </si>
-  <si>
-    <t>51,26%</t>
-  </si>
-  <si>
-    <t>55,9%</t>
-  </si>
-  <si>
-    <t>28,74%</t>
-  </si>
-  <si>
-    <t>25,75%</t>
-  </si>
-  <si>
-    <t>31,64%</t>
-  </si>
-  <si>
-    <t>27,08%</t>
-  </si>
-  <si>
-    <t>24,44%</t>
-  </si>
-  <si>
-    <t>30,13%</t>
-  </si>
-  <si>
-    <t>27,87%</t>
-  </si>
-  <si>
-    <t>25,95%</t>
-  </si>
-  <si>
-    <t>29,95%</t>
-  </si>
-  <si>
-    <t>17,72%</t>
-  </si>
-  <si>
-    <t>15,27%</t>
-  </si>
-  <si>
-    <t>20,24%</t>
-  </si>
-  <si>
-    <t>19,02%</t>
-  </si>
-  <si>
-    <t>16,72%</t>
-  </si>
-  <si>
-    <t>21,8%</t>
-  </si>
-  <si>
-    <t>16,7%</t>
-  </si>
-  <si>
-    <t>20,34%</t>
-  </si>
-  <si>
-    <t>65,39%</t>
-  </si>
-  <si>
-    <t>63,56%</t>
-  </si>
-  <si>
-    <t>66,98%</t>
-  </si>
-  <si>
-    <t>65,46%</t>
-  </si>
-  <si>
-    <t>63,84%</t>
-  </si>
-  <si>
-    <t>67,0%</t>
-  </si>
-  <si>
-    <t>65,42%</t>
-  </si>
-  <si>
-    <t>64,26%</t>
-  </si>
-  <si>
-    <t>66,63%</t>
-  </si>
-  <si>
-    <t>24,69%</t>
-  </si>
-  <si>
-    <t>23,34%</t>
-  </si>
-  <si>
-    <t>26,25%</t>
-  </si>
-  <si>
-    <t>22,88%</t>
-  </si>
-  <si>
-    <t>21,49%</t>
-  </si>
-  <si>
-    <t>24,29%</t>
-  </si>
-  <si>
-    <t>23,76%</t>
-  </si>
-  <si>
-    <t>22,7%</t>
-  </si>
-  <si>
-    <t>24,89%</t>
-  </si>
-  <si>
-    <t>9,92%</t>
-  </si>
-  <si>
-    <t>8,97%</t>
-  </si>
-  <si>
-    <t>11,06%</t>
-  </si>
-  <si>
-    <t>11,67%</t>
-  </si>
-  <si>
-    <t>10,62%</t>
-  </si>
-  <si>
-    <t>12,93%</t>
-  </si>
-  <si>
-    <t>10,82%</t>
-  </si>
-  <si>
-    <t>10,04%</t>
-  </si>
-  <si>
-    <t>11,59%</t>
-  </si>
-  <si>
-    <t>Población según si en el barrio donde vive hay trafico intenso de vehículos de motor en 2023 (Tasa respuesta: 99,9%)</t>
-  </si>
-  <si>
-    <t>93,93%</t>
-  </si>
-  <si>
-    <t>88,04%</t>
-  </si>
-  <si>
-    <t>97,03%</t>
-  </si>
-  <si>
-    <t>95,37%</t>
-  </si>
-  <si>
-    <t>86,37%</t>
-  </si>
-  <si>
-    <t>98,24%</t>
-  </si>
-  <si>
-    <t>94,74%</t>
-  </si>
-  <si>
-    <t>97,06%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>6,67%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>8,65%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>11,79%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>7,14%</t>
-  </si>
-  <si>
-    <t>88,13%</t>
-  </si>
-  <si>
-    <t>84,89%</t>
-  </si>
-  <si>
-    <t>90,73%</t>
-  </si>
-  <si>
-    <t>89,29%</t>
-  </si>
-  <si>
-    <t>86,98%</t>
-  </si>
-  <si>
-    <t>91,35%</t>
-  </si>
-  <si>
-    <t>88,74%</t>
-  </si>
-  <si>
-    <t>86,78%</t>
-  </si>
-  <si>
-    <t>90,37%</t>
-  </si>
-  <si>
-    <t>8,46%</t>
-  </si>
-  <si>
-    <t>6,43%</t>
-  </si>
-  <si>
-    <t>11,3%</t>
-  </si>
-  <si>
-    <t>7,34%</t>
-  </si>
-  <si>
-    <t>5,74%</t>
-  </si>
-  <si>
-    <t>9,37%</t>
-  </si>
-  <si>
-    <t>7,86%</t>
-  </si>
-  <si>
-    <t>6,51%</t>
-  </si>
-  <si>
-    <t>9,47%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>81,99%</t>
-  </si>
-  <si>
-    <t>79,18%</t>
-  </si>
-  <si>
-    <t>85,45%</t>
-  </si>
-  <si>
-    <t>78,05%</t>
-  </si>
-  <si>
-    <t>75,6%</t>
-  </si>
-  <si>
-    <t>80,53%</t>
-  </si>
-  <si>
-    <t>80,0%</t>
-  </si>
-  <si>
-    <t>77,93%</t>
-  </si>
-  <si>
-    <t>82,18%</t>
-  </si>
-  <si>
-    <t>12,29%</t>
-  </si>
-  <si>
-    <t>9,57%</t>
-  </si>
-  <si>
-    <t>14,92%</t>
-  </si>
-  <si>
-    <t>14,24%</t>
-  </si>
-  <si>
-    <t>12,4%</t>
-  </si>
-  <si>
-    <t>13,27%</t>
-  </si>
-  <si>
-    <t>11,65%</t>
-  </si>
-  <si>
-    <t>15,12%</t>
-  </si>
-  <si>
-    <t>5,72%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>7,41%</t>
-  </si>
-  <si>
-    <t>7,71%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>9,38%</t>
-  </si>
-  <si>
-    <t>6,72%</t>
-  </si>
-  <si>
-    <t>5,56%</t>
-  </si>
-  <si>
-    <t>8,03%</t>
-  </si>
-  <si>
-    <t>74,08%</t>
-  </si>
-  <si>
-    <t>70,28%</t>
-  </si>
-  <si>
-    <t>77,2%</t>
-  </si>
-  <si>
-    <t>79,02%</t>
-  </si>
-  <si>
-    <t>74,86%</t>
-  </si>
-  <si>
-    <t>86,2%</t>
-  </si>
-  <si>
-    <t>76,77%</t>
-  </si>
-  <si>
-    <t>73,97%</t>
-  </si>
-  <si>
-    <t>81,87%</t>
-  </si>
-  <si>
-    <t>18,62%</t>
-  </si>
-  <si>
-    <t>15,81%</t>
-  </si>
-  <si>
-    <t>22,21%</t>
-  </si>
-  <si>
-    <t>13,81%</t>
-  </si>
-  <si>
-    <t>9,26%</t>
-  </si>
-  <si>
-    <t>16,85%</t>
-  </si>
-  <si>
-    <t>16,0%</t>
+    <t>15,85%</t>
+  </si>
+  <si>
+    <t>12,55%</t>
+  </si>
+  <si>
+    <t>17,73%</t>
+  </si>
+  <si>
+    <t>14,87%</t>
   </si>
   <si>
     <t>12,39%</t>
   </si>
   <si>
-    <t>18,28%</t>
-  </si>
-  <si>
-    <t>7,3%</t>
-  </si>
-  <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>9,66%</t>
-  </si>
-  <si>
-    <t>7,17%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>9,45%</t>
-  </si>
-  <si>
-    <t>7,23%</t>
-  </si>
-  <si>
-    <t>5,66%</t>
+    <t>16,36%</t>
+  </si>
+  <si>
+    <t>15,34%</t>
+  </si>
+  <si>
+    <t>13,44%</t>
+  </si>
+  <si>
+    <t>16,56%</t>
+  </si>
+  <si>
+    <t>8,51%</t>
+  </si>
+  <si>
+    <t>6,7%</t>
+  </si>
+  <si>
+    <t>9,87%</t>
+  </si>
+  <si>
+    <t>9,22%</t>
+  </si>
+  <si>
+    <t>7,6%</t>
+  </si>
+  <si>
+    <t>10,34%</t>
   </si>
   <si>
     <t>8,88%</t>
   </si>
   <si>
-    <t>54,15%</t>
-  </si>
-  <si>
-    <t>50,29%</t>
-  </si>
-  <si>
-    <t>57,41%</t>
-  </si>
-  <si>
-    <t>56,15%</t>
-  </si>
-  <si>
-    <t>53,17%</t>
-  </si>
-  <si>
-    <t>58,89%</t>
-  </si>
-  <si>
-    <t>55,23%</t>
-  </si>
-  <si>
-    <t>53,0%</t>
-  </si>
-  <si>
-    <t>57,7%</t>
-  </si>
-  <si>
-    <t>28,08%</t>
-  </si>
-  <si>
-    <t>25,0%</t>
-  </si>
-  <si>
-    <t>31,06%</t>
-  </si>
-  <si>
-    <t>25,63%</t>
-  </si>
-  <si>
-    <t>23,25%</t>
-  </si>
-  <si>
-    <t>28,33%</t>
-  </si>
-  <si>
-    <t>26,75%</t>
-  </si>
-  <si>
-    <t>24,66%</t>
-  </si>
-  <si>
-    <t>28,77%</t>
-  </si>
-  <si>
-    <t>17,77%</t>
-  </si>
-  <si>
-    <t>15,33%</t>
-  </si>
-  <si>
-    <t>20,58%</t>
-  </si>
-  <si>
-    <t>18,23%</t>
-  </si>
-  <si>
-    <t>16,24%</t>
-  </si>
-  <si>
-    <t>20,6%</t>
-  </si>
-  <si>
-    <t>18,02%</t>
-  </si>
-  <si>
-    <t>16,37%</t>
-  </si>
-  <si>
-    <t>19,72%</t>
-  </si>
-  <si>
-    <t>73,7%</t>
-  </si>
-  <si>
-    <t>71,9%</t>
-  </si>
-  <si>
-    <t>75,55%</t>
-  </si>
-  <si>
-    <t>74,11%</t>
-  </si>
-  <si>
-    <t>72,56%</t>
-  </si>
-  <si>
-    <t>76,53%</t>
-  </si>
-  <si>
-    <t>73,92%</t>
-  </si>
-  <si>
-    <t>72,8%</t>
-  </si>
-  <si>
-    <t>75,53%</t>
-  </si>
-  <si>
-    <t>17,24%</t>
-  </si>
-  <si>
-    <t>15,87%</t>
-  </si>
-  <si>
-    <t>18,79%</t>
-  </si>
-  <si>
-    <t>16,03%</t>
-  </si>
-  <si>
-    <t>14,43%</t>
-  </si>
-  <si>
-    <t>17,33%</t>
-  </si>
-  <si>
-    <t>16,6%</t>
-  </si>
-  <si>
-    <t>15,52%</t>
-  </si>
-  <si>
-    <t>17,52%</t>
-  </si>
-  <si>
-    <t>9,06%</t>
-  </si>
-  <si>
-    <t>7,99%</t>
-  </si>
-  <si>
-    <t>10,3%</t>
-  </si>
-  <si>
-    <t>9,86%</t>
-  </si>
-  <si>
-    <t>8,71%</t>
-  </si>
-  <si>
-    <t>10,96%</t>
-  </si>
-  <si>
-    <t>9,48%</t>
-  </si>
-  <si>
-    <t>8,78%</t>
-  </si>
-  <si>
-    <t>10,27%</t>
+    <t>7,81%</t>
+  </si>
+  <si>
+    <t>9,78%</t>
   </si>
 </sst>
 </file>
@@ -1925,8 +1700,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF7B1F2C-B02B-418B-B245-0010C65D3909}">
-  <dimension ref="A1:Q28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26D42974-76B7-48D6-BF4C-21A4575F95B1}">
+  <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2043,10 +1818,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>89</v>
+        <v>427</v>
       </c>
       <c r="D4" s="7">
-        <v>85187</v>
+        <v>451651</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -2058,10 +1833,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>82</v>
+        <v>406</v>
       </c>
       <c r="I4" s="7">
-        <v>91677</v>
+        <v>435804</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -2073,10 +1848,10 @@
         <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>171</v>
+        <v>833</v>
       </c>
       <c r="N4" s="7">
-        <v>176864</v>
+        <v>887455</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -2094,10 +1869,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>27</v>
+        <v>209</v>
       </c>
       <c r="D5" s="7">
-        <v>24692</v>
+        <v>212830</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -2109,10 +1884,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>14</v>
+        <v>199</v>
       </c>
       <c r="I5" s="7">
-        <v>16791</v>
+        <v>214263</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -2124,10 +1899,10 @@
         <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>41</v>
+        <v>408</v>
       </c>
       <c r="N5" s="7">
-        <v>41483</v>
+        <v>427094</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -2145,10 +1920,10 @@
         <v>30</v>
       </c>
       <c r="C6" s="7">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="D6" s="7">
-        <v>3615</v>
+        <v>36718</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>31</v>
@@ -2160,10 +1935,10 @@
         <v>33</v>
       </c>
       <c r="H6" s="7">
-        <v>3</v>
+        <v>42</v>
       </c>
       <c r="I6" s="7">
-        <v>3438</v>
+        <v>43156</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>34</v>
@@ -2175,10 +1950,10 @@
         <v>36</v>
       </c>
       <c r="M6" s="7">
-        <v>7</v>
+        <v>78</v>
       </c>
       <c r="N6" s="7">
-        <v>7053</v>
+        <v>79873</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>37</v>
@@ -2196,10 +1971,10 @@
         <v>3</v>
       </c>
       <c r="C7" s="7">
-        <v>120</v>
+        <v>672</v>
       </c>
       <c r="D7" s="7">
-        <v>113495</v>
+        <v>701199</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>40</v>
@@ -2211,10 +1986,10 @@
         <v>40</v>
       </c>
       <c r="H7" s="7">
-        <v>99</v>
+        <v>647</v>
       </c>
       <c r="I7" s="7">
-        <v>111905</v>
+        <v>693223</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>40</v>
@@ -2226,10 +2001,10 @@
         <v>40</v>
       </c>
       <c r="M7" s="7">
-        <v>219</v>
+        <v>1319</v>
       </c>
       <c r="N7" s="7">
-        <v>225400</v>
+        <v>1394422</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>40</v>
@@ -2249,10 +2024,10 @@
         <v>10</v>
       </c>
       <c r="C8" s="7">
-        <v>338</v>
+        <v>526</v>
       </c>
       <c r="D8" s="7">
-        <v>366464</v>
+        <v>566756</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>42</v>
@@ -2264,10 +2039,10 @@
         <v>44</v>
       </c>
       <c r="H8" s="7">
-        <v>324</v>
+        <v>519</v>
       </c>
       <c r="I8" s="7">
-        <v>344127</v>
+        <v>573723</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>45</v>
@@ -2279,10 +2054,10 @@
         <v>47</v>
       </c>
       <c r="M8" s="7">
-        <v>662</v>
+        <v>1045</v>
       </c>
       <c r="N8" s="7">
-        <v>710591</v>
+        <v>1140479</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>48</v>
@@ -2300,10 +2075,10 @@
         <v>20</v>
       </c>
       <c r="C9" s="7">
-        <v>182</v>
+        <v>328</v>
       </c>
       <c r="D9" s="7">
-        <v>188138</v>
+        <v>360086</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>51</v>
@@ -2315,10 +2090,10 @@
         <v>53</v>
       </c>
       <c r="H9" s="7">
-        <v>185</v>
+        <v>323</v>
       </c>
       <c r="I9" s="7">
-        <v>197473</v>
+        <v>349130</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>54</v>
@@ -2330,19 +2105,19 @@
         <v>56</v>
       </c>
       <c r="M9" s="7">
-        <v>367</v>
+        <v>651</v>
       </c>
       <c r="N9" s="7">
-        <v>385611</v>
+        <v>709216</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>57</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -2351,49 +2126,49 @@
         <v>30</v>
       </c>
       <c r="C10" s="7">
-        <v>32</v>
+        <v>77</v>
       </c>
       <c r="D10" s="7">
-        <v>33102</v>
+        <v>85968</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H10" s="7">
-        <v>39</v>
+        <v>93</v>
       </c>
       <c r="I10" s="7">
-        <v>39718</v>
+        <v>103965</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="M10" s="7">
-        <v>71</v>
+        <v>170</v>
       </c>
       <c r="N10" s="7">
-        <v>72820</v>
+        <v>189933</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2402,10 +2177,10 @@
         <v>3</v>
       </c>
       <c r="C11" s="7">
-        <v>552</v>
+        <v>931</v>
       </c>
       <c r="D11" s="7">
-        <v>587704</v>
+        <v>1012810</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>40</v>
@@ -2417,10 +2192,10 @@
         <v>40</v>
       </c>
       <c r="H11" s="7">
-        <v>548</v>
+        <v>935</v>
       </c>
       <c r="I11" s="7">
-        <v>581318</v>
+        <v>1026818</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>40</v>
@@ -2432,10 +2207,10 @@
         <v>40</v>
       </c>
       <c r="M11" s="7">
-        <v>1100</v>
+        <v>1866</v>
       </c>
       <c r="N11" s="7">
-        <v>1169022</v>
+        <v>2039628</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>40</v>
@@ -2449,55 +2224,55 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C12" s="7">
-        <v>526</v>
+        <v>358</v>
       </c>
       <c r="D12" s="7">
-        <v>566756</v>
+        <v>393780</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H12" s="7">
-        <v>519</v>
+        <v>372</v>
       </c>
       <c r="I12" s="7">
-        <v>573723</v>
+        <v>409900</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M12" s="7">
-        <v>1045</v>
+        <v>730</v>
       </c>
       <c r="N12" s="7">
-        <v>1140479</v>
+        <v>803680</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2506,49 +2281,49 @@
         <v>20</v>
       </c>
       <c r="C13" s="7">
-        <v>328</v>
+        <v>230</v>
       </c>
       <c r="D13" s="7">
-        <v>360086</v>
+        <v>252672</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H13" s="7">
-        <v>323</v>
+        <v>223</v>
       </c>
       <c r="I13" s="7">
-        <v>349130</v>
+        <v>245752</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="M13" s="7">
-        <v>651</v>
+        <v>453</v>
       </c>
       <c r="N13" s="7">
-        <v>709216</v>
+        <v>498424</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2557,49 +2332,49 @@
         <v>30</v>
       </c>
       <c r="C14" s="7">
-        <v>77</v>
+        <v>101</v>
       </c>
       <c r="D14" s="7">
-        <v>85968</v>
+        <v>111171</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H14" s="7">
+        <v>107</v>
+      </c>
+      <c r="I14" s="7">
+        <v>117411</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="I14" s="7">
-        <v>103965</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>92</v>
-      </c>
       <c r="M14" s="7">
-        <v>170</v>
+        <v>208</v>
       </c>
       <c r="N14" s="7">
-        <v>189933</v>
+        <v>228582</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2608,10 +2383,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>931</v>
+        <v>689</v>
       </c>
       <c r="D15" s="7">
-        <v>1012810</v>
+        <v>757623</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>40</v>
@@ -2623,10 +2398,10 @@
         <v>40</v>
       </c>
       <c r="H15" s="7">
-        <v>935</v>
+        <v>702</v>
       </c>
       <c r="I15" s="7">
-        <v>1026818</v>
+        <v>773063</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>40</v>
@@ -2638,10 +2413,10 @@
         <v>40</v>
       </c>
       <c r="M15" s="7">
-        <v>1866</v>
+        <v>1391</v>
       </c>
       <c r="N15" s="7">
-        <v>2039628</v>
+        <v>1530686</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>40</v>
@@ -2655,55 +2430,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="D16" s="7">
-        <v>393780</v>
+        <v>384775</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H16" s="7">
-        <v>372</v>
+        <v>406</v>
       </c>
       <c r="I16" s="7">
-        <v>409900</v>
+        <v>420983</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="M16" s="7">
-        <v>730</v>
+        <v>768</v>
       </c>
       <c r="N16" s="7">
-        <v>803680</v>
+        <v>805758</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2712,49 +2487,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>230</v>
+        <v>350</v>
       </c>
       <c r="D17" s="7">
-        <v>252672</v>
+        <v>364342</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="H17" s="7">
-        <v>223</v>
+        <v>385</v>
       </c>
       <c r="I17" s="7">
-        <v>245752</v>
+        <v>408789</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="M17" s="7">
-        <v>453</v>
+        <v>735</v>
       </c>
       <c r="N17" s="7">
-        <v>498424</v>
+        <v>773130</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2763,49 +2538,49 @@
         <v>30</v>
       </c>
       <c r="C18" s="7">
-        <v>101</v>
+        <v>197</v>
       </c>
       <c r="D18" s="7">
-        <v>111171</v>
+        <v>197637</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="H18" s="7">
-        <v>107</v>
+        <v>210</v>
       </c>
       <c r="I18" s="7">
-        <v>117411</v>
+        <v>220226</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>22</v>
+        <v>119</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="M18" s="7">
-        <v>208</v>
+        <v>407</v>
       </c>
       <c r="N18" s="7">
-        <v>228582</v>
+        <v>417863</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2814,10 +2589,10 @@
         <v>3</v>
       </c>
       <c r="C19" s="7">
-        <v>689</v>
+        <v>909</v>
       </c>
       <c r="D19" s="7">
-        <v>757623</v>
+        <v>946753</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>40</v>
@@ -2829,10 +2604,10 @@
         <v>40</v>
       </c>
       <c r="H19" s="7">
-        <v>702</v>
+        <v>1001</v>
       </c>
       <c r="I19" s="7">
-        <v>773063</v>
+        <v>1049998</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>40</v>
@@ -2844,10 +2619,10 @@
         <v>40</v>
       </c>
       <c r="M19" s="7">
-        <v>1391</v>
+        <v>1910</v>
       </c>
       <c r="N19" s="7">
-        <v>1530686</v>
+        <v>1996751</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>40</v>
@@ -2861,55 +2636,55 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>123</v>
+        <v>3</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C20" s="7">
-        <v>362</v>
+        <v>1673</v>
       </c>
       <c r="D20" s="7">
-        <v>384775</v>
+        <v>1796962</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H20" s="7">
-        <v>406</v>
+        <v>1703</v>
       </c>
       <c r="I20" s="7">
-        <v>420983</v>
+        <v>1840410</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="M20" s="7">
-        <v>768</v>
+        <v>3376</v>
       </c>
       <c r="N20" s="7">
-        <v>805758</v>
+        <v>3637371</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2918,25 +2693,25 @@
         <v>20</v>
       </c>
       <c r="C21" s="7">
-        <v>350</v>
+        <v>1117</v>
       </c>
       <c r="D21" s="7">
-        <v>364342</v>
+        <v>1189930</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>135</v>
+        <v>114</v>
       </c>
       <c r="H21" s="7">
-        <v>385</v>
+        <v>1130</v>
       </c>
       <c r="I21" s="7">
-        <v>408789</v>
+        <v>1217933</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>136</v>
@@ -2948,10 +2723,10 @@
         <v>138</v>
       </c>
       <c r="M21" s="7">
-        <v>735</v>
+        <v>2247</v>
       </c>
       <c r="N21" s="7">
-        <v>773130</v>
+        <v>2407863</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>139</v>
@@ -2969,10 +2744,10 @@
         <v>30</v>
       </c>
       <c r="C22" s="7">
-        <v>197</v>
+        <v>411</v>
       </c>
       <c r="D22" s="7">
-        <v>197637</v>
+        <v>431493</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>142</v>
@@ -2984,10 +2759,10 @@
         <v>144</v>
       </c>
       <c r="H22" s="7">
-        <v>210</v>
+        <v>452</v>
       </c>
       <c r="I22" s="7">
-        <v>220226</v>
+        <v>484758</v>
       </c>
       <c r="J22" s="7" t="s">
         <v>145</v>
@@ -2999,10 +2774,10 @@
         <v>147</v>
       </c>
       <c r="M22" s="7">
-        <v>407</v>
+        <v>863</v>
       </c>
       <c r="N22" s="7">
-        <v>417863</v>
+        <v>916252</v>
       </c>
       <c r="O22" s="7" t="s">
         <v>148</v>
@@ -3020,10 +2795,10 @@
         <v>3</v>
       </c>
       <c r="C23" s="7">
-        <v>909</v>
+        <v>3201</v>
       </c>
       <c r="D23" s="7">
-        <v>946753</v>
+        <v>3418386</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>40</v>
@@ -3035,10 +2810,10 @@
         <v>40</v>
       </c>
       <c r="H23" s="7">
-        <v>1001</v>
+        <v>3285</v>
       </c>
       <c r="I23" s="7">
-        <v>1049998</v>
+        <v>3543101</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>40</v>
@@ -3050,10 +2825,10 @@
         <v>40</v>
       </c>
       <c r="M23" s="7">
-        <v>1910</v>
+        <v>6486</v>
       </c>
       <c r="N23" s="7">
-        <v>1996751</v>
+        <v>6961486</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>40</v>
@@ -3066,222 +2841,15 @@
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C24" s="7">
-        <v>1673</v>
-      </c>
-      <c r="D24" s="7">
-        <v>1796962</v>
-      </c>
-      <c r="E24" s="7" t="s">
+      <c r="A24" t="s">
         <v>151</v>
       </c>
-      <c r="F24" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="H24" s="7">
-        <v>1703</v>
-      </c>
-      <c r="I24" s="7">
-        <v>1840410</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="M24" s="7">
-        <v>3376</v>
-      </c>
-      <c r="N24" s="7">
-        <v>3637371</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" s="1"/>
-      <c r="B25" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C25" s="7">
-        <v>1117</v>
-      </c>
-      <c r="D25" s="7">
-        <v>1189930</v>
-      </c>
-      <c r="E25" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="H25" s="7">
-        <v>1130</v>
-      </c>
-      <c r="I25" s="7">
-        <v>1217933</v>
-      </c>
-      <c r="J25" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="M25" s="7">
-        <v>2247</v>
-      </c>
-      <c r="N25" s="7">
-        <v>2407863</v>
-      </c>
-      <c r="O25" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A26" s="1"/>
-      <c r="B26" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C26" s="7">
-        <v>411</v>
-      </c>
-      <c r="D26" s="7">
-        <v>431493</v>
-      </c>
-      <c r="E26" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="H26" s="7">
-        <v>452</v>
-      </c>
-      <c r="I26" s="7">
-        <v>484758</v>
-      </c>
-      <c r="J26" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="M26" s="7">
-        <v>863</v>
-      </c>
-      <c r="N26" s="7">
-        <v>916252</v>
-      </c>
-      <c r="O26" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A27" s="1"/>
-      <c r="B27" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C27" s="7">
-        <v>3201</v>
-      </c>
-      <c r="D27" s="7">
-        <v>3418386</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H27" s="7">
-        <v>3285</v>
-      </c>
-      <c r="I27" s="7">
-        <v>3543101</v>
-      </c>
-      <c r="J27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="M27" s="7">
-        <v>6486</v>
-      </c>
-      <c r="N27" s="7">
-        <v>6961486</v>
-      </c>
-      <c r="O27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="P27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>177</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A16:A19"/>
     <mergeCell ref="A20:A23"/>
-    <mergeCell ref="A24:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3294,8 +2862,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{523A3106-3255-429E-AF0F-50BB8B3FFD79}">
-  <dimension ref="A1:Q28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B2142D3-61C5-4233-9797-0D80C2CA46E9}">
+  <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3311,7 +2879,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>178</v>
+        <v>152</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3412,49 +2980,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>102</v>
+        <v>544</v>
       </c>
       <c r="D4" s="7">
-        <v>105710</v>
+        <v>560352</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>179</v>
+        <v>153</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>180</v>
+        <v>154</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>181</v>
+        <v>155</v>
       </c>
       <c r="H4" s="7">
-        <v>109</v>
+        <v>548</v>
       </c>
       <c r="I4" s="7">
-        <v>107554</v>
+        <v>555481</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>182</v>
+        <v>156</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>183</v>
+        <v>157</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>184</v>
+        <v>158</v>
       </c>
       <c r="M4" s="7">
-        <v>211</v>
+        <v>1092</v>
       </c>
       <c r="N4" s="7">
-        <v>213265</v>
+        <v>1115833</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>185</v>
+        <v>159</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>186</v>
+        <v>160</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>187</v>
+        <v>161</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3463,49 +3031,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>10</v>
+        <v>87</v>
       </c>
       <c r="D5" s="7">
-        <v>9800</v>
+        <v>91365</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>188</v>
+        <v>162</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>189</v>
+        <v>163</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>190</v>
+        <v>164</v>
       </c>
       <c r="H5" s="7">
-        <v>5</v>
+        <v>83</v>
       </c>
       <c r="I5" s="7">
-        <v>4911</v>
+        <v>81138</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>191</v>
+        <v>165</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>192</v>
+        <v>166</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>193</v>
+        <v>167</v>
       </c>
       <c r="M5" s="7">
-        <v>15</v>
+        <v>170</v>
       </c>
       <c r="N5" s="7">
-        <v>14712</v>
+        <v>172504</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>194</v>
+        <v>168</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>195</v>
+        <v>169</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>196</v>
+        <v>170</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3514,49 +3082,49 @@
         <v>30</v>
       </c>
       <c r="C6" s="7">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="D6" s="7">
-        <v>1035</v>
+        <v>19821</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>197</v>
+        <v>171</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>198</v>
+        <v>172</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>199</v>
+        <v>173</v>
       </c>
       <c r="H6" s="7">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="I6" s="7">
-        <v>894</v>
+        <v>31945</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>200</v>
+        <v>174</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>198</v>
+        <v>175</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>201</v>
+        <v>176</v>
       </c>
       <c r="M6" s="7">
-        <v>2</v>
+        <v>49</v>
       </c>
       <c r="N6" s="7">
-        <v>1929</v>
+        <v>51765</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>202</v>
+        <v>177</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>198</v>
+        <v>178</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>203</v>
+        <v>179</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3565,10 +3133,10 @@
         <v>3</v>
       </c>
       <c r="C7" s="7">
-        <v>113</v>
+        <v>649</v>
       </c>
       <c r="D7" s="7">
-        <v>116546</v>
+        <v>671538</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>40</v>
@@ -3580,10 +3148,10 @@
         <v>40</v>
       </c>
       <c r="H7" s="7">
-        <v>115</v>
+        <v>662</v>
       </c>
       <c r="I7" s="7">
-        <v>113360</v>
+        <v>668564</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>40</v>
@@ -3595,10 +3163,10 @@
         <v>40</v>
       </c>
       <c r="M7" s="7">
-        <v>228</v>
+        <v>1311</v>
       </c>
       <c r="N7" s="7">
-        <v>229906</v>
+        <v>1340102</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>40</v>
@@ -3618,49 +3186,49 @@
         <v>10</v>
       </c>
       <c r="C8" s="7">
-        <v>442</v>
+        <v>652</v>
       </c>
       <c r="D8" s="7">
-        <v>454642</v>
+        <v>697753</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>14</v>
+        <v>180</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>204</v>
+        <v>181</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>205</v>
+        <v>182</v>
       </c>
       <c r="H8" s="7">
-        <v>439</v>
+        <v>677</v>
       </c>
       <c r="I8" s="7">
-        <v>447927</v>
+        <v>726409</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>206</v>
+        <v>183</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>207</v>
+        <v>184</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>208</v>
+        <v>185</v>
       </c>
       <c r="M8" s="7">
-        <v>881</v>
+        <v>1329</v>
       </c>
       <c r="N8" s="7">
-        <v>902568</v>
+        <v>1424161</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>209</v>
+        <v>186</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>210</v>
+        <v>187</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>211</v>
+        <v>188</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3669,49 +3237,49 @@
         <v>20</v>
       </c>
       <c r="C9" s="7">
-        <v>77</v>
+        <v>234</v>
       </c>
       <c r="D9" s="7">
-        <v>81565</v>
+        <v>254822</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>212</v>
+        <v>189</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>213</v>
+        <v>190</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>214</v>
+        <v>191</v>
       </c>
       <c r="H9" s="7">
-        <v>78</v>
+        <v>226</v>
       </c>
       <c r="I9" s="7">
-        <v>76227</v>
+        <v>239594</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>215</v>
+        <v>192</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>216</v>
+        <v>193</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>217</v>
+        <v>194</v>
       </c>
       <c r="M9" s="7">
-        <v>155</v>
+        <v>460</v>
       </c>
       <c r="N9" s="7">
-        <v>157792</v>
+        <v>494416</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>218</v>
+        <v>195</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>219</v>
+        <v>196</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>220</v>
+        <v>197</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3720,49 +3288,49 @@
         <v>30</v>
       </c>
       <c r="C10" s="7">
-        <v>17</v>
+        <v>60</v>
       </c>
       <c r="D10" s="7">
-        <v>18785</v>
+        <v>64836</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>221</v>
+        <v>198</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>222</v>
+        <v>199</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>223</v>
+        <v>200</v>
       </c>
       <c r="H10" s="7">
-        <v>30</v>
+        <v>68</v>
       </c>
       <c r="I10" s="7">
-        <v>31050</v>
+        <v>70206</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>224</v>
+        <v>201</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>60</v>
+        <v>202</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>225</v>
+        <v>203</v>
       </c>
       <c r="M10" s="7">
-        <v>47</v>
+        <v>128</v>
       </c>
       <c r="N10" s="7">
-        <v>49836</v>
+        <v>135041</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>226</v>
+        <v>204</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>227</v>
+        <v>205</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>228</v>
+        <v>206</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3771,10 +3339,10 @@
         <v>3</v>
       </c>
       <c r="C11" s="7">
-        <v>536</v>
+        <v>946</v>
       </c>
       <c r="D11" s="7">
-        <v>554992</v>
+        <v>1017410</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>40</v>
@@ -3786,10 +3354,10 @@
         <v>40</v>
       </c>
       <c r="H11" s="7">
-        <v>547</v>
+        <v>971</v>
       </c>
       <c r="I11" s="7">
-        <v>555204</v>
+        <v>1036209</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>40</v>
@@ -3801,10 +3369,10 @@
         <v>40</v>
       </c>
       <c r="M11" s="7">
-        <v>1083</v>
+        <v>1917</v>
       </c>
       <c r="N11" s="7">
-        <v>1110196</v>
+        <v>2053618</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>40</v>
@@ -3818,55 +3386,55 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C12" s="7">
-        <v>652</v>
+        <v>412</v>
       </c>
       <c r="D12" s="7">
-        <v>697753</v>
+        <v>451379</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>229</v>
+        <v>207</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>230</v>
+        <v>208</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>231</v>
+        <v>209</v>
       </c>
       <c r="H12" s="7">
-        <v>677</v>
+        <v>437</v>
       </c>
       <c r="I12" s="7">
-        <v>726409</v>
+        <v>466364</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>232</v>
+        <v>210</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>233</v>
+        <v>211</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>234</v>
+        <v>212</v>
       </c>
       <c r="M12" s="7">
-        <v>1329</v>
+        <v>849</v>
       </c>
       <c r="N12" s="7">
-        <v>1424161</v>
+        <v>917744</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>235</v>
+        <v>213</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>236</v>
+        <v>214</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>237</v>
+        <v>215</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3875,49 +3443,49 @@
         <v>20</v>
       </c>
       <c r="C13" s="7">
-        <v>234</v>
+        <v>200</v>
       </c>
       <c r="D13" s="7">
-        <v>254822</v>
+        <v>219783</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>238</v>
+        <v>216</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>239</v>
+        <v>217</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>240</v>
+        <v>218</v>
       </c>
       <c r="H13" s="7">
-        <v>226</v>
+        <v>194</v>
       </c>
       <c r="I13" s="7">
-        <v>239594</v>
+        <v>204592</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>241</v>
+        <v>197</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>242</v>
+        <v>219</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>243</v>
+        <v>220</v>
       </c>
       <c r="M13" s="7">
-        <v>460</v>
+        <v>394</v>
       </c>
       <c r="N13" s="7">
-        <v>494416</v>
+        <v>424375</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>244</v>
+        <v>221</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>245</v>
+        <v>222</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>246</v>
+        <v>223</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3926,49 +3494,49 @@
         <v>30</v>
       </c>
       <c r="C14" s="7">
-        <v>60</v>
+        <v>81</v>
       </c>
       <c r="D14" s="7">
-        <v>64836</v>
+        <v>85263</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>247</v>
+        <v>224</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>248</v>
+        <v>225</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>249</v>
+        <v>226</v>
       </c>
       <c r="H14" s="7">
-        <v>68</v>
+        <v>103</v>
       </c>
       <c r="I14" s="7">
-        <v>70206</v>
+        <v>111798</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>250</v>
+        <v>227</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>251</v>
+        <v>228</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>252</v>
+        <v>229</v>
       </c>
       <c r="M14" s="7">
-        <v>128</v>
+        <v>184</v>
       </c>
       <c r="N14" s="7">
-        <v>135041</v>
+        <v>197061</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>253</v>
+        <v>230</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>254</v>
+        <v>232</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3977,10 +3545,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>946</v>
+        <v>693</v>
       </c>
       <c r="D15" s="7">
-        <v>1017410</v>
+        <v>756425</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>40</v>
@@ -3992,10 +3560,10 @@
         <v>40</v>
       </c>
       <c r="H15" s="7">
-        <v>971</v>
+        <v>734</v>
       </c>
       <c r="I15" s="7">
-        <v>1036209</v>
+        <v>782755</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>40</v>
@@ -4007,10 +3575,10 @@
         <v>40</v>
       </c>
       <c r="M15" s="7">
-        <v>1917</v>
+        <v>1427</v>
       </c>
       <c r="N15" s="7">
-        <v>2053618</v>
+        <v>1539180</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>40</v>
@@ -4024,55 +3592,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>412</v>
+        <v>504</v>
       </c>
       <c r="D16" s="7">
-        <v>451379</v>
+        <v>499695</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>255</v>
+        <v>233</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>256</v>
+        <v>234</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>257</v>
+        <v>235</v>
       </c>
       <c r="H16" s="7">
-        <v>437</v>
+        <v>520</v>
       </c>
       <c r="I16" s="7">
-        <v>466364</v>
+        <v>559856</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>258</v>
+        <v>49</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>259</v>
+        <v>236</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>260</v>
+        <v>237</v>
       </c>
       <c r="M16" s="7">
-        <v>849</v>
+        <v>1024</v>
       </c>
       <c r="N16" s="7">
-        <v>917744</v>
+        <v>1059550</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>261</v>
+        <v>238</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>262</v>
+        <v>239</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>263</v>
+        <v>240</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4081,49 +3649,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>200</v>
+        <v>265</v>
       </c>
       <c r="D17" s="7">
-        <v>219783</v>
+        <v>268230</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>264</v>
+        <v>241</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>265</v>
+        <v>242</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>266</v>
+        <v>243</v>
       </c>
       <c r="H17" s="7">
-        <v>194</v>
+        <v>259</v>
       </c>
       <c r="I17" s="7">
-        <v>204592</v>
+        <v>281331</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="K17" s="7" t="s">
-        <v>267</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>268</v>
-      </c>
       <c r="M17" s="7">
-        <v>394</v>
+        <v>524</v>
       </c>
       <c r="N17" s="7">
-        <v>424375</v>
+        <v>549561</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>269</v>
+        <v>247</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>270</v>
+        <v>248</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>271</v>
+        <v>249</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4132,49 +3700,49 @@
         <v>30</v>
       </c>
       <c r="C18" s="7">
-        <v>81</v>
+        <v>159</v>
       </c>
       <c r="D18" s="7">
-        <v>85263</v>
+        <v>165406</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>272</v>
+        <v>250</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>273</v>
+        <v>251</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>274</v>
+        <v>252</v>
       </c>
       <c r="H18" s="7">
-        <v>103</v>
+        <v>175</v>
       </c>
       <c r="I18" s="7">
-        <v>111798</v>
+        <v>197531</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>275</v>
+        <v>253</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>276</v>
+        <v>254</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>277</v>
+        <v>255</v>
       </c>
       <c r="M18" s="7">
-        <v>184</v>
+        <v>334</v>
       </c>
       <c r="N18" s="7">
-        <v>197061</v>
+        <v>362937</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>278</v>
+        <v>256</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>279</v>
+        <v>257</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>280</v>
+        <v>258</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4183,10 +3751,10 @@
         <v>3</v>
       </c>
       <c r="C19" s="7">
-        <v>693</v>
+        <v>928</v>
       </c>
       <c r="D19" s="7">
-        <v>756425</v>
+        <v>933331</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>40</v>
@@ -4198,10 +3766,10 @@
         <v>40</v>
       </c>
       <c r="H19" s="7">
-        <v>734</v>
+        <v>954</v>
       </c>
       <c r="I19" s="7">
-        <v>782755</v>
+        <v>1038717</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>40</v>
@@ -4213,10 +3781,10 @@
         <v>40</v>
       </c>
       <c r="M19" s="7">
-        <v>1427</v>
+        <v>1882</v>
       </c>
       <c r="N19" s="7">
-        <v>1539180</v>
+        <v>1972048</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>40</v>
@@ -4230,55 +3798,55 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>123</v>
+        <v>3</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C20" s="7">
-        <v>504</v>
+        <v>2112</v>
       </c>
       <c r="D20" s="7">
-        <v>499695</v>
+        <v>2209179</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>281</v>
+        <v>259</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>282</v>
+        <v>260</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>283</v>
+        <v>261</v>
       </c>
       <c r="H20" s="7">
-        <v>520</v>
+        <v>2182</v>
       </c>
       <c r="I20" s="7">
-        <v>559856</v>
+        <v>2308110</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>76</v>
+        <v>262</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>284</v>
+        <v>263</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>285</v>
+        <v>264</v>
       </c>
       <c r="M20" s="7">
-        <v>1024</v>
+        <v>4294</v>
       </c>
       <c r="N20" s="7">
-        <v>1059550</v>
+        <v>4517288</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>286</v>
+        <v>265</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>287</v>
+        <v>266</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>288</v>
+        <v>267</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4287,49 +3855,49 @@
         <v>20</v>
       </c>
       <c r="C21" s="7">
-        <v>265</v>
+        <v>786</v>
       </c>
       <c r="D21" s="7">
-        <v>268230</v>
+        <v>834200</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>289</v>
+        <v>268</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>290</v>
+        <v>269</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>291</v>
+        <v>270</v>
       </c>
       <c r="H21" s="7">
-        <v>259</v>
+        <v>762</v>
       </c>
       <c r="I21" s="7">
-        <v>281331</v>
+        <v>806656</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>292</v>
+        <v>271</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>293</v>
+        <v>272</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>294</v>
+        <v>273</v>
       </c>
       <c r="M21" s="7">
-        <v>524</v>
+        <v>1548</v>
       </c>
       <c r="N21" s="7">
-        <v>549561</v>
+        <v>1640856</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>295</v>
+        <v>274</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>296</v>
+        <v>275</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>297</v>
+        <v>276</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -4338,49 +3906,49 @@
         <v>30</v>
       </c>
       <c r="C22" s="7">
-        <v>159</v>
+        <v>318</v>
       </c>
       <c r="D22" s="7">
-        <v>165406</v>
+        <v>335325</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>298</v>
+        <v>277</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>299</v>
+        <v>278</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>300</v>
+        <v>279</v>
       </c>
       <c r="H22" s="7">
-        <v>175</v>
+        <v>377</v>
       </c>
       <c r="I22" s="7">
-        <v>197531</v>
+        <v>411480</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>301</v>
+        <v>280</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>302</v>
+        <v>281</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>303</v>
+        <v>282</v>
       </c>
       <c r="M22" s="7">
-        <v>334</v>
+        <v>695</v>
       </c>
       <c r="N22" s="7">
-        <v>362937</v>
+        <v>746805</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>27</v>
+        <v>283</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>304</v>
+        <v>284</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>305</v>
+        <v>285</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4389,10 +3957,10 @@
         <v>3</v>
       </c>
       <c r="C23" s="7">
-        <v>928</v>
+        <v>3216</v>
       </c>
       <c r="D23" s="7">
-        <v>933331</v>
+        <v>3378704</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>40</v>
@@ -4404,10 +3972,10 @@
         <v>40</v>
       </c>
       <c r="H23" s="7">
-        <v>954</v>
+        <v>3321</v>
       </c>
       <c r="I23" s="7">
-        <v>1038717</v>
+        <v>3526245</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>40</v>
@@ -4419,10 +3987,10 @@
         <v>40</v>
       </c>
       <c r="M23" s="7">
-        <v>1882</v>
+        <v>6537</v>
       </c>
       <c r="N23" s="7">
-        <v>1972048</v>
+        <v>6904949</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>40</v>
@@ -4435,222 +4003,15 @@
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C24" s="7">
-        <v>2112</v>
-      </c>
-      <c r="D24" s="7">
-        <v>2209179</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>306</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>307</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>308</v>
-      </c>
-      <c r="H24" s="7">
-        <v>2182</v>
-      </c>
-      <c r="I24" s="7">
-        <v>2308110</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>309</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>310</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>311</v>
-      </c>
-      <c r="M24" s="7">
-        <v>4294</v>
-      </c>
-      <c r="N24" s="7">
-        <v>4517288</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>312</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>313</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" s="1"/>
-      <c r="B25" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C25" s="7">
-        <v>786</v>
-      </c>
-      <c r="D25" s="7">
-        <v>834200</v>
-      </c>
-      <c r="E25" s="7" t="s">
-        <v>315</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>316</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>317</v>
-      </c>
-      <c r="H25" s="7">
-        <v>762</v>
-      </c>
-      <c r="I25" s="7">
-        <v>806656</v>
-      </c>
-      <c r="J25" s="7" t="s">
-        <v>318</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>319</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>320</v>
-      </c>
-      <c r="M25" s="7">
-        <v>1548</v>
-      </c>
-      <c r="N25" s="7">
-        <v>1640856</v>
-      </c>
-      <c r="O25" s="7" t="s">
-        <v>321</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>322</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A26" s="1"/>
-      <c r="B26" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C26" s="7">
-        <v>318</v>
-      </c>
-      <c r="D26" s="7">
-        <v>335325</v>
-      </c>
-      <c r="E26" s="7" t="s">
-        <v>324</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>325</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>326</v>
-      </c>
-      <c r="H26" s="7">
-        <v>377</v>
-      </c>
-      <c r="I26" s="7">
-        <v>411480</v>
-      </c>
-      <c r="J26" s="7" t="s">
-        <v>327</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>328</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>329</v>
-      </c>
-      <c r="M26" s="7">
-        <v>695</v>
-      </c>
-      <c r="N26" s="7">
-        <v>746805</v>
-      </c>
-      <c r="O26" s="7" t="s">
-        <v>330</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>331</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A27" s="1"/>
-      <c r="B27" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C27" s="7">
-        <v>3216</v>
-      </c>
-      <c r="D27" s="7">
-        <v>3378704</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H27" s="7">
-        <v>3321</v>
-      </c>
-      <c r="I27" s="7">
-        <v>3526246</v>
-      </c>
-      <c r="J27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="M27" s="7">
-        <v>6537</v>
-      </c>
-      <c r="N27" s="7">
-        <v>6904949</v>
-      </c>
-      <c r="O27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="P27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>177</v>
+      <c r="A24" t="s">
+        <v>151</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A16:A19"/>
     <mergeCell ref="A20:A23"/>
-    <mergeCell ref="A24:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -4663,8 +4024,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99251E03-5DD0-4300-B7DB-9CC518896485}">
-  <dimension ref="A1:Q28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC07A569-3FA3-42E9-8C88-73E6EA89B9B4}">
+  <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4680,7 +4041,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>333</v>
+        <v>286</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4781,49 +4142,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>109</v>
+        <v>647</v>
       </c>
       <c r="D4" s="7">
-        <v>95790</v>
+        <v>566630</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>334</v>
+        <v>287</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>335</v>
+        <v>288</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>336</v>
+        <v>289</v>
       </c>
       <c r="H4" s="7">
-        <v>235</v>
+        <v>1117</v>
       </c>
       <c r="I4" s="7">
-        <v>124679</v>
+        <v>658099</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>337</v>
+        <v>290</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>338</v>
+        <v>291</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>339</v>
+        <v>292</v>
       </c>
       <c r="M4" s="7">
-        <v>344</v>
+        <v>1764</v>
       </c>
       <c r="N4" s="7">
-        <v>220469</v>
+        <v>1224729</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>340</v>
+        <v>293</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>179</v>
+        <v>294</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>341</v>
+        <v>295</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4832,49 +4193,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>4</v>
+        <v>56</v>
       </c>
       <c r="D5" s="7">
-        <v>2548</v>
+        <v>46696</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>342</v>
+        <v>296</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>343</v>
+        <v>297</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>344</v>
+        <v>298</v>
       </c>
       <c r="H5" s="7">
-        <v>6</v>
+        <v>81</v>
       </c>
       <c r="I5" s="7">
-        <v>2875</v>
+        <v>44684</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>345</v>
+        <v>299</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>202</v>
+        <v>173</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>346</v>
+        <v>300</v>
       </c>
       <c r="M5" s="7">
-        <v>10</v>
+        <v>137</v>
       </c>
       <c r="N5" s="7">
-        <v>5422</v>
+        <v>91379</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>347</v>
+        <v>301</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>348</v>
+        <v>302</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>349</v>
+        <v>303</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4883,49 +4244,49 @@
         <v>30</v>
       </c>
       <c r="C6" s="7">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="D6" s="7">
-        <v>3645</v>
+        <v>21096</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>350</v>
+        <v>304</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>351</v>
+        <v>305</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>352</v>
+        <v>306</v>
       </c>
       <c r="H6" s="7">
-        <v>2</v>
+        <v>43</v>
       </c>
       <c r="I6" s="7">
-        <v>3179</v>
+        <v>22547</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>353</v>
+        <v>307</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>198</v>
+        <v>308</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>354</v>
+        <v>309</v>
       </c>
       <c r="M6" s="7">
-        <v>7</v>
+        <v>69</v>
       </c>
       <c r="N6" s="7">
-        <v>6824</v>
+        <v>43644</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>355</v>
+        <v>310</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>356</v>
+        <v>311</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>357</v>
+        <v>312</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4934,10 +4295,10 @@
         <v>3</v>
       </c>
       <c r="C7" s="7">
-        <v>118</v>
+        <v>729</v>
       </c>
       <c r="D7" s="7">
-        <v>101982</v>
+        <v>634422</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>40</v>
@@ -4949,10 +4310,10 @@
         <v>40</v>
       </c>
       <c r="H7" s="7">
-        <v>243</v>
+        <v>1241</v>
       </c>
       <c r="I7" s="7">
-        <v>130733</v>
+        <v>725330</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>40</v>
@@ -4964,10 +4325,10 @@
         <v>40</v>
       </c>
       <c r="M7" s="7">
-        <v>361</v>
+        <v>1970</v>
       </c>
       <c r="N7" s="7">
-        <v>232715</v>
+        <v>1359752</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>40</v>
@@ -4987,49 +4348,49 @@
         <v>10</v>
       </c>
       <c r="C8" s="7">
-        <v>538</v>
+        <v>783</v>
       </c>
       <c r="D8" s="7">
-        <v>483610</v>
+        <v>1015698</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>358</v>
+        <v>313</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>359</v>
+        <v>314</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>360</v>
+        <v>315</v>
       </c>
       <c r="H8" s="7">
-        <v>882</v>
+        <v>1203</v>
       </c>
       <c r="I8" s="7">
-        <v>553573</v>
+        <v>749670</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>361</v>
+        <v>316</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>362</v>
+        <v>317</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>363</v>
+        <v>318</v>
       </c>
       <c r="M8" s="7">
-        <v>1420</v>
+        <v>1986</v>
       </c>
       <c r="N8" s="7">
-        <v>1037183</v>
+        <v>1765368</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>364</v>
+        <v>319</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>365</v>
+        <v>320</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>366</v>
+        <v>321</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5038,49 +4399,49 @@
         <v>20</v>
       </c>
       <c r="C9" s="7">
-        <v>52</v>
+        <v>118</v>
       </c>
       <c r="D9" s="7">
-        <v>46405</v>
+        <v>118823</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>367</v>
+        <v>322</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>368</v>
+        <v>323</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>369</v>
+        <v>324</v>
       </c>
       <c r="H9" s="7">
-        <v>75</v>
+        <v>209</v>
       </c>
       <c r="I9" s="7">
-        <v>45486</v>
+        <v>134555</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>370</v>
+        <v>325</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>371</v>
+        <v>326</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>372</v>
+        <v>327</v>
       </c>
       <c r="M9" s="7">
-        <v>127</v>
+        <v>327</v>
       </c>
       <c r="N9" s="7">
-        <v>91892</v>
+        <v>253377</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>373</v>
+        <v>328</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>374</v>
+        <v>206</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>375</v>
+        <v>329</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -5089,49 +4450,49 @@
         <v>30</v>
       </c>
       <c r="C10" s="7">
-        <v>21</v>
+        <v>62</v>
       </c>
       <c r="D10" s="7">
-        <v>18758</v>
+        <v>57805</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>376</v>
+        <v>330</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>377</v>
+        <v>331</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>378</v>
+        <v>301</v>
       </c>
       <c r="H10" s="7">
-        <v>41</v>
+        <v>104</v>
       </c>
       <c r="I10" s="7">
-        <v>20907</v>
+        <v>73815</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>379</v>
+        <v>332</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>380</v>
+        <v>333</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>381</v>
+        <v>334</v>
       </c>
       <c r="M10" s="7">
-        <v>62</v>
+        <v>166</v>
       </c>
       <c r="N10" s="7">
-        <v>39665</v>
+        <v>131620</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>382</v>
+        <v>335</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>383</v>
+        <v>336</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>384</v>
+        <v>337</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5140,10 +4501,10 @@
         <v>3</v>
       </c>
       <c r="C11" s="7">
-        <v>611</v>
+        <v>963</v>
       </c>
       <c r="D11" s="7">
-        <v>548773</v>
+        <v>1192326</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>40</v>
@@ -5155,10 +4516,10 @@
         <v>40</v>
       </c>
       <c r="H11" s="7">
-        <v>998</v>
+        <v>1516</v>
       </c>
       <c r="I11" s="7">
-        <v>619967</v>
+        <v>958039</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>40</v>
@@ -5170,10 +4531,10 @@
         <v>40</v>
       </c>
       <c r="M11" s="7">
-        <v>1609</v>
+        <v>2479</v>
       </c>
       <c r="N11" s="7">
-        <v>1168740</v>
+        <v>2150365</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>40</v>
@@ -5187,55 +4548,55 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C12" s="7">
-        <v>783</v>
+        <v>484</v>
       </c>
       <c r="D12" s="7">
-        <v>851650</v>
+        <v>525584</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>385</v>
+        <v>338</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>386</v>
+        <v>339</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>387</v>
+        <v>340</v>
       </c>
       <c r="H12" s="7">
-        <v>1203</v>
+        <v>794</v>
       </c>
       <c r="I12" s="7">
-        <v>826925</v>
+        <v>765764</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>388</v>
+        <v>341</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>389</v>
+        <v>342</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>390</v>
+        <v>343</v>
       </c>
       <c r="M12" s="7">
-        <v>1986</v>
+        <v>1278</v>
       </c>
       <c r="N12" s="7">
-        <v>1678574</v>
+        <v>1291348</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>391</v>
+        <v>344</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>392</v>
+        <v>345</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>393</v>
+        <v>346</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5244,49 +4605,49 @@
         <v>20</v>
       </c>
       <c r="C13" s="7">
-        <v>118</v>
+        <v>134</v>
       </c>
       <c r="D13" s="7">
-        <v>127607</v>
+        <v>128100</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>394</v>
+        <v>347</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>395</v>
+        <v>348</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>396</v>
+        <v>349</v>
       </c>
       <c r="H13" s="7">
-        <v>209</v>
+        <v>169</v>
       </c>
       <c r="I13" s="7">
-        <v>150845</v>
+        <v>110033</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>397</v>
+        <v>350</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>398</v>
+        <v>351</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>220</v>
+        <v>352</v>
       </c>
       <c r="M13" s="7">
-        <v>327</v>
+        <v>303</v>
       </c>
       <c r="N13" s="7">
-        <v>278452</v>
+        <v>238133</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>399</v>
+        <v>353</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>400</v>
+        <v>354</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>401</v>
+        <v>355</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5295,49 +4656,49 @@
         <v>30</v>
       </c>
       <c r="C14" s="7">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="D14" s="7">
-        <v>59421</v>
+        <v>50832</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>402</v>
+        <v>356</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>403</v>
+        <v>357</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>404</v>
+        <v>358</v>
       </c>
       <c r="H14" s="7">
-        <v>104</v>
+        <v>82</v>
       </c>
       <c r="I14" s="7">
-        <v>81648</v>
+        <v>57245</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>405</v>
+        <v>359</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>406</v>
+        <v>360</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>407</v>
+        <v>361</v>
       </c>
       <c r="M14" s="7">
-        <v>166</v>
+        <v>139</v>
       </c>
       <c r="N14" s="7">
-        <v>141068</v>
+        <v>108077</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>408</v>
+        <v>362</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>409</v>
+        <v>363</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>410</v>
+        <v>364</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5346,10 +4707,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>963</v>
+        <v>675</v>
       </c>
       <c r="D15" s="7">
-        <v>1038678</v>
+        <v>704516</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>40</v>
@@ -5361,10 +4722,10 @@
         <v>40</v>
       </c>
       <c r="H15" s="7">
-        <v>1516</v>
+        <v>1045</v>
       </c>
       <c r="I15" s="7">
-        <v>1059417</v>
+        <v>933042</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>40</v>
@@ -5376,10 +4737,10 @@
         <v>40</v>
       </c>
       <c r="M15" s="7">
-        <v>2479</v>
+        <v>1720</v>
       </c>
       <c r="N15" s="7">
-        <v>2098094</v>
+        <v>1637558</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>40</v>
@@ -5393,55 +4754,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>484</v>
+        <v>545</v>
       </c>
       <c r="D16" s="7">
-        <v>539757</v>
+        <v>507503</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>411</v>
+        <v>365</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>412</v>
+        <v>366</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>413</v>
+        <v>367</v>
       </c>
       <c r="H16" s="7">
-        <v>794</v>
+        <v>869</v>
       </c>
       <c r="I16" s="7">
-        <v>690664</v>
+        <v>642998</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>414</v>
+        <v>368</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>415</v>
+        <v>369</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>416</v>
+        <v>370</v>
       </c>
       <c r="M16" s="7">
-        <v>1278</v>
+        <v>1414</v>
       </c>
       <c r="N16" s="7">
-        <v>1230422</v>
+        <v>1150502</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>417</v>
+        <v>371</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>418</v>
+        <v>372</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>419</v>
+        <v>373</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5450,49 +4811,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>134</v>
+        <v>289</v>
       </c>
       <c r="D17" s="7">
-        <v>135667</v>
+        <v>254558</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>420</v>
+        <v>374</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>421</v>
+        <v>375</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>422</v>
+        <v>376</v>
       </c>
       <c r="H17" s="7">
-        <v>169</v>
+        <v>399</v>
       </c>
       <c r="I17" s="7">
-        <v>120730</v>
+        <v>262250</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>423</v>
+        <v>377</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>424</v>
+        <v>378</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>425</v>
+        <v>379</v>
       </c>
       <c r="M17" s="7">
-        <v>303</v>
+        <v>688</v>
       </c>
       <c r="N17" s="7">
-        <v>256397</v>
+        <v>516808</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>426</v>
+        <v>380</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>427</v>
+        <v>381</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>428</v>
+        <v>382</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5501,49 +4862,49 @@
         <v>30</v>
       </c>
       <c r="C18" s="7">
-        <v>57</v>
+        <v>171</v>
       </c>
       <c r="D18" s="7">
-        <v>53188</v>
+        <v>164606</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>429</v>
+        <v>383</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>430</v>
+        <v>384</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>431</v>
+        <v>385</v>
       </c>
       <c r="H18" s="7">
-        <v>82</v>
+        <v>292</v>
       </c>
       <c r="I18" s="7">
-        <v>62657</v>
+        <v>188424</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>432</v>
+        <v>386</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>433</v>
+        <v>387</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>434</v>
+        <v>378</v>
       </c>
       <c r="M18" s="7">
-        <v>139</v>
+        <v>463</v>
       </c>
       <c r="N18" s="7">
-        <v>115844</v>
+        <v>353029</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>435</v>
+        <v>388</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>436</v>
+        <v>389</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>437</v>
+        <v>390</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5552,10 +4913,10 @@
         <v>3</v>
       </c>
       <c r="C19" s="7">
-        <v>675</v>
+        <v>1005</v>
       </c>
       <c r="D19" s="7">
-        <v>728612</v>
+        <v>926667</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>40</v>
@@ -5567,10 +4928,10 @@
         <v>40</v>
       </c>
       <c r="H19" s="7">
-        <v>1045</v>
+        <v>1560</v>
       </c>
       <c r="I19" s="7">
-        <v>874051</v>
+        <v>1093672</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>40</v>
@@ -5582,10 +4943,10 @@
         <v>40</v>
       </c>
       <c r="M19" s="7">
-        <v>1720</v>
+        <v>2565</v>
       </c>
       <c r="N19" s="7">
-        <v>1602663</v>
+        <v>2020339</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>40</v>
@@ -5599,55 +4960,55 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>123</v>
+        <v>3</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C20" s="7">
-        <v>545</v>
+        <v>2459</v>
       </c>
       <c r="D20" s="7">
-        <v>522675</v>
+        <v>2615415</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>438</v>
+        <v>391</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>439</v>
+        <v>392</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>440</v>
+        <v>393</v>
       </c>
       <c r="H20" s="7">
-        <v>869</v>
+        <v>3983</v>
       </c>
       <c r="I20" s="7">
-        <v>645121</v>
+        <v>2816531</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>441</v>
+        <v>342</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>442</v>
+        <v>394</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>443</v>
+        <v>395</v>
       </c>
       <c r="M20" s="7">
-        <v>1414</v>
+        <v>6442</v>
       </c>
       <c r="N20" s="7">
-        <v>1167796</v>
+        <v>5431947</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>444</v>
+        <v>396</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>445</v>
+        <v>397</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>446</v>
+        <v>398</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5656,49 +5017,49 @@
         <v>20</v>
       </c>
       <c r="C21" s="7">
-        <v>289</v>
+        <v>597</v>
       </c>
       <c r="D21" s="7">
-        <v>271075</v>
+        <v>548176</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>447</v>
+        <v>399</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>448</v>
+        <v>400</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>449</v>
+        <v>401</v>
       </c>
       <c r="H21" s="7">
-        <v>399</v>
+        <v>858</v>
       </c>
       <c r="I21" s="7">
-        <v>294486</v>
+        <v>551521</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>450</v>
+        <v>402</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>451</v>
+        <v>403</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>452</v>
+        <v>404</v>
       </c>
       <c r="M21" s="7">
-        <v>688</v>
+        <v>1455</v>
       </c>
       <c r="N21" s="7">
-        <v>565561</v>
+        <v>1099697</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>453</v>
+        <v>405</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>454</v>
+        <v>406</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>455</v>
+        <v>407</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5707,49 +5068,49 @@
         <v>30</v>
       </c>
       <c r="C22" s="7">
-        <v>171</v>
+        <v>316</v>
       </c>
       <c r="D22" s="7">
-        <v>171493</v>
+        <v>294339</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>456</v>
+        <v>408</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>457</v>
+        <v>409</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>458</v>
+        <v>410</v>
       </c>
       <c r="H22" s="7">
-        <v>292</v>
+        <v>521</v>
       </c>
       <c r="I22" s="7">
-        <v>209412</v>
+        <v>342031</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>459</v>
+        <v>411</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>460</v>
+        <v>412</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>461</v>
+        <v>413</v>
       </c>
       <c r="M22" s="7">
-        <v>463</v>
+        <v>837</v>
       </c>
       <c r="N22" s="7">
-        <v>380905</v>
+        <v>636370</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>462</v>
+        <v>414</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>463</v>
+        <v>415</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>464</v>
+        <v>416</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5758,10 +5119,10 @@
         <v>3</v>
       </c>
       <c r="C23" s="7">
-        <v>1005</v>
+        <v>3372</v>
       </c>
       <c r="D23" s="7">
-        <v>965244</v>
+        <v>3457930</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>40</v>
@@ -5773,10 +5134,10 @@
         <v>40</v>
       </c>
       <c r="H23" s="7">
-        <v>1560</v>
+        <v>5362</v>
       </c>
       <c r="I23" s="7">
-        <v>1149019</v>
+        <v>3710083</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>40</v>
@@ -5788,10 +5149,10 @@
         <v>40</v>
       </c>
       <c r="M23" s="7">
-        <v>2565</v>
+        <v>8734</v>
       </c>
       <c r="N23" s="7">
-        <v>2114262</v>
+        <v>7168014</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>40</v>
@@ -5804,222 +5165,15 @@
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C24" s="7">
-        <v>2459</v>
-      </c>
-      <c r="D24" s="7">
-        <v>2493482</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>465</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>466</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>467</v>
-      </c>
-      <c r="H24" s="7">
-        <v>3983</v>
-      </c>
-      <c r="I24" s="7">
-        <v>2840962</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>468</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>469</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>470</v>
-      </c>
-      <c r="M24" s="7">
-        <v>6442</v>
-      </c>
-      <c r="N24" s="7">
-        <v>5334444</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>471</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>472</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" s="1"/>
-      <c r="B25" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C25" s="7">
-        <v>597</v>
-      </c>
-      <c r="D25" s="7">
-        <v>583303</v>
-      </c>
-      <c r="E25" s="7" t="s">
-        <v>474</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>475</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>476</v>
-      </c>
-      <c r="H25" s="7">
-        <v>858</v>
-      </c>
-      <c r="I25" s="7">
-        <v>614422</v>
-      </c>
-      <c r="J25" s="7" t="s">
-        <v>477</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>478</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>479</v>
-      </c>
-      <c r="M25" s="7">
-        <v>1455</v>
-      </c>
-      <c r="N25" s="7">
-        <v>1197725</v>
-      </c>
-      <c r="O25" s="7" t="s">
-        <v>480</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>481</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A26" s="1"/>
-      <c r="B26" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C26" s="7">
-        <v>316</v>
-      </c>
-      <c r="D26" s="7">
-        <v>306503</v>
-      </c>
-      <c r="E26" s="7" t="s">
-        <v>483</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>484</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>485</v>
-      </c>
-      <c r="H26" s="7">
-        <v>521</v>
-      </c>
-      <c r="I26" s="7">
-        <v>377803</v>
-      </c>
-      <c r="J26" s="7" t="s">
-        <v>486</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>487</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>488</v>
-      </c>
-      <c r="M26" s="7">
-        <v>837</v>
-      </c>
-      <c r="N26" s="7">
-        <v>684306</v>
-      </c>
-      <c r="O26" s="7" t="s">
-        <v>489</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>490</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A27" s="1"/>
-      <c r="B27" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C27" s="7">
-        <v>3372</v>
-      </c>
-      <c r="D27" s="7">
-        <v>3383288</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H27" s="7">
-        <v>5362</v>
-      </c>
-      <c r="I27" s="7">
-        <v>3833186</v>
-      </c>
-      <c r="J27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="M27" s="7">
-        <v>8734</v>
-      </c>
-      <c r="N27" s="7">
-        <v>7216475</v>
-      </c>
-      <c r="O27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="P27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>177</v>
+      <c r="A24" t="s">
+        <v>151</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A16:A19"/>
     <mergeCell ref="A20:A23"/>
-    <mergeCell ref="A24:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
